--- a/Pandora modell.xlsx
+++ b/Pandora modell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6891F13-B6B4-D34C-B893-085C602B09D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB56FD7-4FE2-AB4C-A18A-DAE831E06CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24260" yWindow="500" windowWidth="26660" windowHeight="26740" activeTab="1" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
   </bookViews>
@@ -88,7 +88,7 @@
         <t>[Kommentartråd]
 Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
 Kommentar:
-    Spain, canda, poland, portugal and japan</t>
+    Spain, canada, poland, portugal and japan</t>
       </text>
     </comment>
   </commentList>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="216">
   <si>
     <t>Kapitalstruktur</t>
   </si>
@@ -646,9 +646,6 @@
     <t>around 24%</t>
   </si>
   <si>
-    <t>Guidance (Q325):</t>
-  </si>
-  <si>
     <t>Q325, Pandora nedjuster en gang til "around 23%"</t>
   </si>
   <si>
@@ -764,6 +761,12 @@
   </si>
   <si>
     <t>06.05.25: Pamela Naderson and Tyla wear Pandora jewellery at the Met gala</t>
+  </si>
+  <si>
+    <t>05.01.26: Pandora kjøper tilbake 47 240 aksjer</t>
+  </si>
+  <si>
+    <t>Guidance for 2025 (Q325):</t>
   </si>
 </sst>
 </file>
@@ -976,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1058,6 +1061,10 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1452,17 +1459,17 @@
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A38" dT="2025-11-05T08:35:28.73" personId="{8871B6E6-CA49-A94E-9A72-CF975C8356BB}" id="{A30BE777-0800-264B-A177-1C1B62EF1F1C}">
-    <text>Spain, canda, poland, portugal and japan</text>
+    <text>Spain, canada, poland, portugal and japan</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6FABC2-1253-924E-8CB2-F0C03750A097}">
-  <dimension ref="A2:AA61"/>
+  <dimension ref="A2:AA62"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1483,7 @@
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M2" s="59" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -1515,12 +1522,12 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M11" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N11" s="59"/>
       <c r="O11" s="59"/>
@@ -1549,21 +1556,21 @@
         <v>36</v>
       </c>
       <c r="X11" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y11" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="Y11" s="60" t="s">
+      <c r="Z11" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="Z11" s="60" t="s">
+      <c r="AA11" s="60" t="s">
         <v>185</v>
-      </c>
-      <c r="AA11" s="60" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M12" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P12" s="62">
         <v>23.83</v>
@@ -1602,10 +1609,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
@@ -1649,15 +1656,15 @@
         <v>159</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
       <c r="P14" s="61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R14" s="61">
         <v>0.92</v>
@@ -1669,22 +1676,22 @@
         <v>0.38</v>
       </c>
       <c r="U14" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="V14" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="V14" s="61" t="s">
-        <v>190</v>
-      </c>
       <c r="W14" s="61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X14" s="61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y14" s="61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z14" s="61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA14" s="61"/>
     </row>
@@ -1712,12 +1719,12 @@
         <v>4493</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>136</v>
@@ -1726,7 +1733,7 @@
         <v>75.3</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1744,122 +1751,127 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1877,7 +1889,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="Z4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG33" sqref="AG33"/>
+      <selection pane="bottomRight" activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2047,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="21">
-        <v>660</v>
+        <v>588.4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>53</v>
@@ -2097,10 +2109,14 @@
       <c r="R4" s="13">
         <v>6269</v>
       </c>
-      <c r="S4" s="12">
-        <v>12550</v>
-      </c>
-      <c r="U4" s="14"/>
+      <c r="S4" s="65">
+        <v>11900</v>
+      </c>
+      <c r="T4" s="68"/>
+      <c r="U4" s="14">
+        <f>SUM(P4:S4)</f>
+        <v>32591</v>
+      </c>
       <c r="V4" s="12">
         <v>16737</v>
       </c>
@@ -2132,48 +2148,47 @@
         <v>31680</v>
       </c>
       <c r="AF4" s="13">
-        <f>AE4*1.05</f>
-        <v>33264</v>
+        <v>32591</v>
       </c>
       <c r="AG4" s="12">
         <f>AF4*1.05</f>
-        <v>34927.200000000004</v>
+        <v>34220.550000000003</v>
       </c>
       <c r="AH4" s="12">
         <f t="shared" ref="AH4:AP4" si="0">AG4*1.05</f>
-        <v>36673.560000000005</v>
+        <v>35931.577500000007</v>
       </c>
       <c r="AI4" s="12">
         <f t="shared" si="0"/>
-        <v>38507.238000000005</v>
+        <v>37728.156375000006</v>
       </c>
       <c r="AJ4" s="12">
         <f t="shared" si="0"/>
-        <v>40432.599900000008</v>
+        <v>39614.564193750011</v>
       </c>
       <c r="AK4" s="12">
         <f t="shared" si="0"/>
-        <v>42454.229895000011</v>
+        <v>41595.29240343751</v>
       </c>
       <c r="AL4" s="12">
         <f t="shared" si="0"/>
-        <v>44576.941389750013</v>
+        <v>43675.057023609384</v>
       </c>
       <c r="AM4" s="12">
         <f t="shared" si="0"/>
-        <v>46805.788459237512</v>
+        <v>45858.809874789855</v>
       </c>
       <c r="AN4" s="12">
         <f t="shared" si="0"/>
-        <v>49146.077882199388</v>
+        <v>48151.750368529349</v>
       </c>
       <c r="AO4" s="12">
         <f t="shared" si="0"/>
-        <v>51603.381776309361</v>
+        <v>50559.337886955815</v>
       </c>
       <c r="AP4" s="12">
         <f t="shared" si="0"/>
-        <v>54183.550865124831</v>
+        <v>53087.30478130361</v>
       </c>
     </row>
     <row r="5" spans="1:233" x14ac:dyDescent="0.25">
@@ -2231,8 +2246,10 @@
       <c r="R5" s="15">
         <v>-1300</v>
       </c>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
+      <c r="S5" s="66">
+        <v>-2700</v>
+      </c>
+      <c r="T5" s="66"/>
       <c r="V5" s="14">
         <v>-4544</v>
       </c>
@@ -2265,47 +2282,47 @@
       </c>
       <c r="AF5" s="15">
         <f>AF4*-0.205</f>
-        <v>-6819.12</v>
+        <v>-6681.1549999999997</v>
       </c>
       <c r="AG5" s="14">
         <f>AG4*-0.21</f>
-        <v>-7334.7120000000004</v>
+        <v>-7186.3155000000006</v>
       </c>
       <c r="AH5" s="14">
         <f t="shared" ref="AH5:AP5" si="1">AH4*-0.205</f>
-        <v>-7518.0798000000004</v>
+        <v>-7365.9733875000011</v>
       </c>
       <c r="AI5" s="14">
         <f t="shared" si="1"/>
-        <v>-7893.9837900000002</v>
+        <v>-7734.272056875001</v>
       </c>
       <c r="AJ5" s="14">
         <f t="shared" si="1"/>
-        <v>-8288.6829795000012</v>
+        <v>-8120.9856597187518</v>
       </c>
       <c r="AK5" s="14">
         <f t="shared" si="1"/>
-        <v>-8703.1171284750017</v>
+        <v>-8527.0349427046895</v>
       </c>
       <c r="AL5" s="14">
         <f t="shared" si="1"/>
-        <v>-9138.2729848987528</v>
+        <v>-8953.3866898399228</v>
       </c>
       <c r="AM5" s="14">
         <f t="shared" si="1"/>
-        <v>-9595.1866341436889</v>
+        <v>-9401.0560243319196</v>
       </c>
       <c r="AN5" s="14">
         <f t="shared" si="1"/>
-        <v>-10074.945965850873</v>
+        <v>-9871.1088255485156</v>
       </c>
       <c r="AO5" s="14">
         <f t="shared" si="1"/>
-        <v>-10578.693264143418</v>
+        <v>-10364.664266825941</v>
       </c>
       <c r="AP5" s="14">
         <f t="shared" si="1"/>
-        <v>-11107.62792735059</v>
+        <v>-10882.897480167239</v>
       </c>
     </row>
     <row r="6" spans="1:233" x14ac:dyDescent="0.25">
@@ -2314,7 +2331,7 @@
       </c>
       <c r="B6" s="5">
         <f>B4*B5</f>
-        <v>52140</v>
+        <v>46483.6</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
@@ -2376,10 +2393,14 @@
         <v>5607</v>
       </c>
       <c r="R6" s="15">
-        <f t="shared" ref="R6" si="3">SUM(R4:R5)</f>
+        <f t="shared" ref="R6:S6" si="3">SUM(R4:R5)</f>
         <v>4969</v>
       </c>
-      <c r="S6" s="14"/>
+      <c r="S6" s="66">
+        <f t="shared" si="3"/>
+        <v>9200</v>
+      </c>
+      <c r="T6" s="68"/>
       <c r="V6" s="14">
         <f t="shared" ref="V6:AE6" si="4">SUM(V4:V5)</f>
         <v>12193</v>
@@ -2422,47 +2443,47 @@
       </c>
       <c r="AF6" s="15">
         <f t="shared" ref="AF6:AP6" si="5">SUM(AF4:AF5)</f>
-        <v>26444.880000000001</v>
+        <v>25909.845000000001</v>
       </c>
       <c r="AG6" s="14">
         <f t="shared" si="5"/>
-        <v>27592.488000000005</v>
+        <v>27034.234500000002</v>
       </c>
       <c r="AH6" s="14">
         <f t="shared" si="5"/>
-        <v>29155.480200000005</v>
+        <v>28565.604112500005</v>
       </c>
       <c r="AI6" s="14">
         <f t="shared" si="5"/>
-        <v>30613.254210000006</v>
+        <v>29993.884318125005</v>
       </c>
       <c r="AJ6" s="14">
         <f t="shared" si="5"/>
-        <v>32143.916920500007</v>
+        <v>31493.578534031258</v>
       </c>
       <c r="AK6" s="14">
         <f t="shared" si="5"/>
-        <v>33751.11276652501</v>
+        <v>33068.257460732821</v>
       </c>
       <c r="AL6" s="14">
         <f t="shared" si="5"/>
-        <v>35438.668404851262</v>
+        <v>34721.670333769463</v>
       </c>
       <c r="AM6" s="14">
         <f t="shared" si="5"/>
-        <v>37210.601825093821</v>
+        <v>36457.753850457935</v>
       </c>
       <c r="AN6" s="14">
         <f t="shared" si="5"/>
-        <v>39071.131916348517</v>
+        <v>38280.641542980833</v>
       </c>
       <c r="AO6" s="14">
         <f t="shared" si="5"/>
-        <v>41024.688512165943</v>
+        <v>40194.673620129877</v>
       </c>
       <c r="AP6" s="14">
         <f t="shared" si="5"/>
-        <v>43075.922937774245</v>
+        <v>42204.407301136373</v>
       </c>
     </row>
     <row r="7" spans="1:233" x14ac:dyDescent="0.25">
@@ -2521,7 +2542,10 @@
       <c r="R7" s="15">
         <v>-3494</v>
       </c>
-      <c r="S7" s="14"/>
+      <c r="S7" s="66">
+        <v>-4500</v>
+      </c>
+      <c r="T7" s="68"/>
       <c r="V7" s="14">
         <v>-4722</v>
       </c>
@@ -2553,48 +2577,48 @@
         <v>-14844</v>
       </c>
       <c r="AF7" s="15">
-        <f>AE7*1.06</f>
-        <v>-15734.640000000001</v>
+        <f>AE7*1.04</f>
+        <v>-15437.76</v>
       </c>
       <c r="AG7" s="14">
         <f>AF7*1.05</f>
-        <v>-16521.372000000003</v>
+        <v>-16209.648000000001</v>
       </c>
       <c r="AH7" s="14">
         <f>AG7*1.06</f>
-        <v>-17512.654320000005</v>
+        <v>-17182.226880000002</v>
       </c>
       <c r="AI7" s="14">
         <f t="shared" ref="AI7:AP7" si="6">AH7*1.045</f>
-        <v>-18300.723764400005</v>
+        <v>-17955.427089600002</v>
       </c>
       <c r="AJ7" s="14">
         <f t="shared" si="6"/>
-        <v>-19124.256333798003</v>
+        <v>-18763.421308632001</v>
       </c>
       <c r="AK7" s="14">
         <f t="shared" si="6"/>
-        <v>-19984.84786881891</v>
+        <v>-19607.775267520439</v>
       </c>
       <c r="AL7" s="14">
         <f t="shared" si="6"/>
-        <v>-20884.166022915761</v>
+        <v>-20490.125154558857</v>
       </c>
       <c r="AM7" s="14">
         <f t="shared" si="6"/>
-        <v>-21823.953493946967</v>
+        <v>-21412.180786514004</v>
       </c>
       <c r="AN7" s="14">
         <f t="shared" si="6"/>
-        <v>-22806.03140117458</v>
+        <v>-22375.728921907132</v>
       </c>
       <c r="AO7" s="14">
         <f t="shared" si="6"/>
-        <v>-23832.302814227434</v>
+        <v>-23382.636723392952</v>
       </c>
       <c r="AP7" s="14">
         <f t="shared" si="6"/>
-        <v>-24904.756440867666</v>
+        <v>-24434.855375945634</v>
       </c>
     </row>
     <row r="8" spans="1:233" x14ac:dyDescent="0.25">
@@ -2653,7 +2677,10 @@
       <c r="R8" s="15">
         <v>-596</v>
       </c>
-      <c r="S8" s="14"/>
+      <c r="S8" s="66">
+        <v>-700</v>
+      </c>
+      <c r="T8" s="68"/>
       <c r="V8" s="14">
         <v>-1657</v>
       </c>
@@ -2735,7 +2762,7 @@
       </c>
       <c r="B9" s="6">
         <f>B6-B7+B8</f>
-        <v>69294</v>
+        <v>63637.599999999999</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>58</v>
@@ -2797,10 +2824,18 @@
         <v>1287</v>
       </c>
       <c r="R9" s="13">
-        <f t="shared" ref="R9" si="10">SUM(R6:R8)</f>
+        <f t="shared" ref="R9:S9" si="10">SUM(R6:R8)</f>
         <v>879</v>
       </c>
-      <c r="S9" s="12"/>
+      <c r="S9" s="65">
+        <f t="shared" si="10"/>
+        <v>4000</v>
+      </c>
+      <c r="T9" s="68"/>
+      <c r="U9" s="14">
+        <f>SUM(P9:S9)</f>
+        <v>7807</v>
+      </c>
       <c r="V9" s="12">
         <f t="shared" ref="V9:AE9" si="11">SUM(V6:V8)</f>
         <v>5814</v>
@@ -2843,47 +2878,47 @@
       </c>
       <c r="AF9" s="13">
         <f t="shared" ref="AF9:AP9" si="12">SUM(AF6:AF8)</f>
-        <v>8090.98</v>
+        <v>7852.8250000000007</v>
       </c>
       <c r="AG9" s="12">
         <f t="shared" si="12"/>
-        <v>8320.8930000000018</v>
+        <v>8074.3635000000013</v>
       </c>
       <c r="AH9" s="12">
         <f t="shared" si="12"/>
-        <v>8755.0917300000001</v>
+        <v>8495.6430825000025</v>
       </c>
       <c r="AI9" s="12">
         <f t="shared" si="12"/>
-        <v>9280.4095880999994</v>
+        <v>9006.3363710250014</v>
       </c>
       <c r="AJ9" s="12">
         <f t="shared" si="12"/>
-        <v>9835.9336863270037</v>
+        <v>9546.4303250242556</v>
       </c>
       <c r="AK9" s="12">
         <f t="shared" si="12"/>
-        <v>10423.351652312349</v>
+        <v>10117.56894781863</v>
       </c>
       <c r="AL9" s="12">
         <f t="shared" si="12"/>
-        <v>11044.443474272062</v>
+        <v>10721.486271547168</v>
       </c>
       <c r="AM9" s="12">
         <f t="shared" si="12"/>
-        <v>11701.086478100244</v>
+        <v>11360.011210897321</v>
       </c>
       <c r="AN9" s="12">
         <f t="shared" si="12"/>
-        <v>12395.260569474995</v>
+        <v>12035.072675374759</v>
       </c>
       <c r="AO9" s="12">
         <f t="shared" si="12"/>
-        <v>13129.053754954621</v>
+        <v>12748.704953753037</v>
       </c>
       <c r="AP9" s="12">
         <f t="shared" si="12"/>
-        <v>13904.667956773495</v>
+        <v>13503.053385057656</v>
       </c>
     </row>
     <row r="10" spans="1:233" x14ac:dyDescent="0.25">
@@ -2935,7 +2970,8 @@
       <c r="R10" s="15">
         <v>42</v>
       </c>
-      <c r="S10" s="14"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="68"/>
       <c r="V10" s="14">
         <v>84</v>
       </c>
@@ -3059,7 +3095,8 @@
       <c r="R11" s="15">
         <v>-274</v>
       </c>
-      <c r="S11" s="14"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="68"/>
       <c r="V11" s="14">
         <v>-553</v>
       </c>
@@ -3195,10 +3232,14 @@
         <v>1063</v>
       </c>
       <c r="R12" s="15">
-        <f t="shared" ref="R12" si="16">SUM(R9:R11)</f>
+        <f t="shared" ref="R12:S12" si="16">SUM(R9:R11)</f>
         <v>647</v>
       </c>
-      <c r="S12" s="14"/>
+      <c r="S12" s="66">
+        <f t="shared" si="16"/>
+        <v>4000</v>
+      </c>
+      <c r="T12" s="68"/>
       <c r="V12" s="14">
         <f t="shared" ref="V12:AE12" si="17">SUM(V9:V11)</f>
         <v>5345</v>
@@ -3241,47 +3282,47 @@
       </c>
       <c r="AF12" s="15">
         <f t="shared" ref="AF12:AP12" si="18">SUM(AF9:AF11)</f>
-        <v>7166.98</v>
+        <v>6928.8250000000007</v>
       </c>
       <c r="AG12" s="14">
         <f t="shared" si="18"/>
-        <v>7378.4130000000023</v>
+        <v>7131.8835000000017</v>
       </c>
       <c r="AH12" s="14">
         <f t="shared" si="18"/>
-        <v>7793.7621299999992</v>
+        <v>7534.3134825000016</v>
       </c>
       <c r="AI12" s="14">
         <f t="shared" si="18"/>
-        <v>8299.8533960999994</v>
+        <v>8025.7801790250014</v>
       </c>
       <c r="AJ12" s="14">
         <f t="shared" si="18"/>
-        <v>8835.7663704870047</v>
+        <v>8546.2630091842566</v>
       </c>
       <c r="AK12" s="14">
         <f t="shared" si="18"/>
-        <v>9403.1809901555498</v>
+        <v>9097.3982856618313</v>
       </c>
       <c r="AL12" s="14">
         <f t="shared" si="18"/>
-        <v>10003.869398872126</v>
+        <v>9680.912196147232</v>
       </c>
       <c r="AM12" s="14">
         <f t="shared" si="18"/>
-        <v>10639.700921192309</v>
+        <v>10298.625653989386</v>
       </c>
       <c r="AN12" s="14">
         <f t="shared" si="18"/>
-        <v>11312.647301428902</v>
+        <v>10952.459407328666</v>
       </c>
       <c r="AO12" s="14">
         <f t="shared" si="18"/>
-        <v>12024.788221547606</v>
+        <v>11644.439420346022</v>
       </c>
       <c r="AP12" s="14">
         <f t="shared" si="18"/>
-        <v>12778.31711269834</v>
+        <v>12376.7025409825</v>
       </c>
     </row>
     <row r="13" spans="1:233" x14ac:dyDescent="0.25">
@@ -3333,7 +3374,10 @@
       <c r="R13" s="15">
         <v>-159</v>
       </c>
-      <c r="S13" s="14"/>
+      <c r="S13" s="66">
+        <v>-900</v>
+      </c>
+      <c r="T13" s="68"/>
       <c r="V13" s="14">
         <v>-1671</v>
       </c>
@@ -3366,47 +3410,47 @@
       </c>
       <c r="AF13" s="15">
         <f>AF12*-0.24</f>
-        <v>-1720.0751999999998</v>
+        <v>-1662.9180000000001</v>
       </c>
       <c r="AG13" s="14">
         <f t="shared" ref="AG13:AP13" si="19">AG12*-0.24</f>
-        <v>-1770.8191200000006</v>
+        <v>-1711.6520400000004</v>
       </c>
       <c r="AH13" s="14">
         <f t="shared" si="19"/>
-        <v>-1870.5029111999997</v>
+        <v>-1808.2352358000003</v>
       </c>
       <c r="AI13" s="14">
         <f t="shared" si="19"/>
-        <v>-1991.9648150639998</v>
+        <v>-1926.1872429660002</v>
       </c>
       <c r="AJ13" s="14">
         <f t="shared" si="19"/>
-        <v>-2120.5839289168812</v>
+        <v>-2051.1031222042216</v>
       </c>
       <c r="AK13" s="14">
         <f t="shared" si="19"/>
-        <v>-2256.7634376373317</v>
+        <v>-2183.3755885588394</v>
       </c>
       <c r="AL13" s="14">
         <f t="shared" si="19"/>
-        <v>-2400.9286557293103</v>
+        <v>-2323.4189270753354</v>
       </c>
       <c r="AM13" s="14">
         <f t="shared" si="19"/>
-        <v>-2553.5282210861542</v>
+        <v>-2471.6701569574525</v>
       </c>
       <c r="AN13" s="14">
         <f t="shared" si="19"/>
-        <v>-2715.0353523429362</v>
+        <v>-2628.5902577588799</v>
       </c>
       <c r="AO13" s="14">
         <f t="shared" si="19"/>
-        <v>-2885.9491731714252</v>
+        <v>-2794.6654608830449</v>
       </c>
       <c r="AP13" s="14">
         <f t="shared" si="19"/>
-        <v>-3066.7961070476013</v>
+        <v>-2970.4086098357998</v>
       </c>
     </row>
     <row r="14" spans="1:233" x14ac:dyDescent="0.25">
@@ -3470,10 +3514,14 @@
         <v>802</v>
       </c>
       <c r="R14" s="13">
-        <f t="shared" ref="R14" si="21">SUM(R12:R13)</f>
+        <f t="shared" ref="R14:S14" si="21">SUM(R12:R13)</f>
         <v>488</v>
       </c>
-      <c r="S14" s="12"/>
+      <c r="S14" s="65">
+        <f t="shared" si="21"/>
+        <v>3100</v>
+      </c>
+      <c r="T14" s="68"/>
       <c r="V14" s="12">
         <f t="shared" ref="V14:AE14" si="22">SUM(V12:V13)</f>
         <v>3674</v>
@@ -3516,811 +3564,811 @@
       </c>
       <c r="AF14" s="13">
         <f t="shared" ref="AF14:AP14" si="23">SUM(AF12:AF13)</f>
-        <v>5446.9048000000003</v>
+        <v>5265.9070000000011</v>
       </c>
       <c r="AG14" s="12">
         <f t="shared" si="23"/>
-        <v>5607.5938800000022</v>
+        <v>5420.2314600000009</v>
       </c>
       <c r="AH14" s="12">
         <f t="shared" si="23"/>
-        <v>5923.2592187999999</v>
+        <v>5726.0782467000008</v>
       </c>
       <c r="AI14" s="12">
         <f t="shared" si="23"/>
-        <v>6307.8885810359998</v>
+        <v>6099.5929360590017</v>
       </c>
       <c r="AJ14" s="12">
         <f t="shared" si="23"/>
-        <v>6715.182441570123</v>
+        <v>6495.1598869800346</v>
       </c>
       <c r="AK14" s="12">
         <f t="shared" si="23"/>
-        <v>7146.4175525182181</v>
+        <v>6914.0226971029915</v>
       </c>
       <c r="AL14" s="12">
         <f t="shared" si="23"/>
-        <v>7602.9407431428153</v>
+        <v>7357.4932690718961</v>
       </c>
       <c r="AM14" s="12">
         <f t="shared" si="23"/>
-        <v>8086.1727001061545</v>
+        <v>7826.9554970319332</v>
       </c>
       <c r="AN14" s="12">
         <f t="shared" si="23"/>
-        <v>8597.6119490859655</v>
+        <v>8323.8691495697858</v>
       </c>
       <c r="AO14" s="12">
         <f t="shared" si="23"/>
-        <v>9138.8390483761796</v>
+        <v>8849.7739594629766</v>
       </c>
       <c r="AP14" s="12">
         <f t="shared" si="23"/>
-        <v>9711.5210056507385</v>
+        <v>9406.2939311466998</v>
       </c>
       <c r="AQ14" s="12">
         <f>AP14*(1+$AS$18)</f>
-        <v>9614.4057955942317</v>
+        <v>9312.230991835233</v>
       </c>
       <c r="AR14" s="12">
         <f t="shared" ref="AR14:DC14" si="24">AQ14*(1+$AS$18)</f>
-        <v>9518.2617376382896</v>
+        <v>9219.1086819168813</v>
       </c>
       <c r="AS14" s="12">
         <f t="shared" si="24"/>
-        <v>9423.0791202619057</v>
+        <v>9126.9175950977133</v>
       </c>
       <c r="AT14" s="12">
         <f t="shared" si="24"/>
-        <v>9328.8483290592867</v>
+        <v>9035.6484191467353</v>
       </c>
       <c r="AU14" s="12">
         <f t="shared" si="24"/>
-        <v>9235.5598457686938</v>
+        <v>8945.2919349552685</v>
       </c>
       <c r="AV14" s="12">
         <f t="shared" si="24"/>
-        <v>9143.2042473110068</v>
+        <v>8855.8390156057158</v>
       </c>
       <c r="AW14" s="12">
         <f t="shared" si="24"/>
-        <v>9051.7722048378964</v>
+        <v>8767.2806254496591</v>
       </c>
       <c r="AX14" s="12">
         <f t="shared" si="24"/>
-        <v>8961.2544827895181</v>
+        <v>8679.6078191951619</v>
       </c>
       <c r="AY14" s="12">
         <f t="shared" si="24"/>
-        <v>8871.6419379616236</v>
+        <v>8592.81174100321</v>
       </c>
       <c r="AZ14" s="12">
         <f t="shared" si="24"/>
-        <v>8782.9255185820075</v>
+        <v>8506.8836235931776</v>
       </c>
       <c r="BA14" s="12">
         <f t="shared" si="24"/>
-        <v>8695.0962633961881</v>
+        <v>8421.8147873572452</v>
       </c>
       <c r="BB14" s="12">
         <f t="shared" si="24"/>
-        <v>8608.1453007622258</v>
+        <v>8337.5966394836723</v>
       </c>
       <c r="BC14" s="12">
         <f t="shared" si="24"/>
-        <v>8522.0638477546036</v>
+        <v>8254.2206730888356</v>
       </c>
       <c r="BD14" s="12">
         <f t="shared" si="24"/>
-        <v>8436.8432092770581</v>
+        <v>8171.6784663579474</v>
       </c>
       <c r="BE14" s="12">
         <f t="shared" si="24"/>
-        <v>8352.4747771842867</v>
+        <v>8089.9616816943681</v>
       </c>
       <c r="BF14" s="12">
         <f t="shared" si="24"/>
-        <v>8268.9500294124446</v>
+        <v>8009.0620648774247</v>
       </c>
       <c r="BG14" s="12">
         <f t="shared" si="24"/>
-        <v>8186.2605291183199</v>
+        <v>7928.9714442286504</v>
       </c>
       <c r="BH14" s="12">
         <f t="shared" si="24"/>
-        <v>8104.3979238271368</v>
+        <v>7849.6817297863636</v>
       </c>
       <c r="BI14" s="12">
         <f t="shared" si="24"/>
-        <v>8023.3539445888655</v>
+        <v>7771.1849124885002</v>
       </c>
       <c r="BJ14" s="12">
         <f t="shared" si="24"/>
-        <v>7943.1204051429768</v>
+        <v>7693.4730633636154</v>
       </c>
       <c r="BK14" s="12">
         <f t="shared" si="24"/>
-        <v>7863.6892010915471</v>
+        <v>7616.5383327299796</v>
       </c>
       <c r="BL14" s="12">
         <f t="shared" si="24"/>
-        <v>7785.0523090806319</v>
+        <v>7540.3729494026802</v>
       </c>
       <c r="BM14" s="12">
         <f t="shared" si="24"/>
-        <v>7707.2017859898251</v>
+        <v>7464.969219908653</v>
       </c>
       <c r="BN14" s="12">
         <f t="shared" si="24"/>
-        <v>7630.1297681299266</v>
+        <v>7390.3195277095665</v>
       </c>
       <c r="BO14" s="12">
         <f t="shared" si="24"/>
-        <v>7553.8284704486268</v>
+        <v>7316.4163324324709</v>
       </c>
       <c r="BP14" s="12">
         <f t="shared" si="24"/>
-        <v>7478.2901857441402</v>
+        <v>7243.2521691081465</v>
       </c>
       <c r="BQ14" s="12">
         <f t="shared" si="24"/>
-        <v>7403.507283886699</v>
+        <v>7170.8196474170654</v>
       </c>
       <c r="BR14" s="12">
         <f t="shared" si="24"/>
-        <v>7329.4722110478324</v>
+        <v>7099.1114509428944</v>
       </c>
       <c r="BS14" s="12">
         <f t="shared" si="24"/>
-        <v>7256.1774889373537</v>
+        <v>7028.1203364334651</v>
       </c>
       <c r="BT14" s="12">
         <f t="shared" si="24"/>
-        <v>7183.61571404798</v>
+        <v>6957.8391330691302</v>
       </c>
       <c r="BU14" s="12">
         <f t="shared" si="24"/>
-        <v>7111.7795569074997</v>
+        <v>6888.2607417384388</v>
       </c>
       <c r="BV14" s="12">
         <f t="shared" si="24"/>
-        <v>7040.6617613384242</v>
+        <v>6819.3781343210539</v>
       </c>
       <c r="BW14" s="12">
         <f t="shared" si="24"/>
-        <v>6970.2551437250395</v>
+        <v>6751.1843529778434</v>
       </c>
       <c r="BX14" s="12">
         <f t="shared" si="24"/>
-        <v>6900.5525922877887</v>
+        <v>6683.6725094480653</v>
       </c>
       <c r="BY14" s="12">
         <f t="shared" si="24"/>
-        <v>6831.5470663649112</v>
+        <v>6616.8357843535841</v>
       </c>
       <c r="BZ14" s="12">
         <f t="shared" si="24"/>
-        <v>6763.2315957012624</v>
+        <v>6550.6674265100482</v>
       </c>
       <c r="CA14" s="12">
         <f t="shared" si="24"/>
-        <v>6695.5992797442495</v>
+        <v>6485.1607522449476</v>
       </c>
       <c r="CB14" s="12">
         <f t="shared" si="24"/>
-        <v>6628.6432869468072</v>
+        <v>6420.3091447224979</v>
       </c>
       <c r="CC14" s="12">
         <f t="shared" si="24"/>
-        <v>6562.3568540773394</v>
+        <v>6356.1060532752726</v>
       </c>
       <c r="CD14" s="12">
         <f t="shared" si="24"/>
-        <v>6496.7332855365657</v>
+        <v>6292.5449927425198</v>
       </c>
       <c r="CE14" s="12">
         <f t="shared" si="24"/>
-        <v>6431.7659526812004</v>
+        <v>6229.6195428150941</v>
       </c>
       <c r="CF14" s="12">
         <f t="shared" si="24"/>
-        <v>6367.448293154388</v>
+        <v>6167.3233473869432</v>
       </c>
       <c r="CG14" s="12">
         <f t="shared" si="24"/>
-        <v>6303.7738102228441</v>
+        <v>6105.6501139130733</v>
       </c>
       <c r="CH14" s="12">
         <f t="shared" si="24"/>
-        <v>6240.736072120616</v>
+        <v>6044.5936127739424</v>
       </c>
       <c r="CI14" s="12">
         <f t="shared" si="24"/>
-        <v>6178.3287113994102</v>
+        <v>5984.1476766462029</v>
       </c>
       <c r="CJ14" s="12">
         <f t="shared" si="24"/>
-        <v>6116.5454242854157</v>
+        <v>5924.3061998797411</v>
       </c>
       <c r="CK14" s="12">
         <f t="shared" si="24"/>
-        <v>6055.3799700425616</v>
+        <v>5865.0631378809439</v>
       </c>
       <c r="CL14" s="12">
         <f t="shared" si="24"/>
-        <v>5994.8261703421358</v>
+        <v>5806.4125065021344</v>
       </c>
       <c r="CM14" s="12">
         <f t="shared" si="24"/>
-        <v>5934.877908638714</v>
+        <v>5748.3483814371129</v>
       </c>
       <c r="CN14" s="12">
         <f t="shared" si="24"/>
-        <v>5875.5291295523266</v>
+        <v>5690.8648976227414</v>
       </c>
       <c r="CO14" s="12">
         <f t="shared" si="24"/>
-        <v>5816.7738382568032</v>
+        <v>5633.9562486465138</v>
       </c>
       <c r="CP14" s="12">
         <f t="shared" si="24"/>
-        <v>5758.606099874235</v>
+        <v>5577.6166861600486</v>
       </c>
       <c r="CQ14" s="12">
         <f t="shared" si="24"/>
-        <v>5701.0200388754929</v>
+        <v>5521.8405192984483</v>
       </c>
       <c r="CR14" s="12">
         <f t="shared" si="24"/>
-        <v>5644.0098384867379</v>
+        <v>5466.6221141054639</v>
       </c>
       <c r="CS14" s="12">
         <f t="shared" si="24"/>
-        <v>5587.5697401018706</v>
+        <v>5411.955892964409</v>
       </c>
       <c r="CT14" s="12">
         <f t="shared" si="24"/>
-        <v>5531.6940427008522</v>
+        <v>5357.8363340347651</v>
       </c>
       <c r="CU14" s="12">
         <f t="shared" si="24"/>
-        <v>5476.3771022738438</v>
+        <v>5304.2579706944171</v>
       </c>
       <c r="CV14" s="12">
         <f t="shared" si="24"/>
-        <v>5421.6133312511056</v>
+        <v>5251.2153909874733</v>
       </c>
       <c r="CW14" s="12">
         <f t="shared" si="24"/>
-        <v>5367.3971979385942</v>
+        <v>5198.7032370775987</v>
       </c>
       <c r="CX14" s="12">
         <f t="shared" si="24"/>
-        <v>5313.7232259592083</v>
+        <v>5146.7162047068223</v>
       </c>
       <c r="CY14" s="12">
         <f t="shared" si="24"/>
-        <v>5260.5859936996158</v>
+        <v>5095.2490426597542</v>
       </c>
       <c r="CZ14" s="12">
         <f t="shared" si="24"/>
-        <v>5207.9801337626195</v>
+        <v>5044.2965522331569</v>
       </c>
       <c r="DA14" s="12">
         <f t="shared" si="24"/>
-        <v>5155.9003324249934</v>
+        <v>4993.8535867108258</v>
       </c>
       <c r="DB14" s="12">
         <f t="shared" si="24"/>
-        <v>5104.3413291007437</v>
+        <v>4943.9150508437178</v>
       </c>
       <c r="DC14" s="12">
         <f t="shared" si="24"/>
-        <v>5053.297915809736</v>
+        <v>4894.475900335281</v>
       </c>
       <c r="DD14" s="12">
         <f t="shared" ref="DD14:FO14" si="25">DC14*(1+$AS$18)</f>
-        <v>5002.7649366516389</v>
+        <v>4845.5311413319278</v>
       </c>
       <c r="DE14" s="12">
         <f t="shared" si="25"/>
-        <v>4952.7372872851229</v>
+        <v>4797.0758299186082</v>
       </c>
       <c r="DF14" s="12">
         <f t="shared" si="25"/>
-        <v>4903.2099144122712</v>
+        <v>4749.1050716194222</v>
       </c>
       <c r="DG14" s="12">
         <f t="shared" si="25"/>
-        <v>4854.1778152681482</v>
+        <v>4701.6140209032283</v>
       </c>
       <c r="DH14" s="12">
         <f t="shared" si="25"/>
-        <v>4805.6360371154669</v>
+        <v>4654.5978806941957</v>
       </c>
       <c r="DI14" s="12">
         <f t="shared" si="25"/>
-        <v>4757.5796767443126</v>
+        <v>4608.0519018872537</v>
       </c>
       <c r="DJ14" s="12">
         <f t="shared" si="25"/>
-        <v>4710.003879976869</v>
+        <v>4561.9713828683807</v>
       </c>
       <c r="DK14" s="12">
         <f t="shared" si="25"/>
-        <v>4662.9038411771007</v>
+        <v>4516.3516690396973</v>
       </c>
       <c r="DL14" s="12">
         <f t="shared" si="25"/>
-        <v>4616.2748027653297</v>
+        <v>4471.1881523493003</v>
       </c>
       <c r="DM14" s="12">
         <f t="shared" si="25"/>
-        <v>4570.1120547376768</v>
+        <v>4426.4762708258077</v>
       </c>
       <c r="DN14" s="12">
         <f t="shared" si="25"/>
-        <v>4524.4109341903004</v>
+        <v>4382.2115081175498</v>
       </c>
       <c r="DO14" s="12">
         <f t="shared" si="25"/>
-        <v>4479.1668248483975</v>
+        <v>4338.3893930363738</v>
       </c>
       <c r="DP14" s="12">
         <f t="shared" si="25"/>
-        <v>4434.3751565999137</v>
+        <v>4295.0054991060097</v>
       </c>
       <c r="DQ14" s="12">
         <f t="shared" si="25"/>
-        <v>4390.0314050339148</v>
+        <v>4252.0554441149498</v>
       </c>
       <c r="DR14" s="12">
         <f t="shared" si="25"/>
-        <v>4346.1310909835756</v>
+        <v>4209.5348896738005</v>
       </c>
       <c r="DS14" s="12">
         <f t="shared" si="25"/>
-        <v>4302.6697800737402</v>
+        <v>4167.4395407770626</v>
       </c>
       <c r="DT14" s="12">
         <f t="shared" si="25"/>
-        <v>4259.6430822730026</v>
+        <v>4125.7651453692915</v>
       </c>
       <c r="DU14" s="12">
         <f t="shared" si="25"/>
-        <v>4217.0466514502723</v>
+        <v>4084.5074939155984</v>
       </c>
       <c r="DV14" s="12">
         <f t="shared" si="25"/>
-        <v>4174.8761849357697</v>
+        <v>4043.6624189764425</v>
       </c>
       <c r="DW14" s="12">
         <f t="shared" si="25"/>
-        <v>4133.1274230864119</v>
+        <v>4003.2257947866779</v>
       </c>
       <c r="DX14" s="12">
         <f t="shared" si="25"/>
-        <v>4091.7961488555479</v>
+        <v>3963.1935368388108</v>
       </c>
       <c r="DY14" s="12">
         <f t="shared" si="25"/>
-        <v>4050.8781873669923</v>
+        <v>3923.5616014704228</v>
       </c>
       <c r="DZ14" s="12">
         <f t="shared" si="25"/>
-        <v>4010.3694054933221</v>
+        <v>3884.3259854557186</v>
       </c>
       <c r="EA14" s="12">
         <f t="shared" si="25"/>
-        <v>3970.2657114383887</v>
+        <v>3845.4827256011613</v>
       </c>
       <c r="EB14" s="12">
         <f t="shared" si="25"/>
-        <v>3930.563054324005</v>
+        <v>3807.0278983451494</v>
       </c>
       <c r="EC14" s="12">
         <f t="shared" si="25"/>
-        <v>3891.2574237807648</v>
+        <v>3768.9576193616981</v>
       </c>
       <c r="ED14" s="12">
         <f t="shared" si="25"/>
-        <v>3852.344849542957</v>
+        <v>3731.268043168081</v>
       </c>
       <c r="EE14" s="12">
         <f t="shared" si="25"/>
-        <v>3813.8214010475276</v>
+        <v>3693.9553627364003</v>
       </c>
       <c r="EF14" s="12">
         <f t="shared" si="25"/>
-        <v>3775.6831870370524</v>
+        <v>3657.0158091090361</v>
       </c>
       <c r="EG14" s="12">
         <f t="shared" si="25"/>
-        <v>3737.9263551666818</v>
+        <v>3620.4456510179457</v>
       </c>
       <c r="EH14" s="12">
         <f t="shared" si="25"/>
-        <v>3700.5470916150148</v>
+        <v>3584.2411945077661</v>
       </c>
       <c r="EI14" s="12">
         <f t="shared" si="25"/>
-        <v>3663.5416206988648</v>
+        <v>3548.3987825626882</v>
       </c>
       <c r="EJ14" s="12">
         <f t="shared" si="25"/>
-        <v>3626.906204491876</v>
+        <v>3512.9147947370611</v>
       </c>
       <c r="EK14" s="12">
         <f t="shared" si="25"/>
-        <v>3590.6371424469571</v>
+        <v>3477.7856467896904</v>
       </c>
       <c r="EL14" s="12">
         <f t="shared" si="25"/>
-        <v>3554.7307710224877</v>
+        <v>3443.0077903217934</v>
       </c>
       <c r="EM14" s="12">
         <f t="shared" si="25"/>
-        <v>3519.183463312263</v>
+        <v>3408.5777124185756</v>
       </c>
       <c r="EN14" s="12">
         <f t="shared" si="25"/>
-        <v>3483.9916286791404</v>
+        <v>3374.4919352943898</v>
       </c>
       <c r="EO14" s="12">
         <f t="shared" si="25"/>
-        <v>3449.1517123923491</v>
+        <v>3340.7470159414461</v>
       </c>
       <c r="EP14" s="12">
         <f t="shared" si="25"/>
-        <v>3414.6601952684255</v>
+        <v>3307.3395457820316</v>
       </c>
       <c r="EQ14" s="12">
         <f t="shared" si="25"/>
-        <v>3380.5135933157412</v>
+        <v>3274.2661503242111</v>
       </c>
       <c r="ER14" s="12">
         <f t="shared" si="25"/>
-        <v>3346.7084573825837</v>
+        <v>3241.5234888209689</v>
       </c>
       <c r="ES14" s="12">
         <f t="shared" si="25"/>
-        <v>3313.2413728087577</v>
+        <v>3209.108253932759</v>
       </c>
       <c r="ET14" s="12">
         <f t="shared" si="25"/>
-        <v>3280.10895908067</v>
+        <v>3177.0171713934315</v>
       </c>
       <c r="EU14" s="12">
         <f t="shared" si="25"/>
-        <v>3247.3078694898632</v>
+        <v>3145.2469996794971</v>
       </c>
       <c r="EV14" s="12">
         <f t="shared" si="25"/>
-        <v>3214.8347907949646</v>
+        <v>3113.794529682702</v>
       </c>
       <c r="EW14" s="12">
         <f t="shared" si="25"/>
-        <v>3182.6864428870149</v>
+        <v>3082.6565843858748</v>
       </c>
       <c r="EX14" s="12">
         <f t="shared" si="25"/>
-        <v>3150.8595784581448</v>
+        <v>3051.8300185420162</v>
       </c>
       <c r="EY14" s="12">
         <f t="shared" si="25"/>
-        <v>3119.3509826735635</v>
+        <v>3021.311718356596</v>
       </c>
       <c r="EZ14" s="12">
         <f t="shared" si="25"/>
-        <v>3088.1574728468277</v>
+        <v>2991.0986011730301</v>
       </c>
       <c r="FA14" s="12">
         <f t="shared" si="25"/>
-        <v>3057.2758981183592</v>
+        <v>2961.1876151612996</v>
       </c>
       <c r="FB14" s="12">
         <f t="shared" si="25"/>
-        <v>3026.7031391371756</v>
+        <v>2931.5757390096865</v>
       </c>
       <c r="FC14" s="12">
         <f t="shared" si="25"/>
-        <v>2996.4361077458038</v>
+        <v>2902.2599816195898</v>
       </c>
       <c r="FD14" s="12">
         <f t="shared" si="25"/>
-        <v>2966.471746668346</v>
+        <v>2873.2373818033939</v>
       </c>
       <c r="FE14" s="12">
         <f t="shared" si="25"/>
-        <v>2936.8070292016623</v>
+        <v>2844.50500798536</v>
       </c>
       <c r="FF14" s="12">
         <f t="shared" si="25"/>
-        <v>2907.4389589096459</v>
+        <v>2816.0599579055065</v>
       </c>
       <c r="FG14" s="12">
         <f t="shared" si="25"/>
-        <v>2878.3645693205494</v>
+        <v>2787.8993583264514</v>
       </c>
       <c r="FH14" s="12">
         <f t="shared" si="25"/>
-        <v>2849.580923627344</v>
+        <v>2760.0203647431867</v>
       </c>
       <c r="FI14" s="12">
         <f t="shared" si="25"/>
-        <v>2821.0851143910704</v>
+        <v>2732.4201610957548</v>
       </c>
       <c r="FJ14" s="12">
         <f t="shared" si="25"/>
-        <v>2792.8742632471599</v>
+        <v>2705.0959594847973</v>
       </c>
       <c r="FK14" s="12">
         <f t="shared" si="25"/>
-        <v>2764.9455206146881</v>
+        <v>2678.0449998899494</v>
       </c>
       <c r="FL14" s="12">
         <f t="shared" si="25"/>
-        <v>2737.2960654085414</v>
+        <v>2651.2645498910497</v>
       </c>
       <c r="FM14" s="12">
         <f t="shared" si="25"/>
-        <v>2709.9231047544558</v>
+        <v>2624.7519043921393</v>
       </c>
       <c r="FN14" s="12">
         <f t="shared" si="25"/>
-        <v>2682.8238737069114</v>
+        <v>2598.504385348218</v>
       </c>
       <c r="FO14" s="12">
         <f t="shared" si="25"/>
-        <v>2655.9956349698423</v>
+        <v>2572.5193414947357</v>
       </c>
       <c r="FP14" s="12">
         <f t="shared" ref="FP14:HY14" si="26">FO14*(1+$AS$18)</f>
-        <v>2629.4356786201438</v>
+        <v>2546.7941480797886</v>
       </c>
       <c r="FQ14" s="12">
         <f t="shared" si="26"/>
-        <v>2603.1413218339421</v>
+        <v>2521.3262065989907</v>
       </c>
       <c r="FR14" s="12">
         <f t="shared" si="26"/>
-        <v>2577.1099086156028</v>
+        <v>2496.1129445330007</v>
       </c>
       <c r="FS14" s="12">
         <f t="shared" si="26"/>
-        <v>2551.3388095294467</v>
+        <v>2471.1518150876705</v>
       </c>
       <c r="FT14" s="12">
         <f t="shared" si="26"/>
-        <v>2525.8254214341523</v>
+        <v>2446.4402969367939</v>
       </c>
       <c r="FU14" s="12">
         <f t="shared" si="26"/>
-        <v>2500.5671672198109</v>
+        <v>2421.9758939674257</v>
       </c>
       <c r="FV14" s="12">
         <f t="shared" si="26"/>
-        <v>2475.5614955476126</v>
+        <v>2397.7561350277515</v>
       </c>
       <c r="FW14" s="12">
         <f t="shared" si="26"/>
-        <v>2450.8058805921364</v>
+        <v>2373.778573677474</v>
       </c>
       <c r="FX14" s="12">
         <f t="shared" si="26"/>
-        <v>2426.2978217862151</v>
+        <v>2350.0407879406994</v>
       </c>
       <c r="FY14" s="12">
         <f t="shared" si="26"/>
-        <v>2402.0348435683527</v>
+        <v>2326.5403800612926</v>
       </c>
       <c r="FZ14" s="12">
         <f t="shared" si="26"/>
-        <v>2378.0144951326693</v>
+        <v>2303.2749762606795</v>
       </c>
       <c r="GA14" s="12">
         <f t="shared" si="26"/>
-        <v>2354.2343501813425</v>
+        <v>2280.2422264980728</v>
       </c>
       <c r="GB14" s="12">
         <f t="shared" si="26"/>
-        <v>2330.6920066795292</v>
+        <v>2257.4398042330922</v>
       </c>
       <c r="GC14" s="12">
         <f t="shared" si="26"/>
-        <v>2307.3850866127341</v>
+        <v>2234.8654061907614</v>
       </c>
       <c r="GD14" s="12">
         <f t="shared" si="26"/>
-        <v>2284.3112357466066</v>
+        <v>2212.5167521288536</v>
       </c>
       <c r="GE14" s="12">
         <f t="shared" si="26"/>
-        <v>2261.4681233891406</v>
+        <v>2190.3915846075652</v>
       </c>
       <c r="GF14" s="12">
         <f t="shared" si="26"/>
-        <v>2238.853442155249</v>
+        <v>2168.4876687614897</v>
       </c>
       <c r="GG14" s="12">
         <f t="shared" si="26"/>
-        <v>2216.4649077336967</v>
+        <v>2146.8027920738746</v>
       </c>
       <c r="GH14" s="12">
         <f t="shared" si="26"/>
-        <v>2194.3002586563598</v>
+        <v>2125.3347641531359</v>
       </c>
       <c r="GI14" s="12">
         <f t="shared" si="26"/>
-        <v>2172.3572560697962</v>
+        <v>2104.0814165116044</v>
       </c>
       <c r="GJ14" s="12">
         <f t="shared" si="26"/>
-        <v>2150.6336835090983</v>
+        <v>2083.0406023464884</v>
       </c>
       <c r="GK14" s="12">
         <f t="shared" si="26"/>
-        <v>2129.1273466740072</v>
+        <v>2062.2101963230234</v>
       </c>
       <c r="GL14" s="12">
         <f t="shared" si="26"/>
-        <v>2107.836073207267</v>
+        <v>2041.5880943597931</v>
       </c>
       <c r="GM14" s="12">
         <f t="shared" si="26"/>
-        <v>2086.7577124751942</v>
+        <v>2021.1722134161951</v>
       </c>
       <c r="GN14" s="12">
         <f t="shared" si="26"/>
-        <v>2065.8901353504421</v>
+        <v>2000.960491282033</v>
       </c>
       <c r="GO14" s="12">
         <f t="shared" si="26"/>
-        <v>2045.2312339969376</v>
+        <v>1980.9508863692126</v>
       </c>
       <c r="GP14" s="12">
         <f t="shared" si="26"/>
-        <v>2024.7789216569681</v>
+        <v>1961.1413775055205</v>
       </c>
       <c r="GQ14" s="12">
         <f t="shared" si="26"/>
-        <v>2004.5311324403983</v>
+        <v>1941.5299637304652</v>
       </c>
       <c r="GR14" s="12">
         <f t="shared" si="26"/>
-        <v>1984.4858211159942</v>
+        <v>1922.1146640931604</v>
       </c>
       <c r="GS14" s="12">
         <f t="shared" si="26"/>
-        <v>1964.6409629048342</v>
+        <v>1902.8935174522287</v>
       </c>
       <c r="GT14" s="12">
         <f t="shared" si="26"/>
-        <v>1944.9945532757858</v>
+        <v>1883.8645822777064</v>
       </c>
       <c r="GU14" s="12">
         <f t="shared" si="26"/>
-        <v>1925.5446077430279</v>
+        <v>1865.0259364549293</v>
       </c>
       <c r="GV14" s="12">
         <f t="shared" si="26"/>
-        <v>1906.2891616655975</v>
+        <v>1846.3756770903799</v>
       </c>
       <c r="GW14" s="12">
         <f t="shared" si="26"/>
-        <v>1887.2262700489414</v>
+        <v>1827.9119203194762</v>
       </c>
       <c r="GX14" s="12">
         <f t="shared" si="26"/>
-        <v>1868.3540073484519</v>
+        <v>1809.6328011162814</v>
       </c>
       <c r="GY14" s="12">
         <f t="shared" si="26"/>
-        <v>1849.6704672749675</v>
+        <v>1791.5364731051186</v>
       </c>
       <c r="GZ14" s="12">
         <f t="shared" si="26"/>
-        <v>1831.1737626022177</v>
+        <v>1773.6211083740675</v>
       </c>
       <c r="HA14" s="12">
         <f t="shared" si="26"/>
-        <v>1812.8620249761955</v>
+        <v>1755.8848972903268</v>
       </c>
       <c r="HB14" s="12">
         <f t="shared" si="26"/>
-        <v>1794.7334047264335</v>
+        <v>1738.3260483174236</v>
       </c>
       <c r="HC14" s="12">
         <f t="shared" si="26"/>
-        <v>1776.7860706791691</v>
+        <v>1720.9427878342492</v>
       </c>
       <c r="HD14" s="12">
         <f t="shared" si="26"/>
-        <v>1759.0182099723775</v>
+        <v>1703.7333599559067</v>
       </c>
       <c r="HE14" s="12">
         <f t="shared" si="26"/>
-        <v>1741.4280278726537</v>
+        <v>1686.6960263563476</v>
       </c>
       <c r="HF14" s="12">
         <f t="shared" si="26"/>
-        <v>1724.0137475939271</v>
+        <v>1669.8290660927842</v>
       </c>
       <c r="HG14" s="12">
         <f t="shared" si="26"/>
-        <v>1706.7736101179878</v>
+        <v>1653.1307754318564</v>
       </c>
       <c r="HH14" s="12">
         <f t="shared" si="26"/>
-        <v>1689.7058740168079</v>
+        <v>1636.5994676775379</v>
       </c>
       <c r="HI14" s="12">
         <f t="shared" si="26"/>
-        <v>1672.8088152766397</v>
+        <v>1620.2334730007624</v>
       </c>
       <c r="HJ14" s="12">
         <f t="shared" si="26"/>
-        <v>1656.0807271238734</v>
+        <v>1604.0311382707548</v>
       </c>
       <c r="HK14" s="12">
         <f t="shared" si="26"/>
-        <v>1639.5199198526348</v>
+        <v>1587.9908268880472</v>
       </c>
       <c r="HL14" s="12">
         <f t="shared" si="26"/>
-        <v>1623.1247206541084</v>
+        <v>1572.1109186191668</v>
       </c>
       <c r="HM14" s="12">
         <f t="shared" si="26"/>
-        <v>1606.8934734475672</v>
+        <v>1556.3898094329752</v>
       </c>
       <c r="HN14" s="12">
         <f t="shared" si="26"/>
-        <v>1590.8245387130914</v>
+        <v>1540.8259113386455</v>
       </c>
       <c r="HO14" s="12">
         <f t="shared" si="26"/>
-        <v>1574.9162933259606</v>
+        <v>1525.417652225259</v>
       </c>
       <c r="HP14" s="12">
         <f t="shared" si="26"/>
-        <v>1559.167130392701</v>
+        <v>1510.1634757030063</v>
       </c>
       <c r="HQ14" s="12">
         <f t="shared" si="26"/>
-        <v>1543.5754590887739</v>
+        <v>1495.0618409459762</v>
       </c>
       <c r="HR14" s="12">
         <f t="shared" si="26"/>
-        <v>1528.1397044978862</v>
+        <v>1480.1112225365164</v>
       </c>
       <c r="HS14" s="12">
         <f t="shared" si="26"/>
-        <v>1512.8583074529074</v>
+        <v>1465.3101103111512</v>
       </c>
       <c r="HT14" s="12">
         <f t="shared" si="26"/>
-        <v>1497.7297243783783</v>
+        <v>1450.6570092080397</v>
       </c>
       <c r="HU14" s="12">
         <f t="shared" si="26"/>
-        <v>1482.7524271345944</v>
+        <v>1436.1504391159592</v>
       </c>
       <c r="HV14" s="12">
         <f t="shared" si="26"/>
-        <v>1467.9249028632485</v>
+        <v>1421.7889347247997</v>
       </c>
       <c r="HW14" s="12">
         <f t="shared" si="26"/>
-        <v>1453.245653834616</v>
+        <v>1407.5710453775516</v>
       </c>
       <c r="HX14" s="12">
         <f t="shared" si="26"/>
-        <v>1438.7131972962698</v>
+        <v>1393.495334923776</v>
       </c>
       <c r="HY14" s="12">
         <f t="shared" si="26"/>
-        <v>1424.3260653233071</v>
+        <v>1379.5603815745383</v>
       </c>
     </row>
     <row r="15" spans="1:233" x14ac:dyDescent="0.25">
@@ -4372,9 +4420,10 @@
       <c r="R15" s="5">
         <v>79</v>
       </c>
-      <c r="S15" s="26">
+      <c r="S15" s="67">
         <v>79</v>
       </c>
+      <c r="T15" s="68"/>
       <c r="V15" s="26">
         <v>119</v>
       </c>
@@ -4503,40 +4552,41 @@
         <f t="shared" si="28"/>
         <v>6.1772151898734178</v>
       </c>
-      <c r="S16" s="26">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
+      <c r="S16" s="67">
+        <f t="shared" ref="S16" si="29">S14/S15</f>
+        <v>39.240506329113927</v>
+      </c>
+      <c r="T16" s="68"/>
       <c r="V16" s="27">
-        <f t="shared" ref="V16:AC16" si="29">V14/V15</f>
+        <f t="shared" ref="V16:AC16" si="30">V14/V15</f>
         <v>30.873949579831933</v>
       </c>
       <c r="W16" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>52.850877192982459</v>
       </c>
       <c r="X16" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>51.963963963963963</v>
       </c>
       <c r="Y16" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>47.149532710280376</v>
       </c>
       <c r="Z16" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>30.340206185567009</v>
       </c>
       <c r="AA16" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>19.969072164948454</v>
       </c>
       <c r="AB16" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>42.020202020202021</v>
       </c>
       <c r="AC16" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>54.075268817204304</v>
       </c>
       <c r="AD16" s="27">
@@ -4548,48 +4598,48 @@
         <v>64.518518518518519</v>
       </c>
       <c r="AF16" s="21">
-        <f t="shared" ref="AF16:AP16" si="30">AF14/AF15</f>
-        <v>68.948162025316464</v>
+        <f t="shared" ref="AF16:AP16" si="31">AF14/AF15</f>
+        <v>66.657050632911407</v>
       </c>
       <c r="AG16" s="27">
-        <f t="shared" si="30"/>
-        <v>70.982201012658251</v>
+        <f t="shared" si="31"/>
+        <v>68.610524810126591</v>
       </c>
       <c r="AH16" s="27">
-        <f t="shared" si="30"/>
-        <v>74.97796479493671</v>
+        <f t="shared" si="31"/>
+        <v>72.482003122784818</v>
       </c>
       <c r="AI16" s="27">
-        <f t="shared" si="30"/>
-        <v>79.846690899189866</v>
+        <f t="shared" si="31"/>
+        <v>77.210037165303817</v>
       </c>
       <c r="AJ16" s="27">
-        <f t="shared" si="30"/>
-        <v>85.002309386963589</v>
+        <f t="shared" si="31"/>
+        <v>82.217213759240948</v>
       </c>
       <c r="AK16" s="27">
-        <f t="shared" si="30"/>
-        <v>90.460981677445801</v>
+        <f t="shared" si="31"/>
+        <v>87.519274646873313</v>
       </c>
       <c r="AL16" s="27">
-        <f t="shared" si="30"/>
-        <v>96.239756242314115</v>
+        <f t="shared" si="31"/>
+        <v>93.13282619078349</v>
       </c>
       <c r="AM16" s="27">
-        <f t="shared" si="30"/>
-        <v>102.35661645703993</v>
+        <f t="shared" si="31"/>
+        <v>99.075386038378895</v>
       </c>
       <c r="AN16" s="27">
-        <f t="shared" si="30"/>
-        <v>108.83053100108818</v>
+        <f t="shared" si="31"/>
+        <v>105.36543227303527</v>
       </c>
       <c r="AO16" s="27">
-        <f t="shared" si="30"/>
-        <v>115.68150694147063</v>
+        <f t="shared" si="31"/>
+        <v>112.02245518307565</v>
       </c>
       <c r="AP16" s="27">
-        <f t="shared" si="30"/>
-        <v>122.93064564114859</v>
+        <f t="shared" si="31"/>
+        <v>119.06701178666708</v>
       </c>
     </row>
     <row r="17" spans="3:45" x14ac:dyDescent="0.25">
@@ -4609,6 +4659,7 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="15"/>
       <c r="S17" s="14"/>
+      <c r="T17" s="68"/>
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
@@ -4646,39 +4697,39 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25">
-        <f t="shared" ref="H18:P18" si="31">(H4-D4)/D4</f>
+        <f t="shared" ref="H18:P18" si="32">(H4-D4)/D4</f>
         <v>2.8300228511161891E-2</v>
       </c>
       <c r="I18" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4.2263483642793989E-2</v>
       </c>
       <c r="J18" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>5.8711761352840584E-2</v>
       </c>
       <c r="K18" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>9.7808441558441553E-2</v>
       </c>
       <c r="L18" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.1682051282051282</v>
       </c>
       <c r="M18" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.1487953851374279</v>
       </c>
       <c r="N18" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>9.5297918162239773E-2</v>
       </c>
       <c r="O18" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.10656192236598891</v>
       </c>
       <c r="P18" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7.5065847234416158E-2</v>
       </c>
       <c r="Q18" s="25">
@@ -4686,44 +4737,44 @@
         <v>4.4897356372766206E-2</v>
       </c>
       <c r="R18" s="29">
-        <f t="shared" ref="R18:S18" si="32">(R4-N4)/N4</f>
+        <f t="shared" ref="R18:S18" si="33">(R4-N4)/N4</f>
         <v>2.7199737833852204E-2</v>
       </c>
       <c r="S18" s="25">
-        <f t="shared" si="32"/>
-        <v>4.8191764804142653E-2</v>
+        <f t="shared" si="33"/>
+        <v>-6.0970516996575628E-3</v>
       </c>
       <c r="V18" s="14"/>
       <c r="W18" s="25">
-        <f t="shared" ref="W18:AD18" si="33">(W4-V4)/V4</f>
+        <f t="shared" ref="W18:AD18" si="34">(W4-V4)/V4</f>
         <v>0.21174643006512517</v>
       </c>
       <c r="X18" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.12326808342783886</v>
       </c>
       <c r="Y18" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0974057328475484E-3</v>
       </c>
       <c r="Z18" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-4.112952731737262E-2</v>
       </c>
       <c r="AA18" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.13073897933052864</v>
       </c>
       <c r="AB18" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.23068020411384083</v>
       </c>
       <c r="AC18" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.13118748397024879</v>
       </c>
       <c r="AD18" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6.3220345387900084E-2</v>
       </c>
       <c r="AE18" s="25">
@@ -4731,48 +4782,48 @@
         <v>0.12595962468012512</v>
       </c>
       <c r="AF18" s="29">
-        <f t="shared" ref="AF18:AP18" si="34">(AF4-AE4)/AE4</f>
-        <v>0.05</v>
+        <f t="shared" ref="AF18:AP18" si="35">(AF4-AE4)/AE4</f>
+        <v>2.8756313131313133E-2</v>
       </c>
       <c r="AG18" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
+        <v>5.0000000000000086E-2</v>
+      </c>
+      <c r="AH18" s="25">
+        <f t="shared" si="35"/>
+        <v>5.0000000000000107E-2</v>
+      </c>
+      <c r="AI18" s="25">
+        <f t="shared" si="35"/>
+        <v>4.9999999999999968E-2</v>
+      </c>
+      <c r="AJ18" s="25">
+        <f t="shared" si="35"/>
         <v>5.0000000000000135E-2</v>
       </c>
-      <c r="AH18" s="25">
-        <f t="shared" si="34"/>
-        <v>5.000000000000001E-2</v>
-      </c>
-      <c r="AI18" s="25">
-        <f t="shared" si="34"/>
-        <v>4.9999999999999989E-2</v>
-      </c>
-      <c r="AJ18" s="25">
-        <f t="shared" si="34"/>
-        <v>5.0000000000000086E-2</v>
-      </c>
       <c r="AK18" s="25">
-        <f t="shared" si="34"/>
-        <v>5.0000000000000065E-2</v>
+        <f t="shared" si="35"/>
+        <v>4.9999999999999954E-2</v>
       </c>
       <c r="AL18" s="25">
-        <f t="shared" si="34"/>
-        <v>5.0000000000000017E-2</v>
+        <f t="shared" si="35"/>
+        <v>4.9999999999999975E-2</v>
       </c>
       <c r="AM18" s="25">
-        <f t="shared" si="34"/>
-        <v>4.9999999999999975E-2</v>
+        <f t="shared" si="35"/>
+        <v>5.0000000000000024E-2</v>
       </c>
       <c r="AN18" s="25">
-        <f t="shared" si="34"/>
-        <v>5.000000000000001E-2</v>
+        <f t="shared" si="35"/>
+        <v>5.0000000000000024E-2</v>
       </c>
       <c r="AO18" s="25">
-        <f t="shared" si="34"/>
-        <v>5.0000000000000072E-2</v>
+        <f t="shared" si="35"/>
+        <v>4.9999999999999968E-2</v>
       </c>
       <c r="AP18" s="25">
-        <f t="shared" si="34"/>
-        <v>5.0000000000000037E-2</v>
+        <f t="shared" si="35"/>
+        <v>5.0000000000000093E-2</v>
       </c>
       <c r="AR18" s="2" t="s">
         <v>125</v>
@@ -4785,33 +4836,83 @@
       <c r="C19" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="25"/>
+      <c r="D19" s="25">
+        <v>0.21</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="H19" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="J19" s="25">
+        <v>0.11</v>
+      </c>
+      <c r="K19" s="25">
+        <v>0.12</v>
+      </c>
+      <c r="L19" s="25">
+        <v>0.18</v>
+      </c>
+      <c r="M19" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="N19" s="25">
+        <v>0.11</v>
+      </c>
+      <c r="O19" s="25">
+        <v>0.11</v>
+      </c>
+      <c r="P19" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="R19" s="29">
+        <v>0.06</v>
+      </c>
+      <c r="S19" s="25">
+        <v>0.04</v>
+      </c>
       <c r="V19" s="14"/>
       <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="29"/>
+      <c r="X19" s="25">
+        <v>0.11</v>
+      </c>
+      <c r="Y19" s="25">
+        <v>-0.02</v>
+      </c>
+      <c r="Z19" s="25">
+        <v>-0.08</v>
+      </c>
+      <c r="AA19" s="25">
+        <v>-0.11</v>
+      </c>
+      <c r="AB19" s="25">
+        <v>0.23</v>
+      </c>
+      <c r="AC19" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD19" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="AE19" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="AF19" s="29">
+        <v>0.06</v>
+      </c>
       <c r="AG19" s="25"/>
       <c r="AH19" s="25"/>
       <c r="AI19" s="25"/>
@@ -4827,7 +4928,7 @@
       </c>
       <c r="AS19" s="32">
         <f>NPV(AS17,AG14:HY14)</f>
-        <v>97783.273142410719</v>
+        <v>94660.525794073037</v>
       </c>
     </row>
     <row r="20" spans="3:45" x14ac:dyDescent="0.25">
@@ -4879,7 +4980,9 @@
       <c r="R20" s="29">
         <v>0.02</v>
       </c>
-      <c r="S20" s="25"/>
+      <c r="S20" s="25">
+        <v>0</v>
+      </c>
       <c r="V20" s="25">
         <v>0.15</v>
       </c>
@@ -4910,6 +5013,19 @@
       <c r="AE20" s="25">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AF20" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
       <c r="AR20" s="2" t="s">
         <v>2</v>
       </c>
@@ -4922,151 +5038,151 @@
         <v>45</v>
       </c>
       <c r="D21" s="19">
-        <f t="shared" ref="D21:S21" si="35">D6/D4</f>
+        <f t="shared" ref="D21:S21" si="36">D6/D4</f>
         <v>0.7600632800140622</v>
       </c>
       <c r="E21" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.76357206012378431</v>
       </c>
       <c r="F21" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.76686300589017675</v>
       </c>
       <c r="G21" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.76207386363636365</v>
       </c>
       <c r="H21" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.77521367521367524</v>
       </c>
       <c r="I21" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.78130302002035967</v>
       </c>
       <c r="J21" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.79038047379755927</v>
       </c>
       <c r="K21" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.79288354898336411</v>
       </c>
       <c r="L21" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.79367866549604915</v>
       </c>
       <c r="M21" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.80180180180180183</v>
       </c>
       <c r="N21" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.80058987383254132</v>
       </c>
       <c r="O21" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.79771151758122438</v>
       </c>
       <c r="P21" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.80454607322716754</v>
       </c>
       <c r="Q21" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.79250883392226146</v>
       </c>
       <c r="R21" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.79263040357313763</v>
       </c>
       <c r="S21" s="19">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>0.77310924369747902</v>
       </c>
       <c r="V21" s="19">
-        <f t="shared" ref="V21:AP21" si="36">V6/V4</f>
+        <f t="shared" ref="V21:AP21" si="37">V6/V4</f>
         <v>0.72850570592101327</v>
       </c>
       <c r="W21" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.75060401360879636</v>
       </c>
       <c r="X21" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.74474342653966019</v>
       </c>
       <c r="Y21" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.74287468210120144</v>
       </c>
       <c r="Z21" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.72718126943479056</v>
       </c>
       <c r="AA21" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.75622073754537322</v>
       </c>
       <c r="AB21" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.76104984183978797</v>
       </c>
       <c r="AC21" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.7629520462532593</v>
       </c>
       <c r="AD21" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.78632357122547625</v>
       </c>
       <c r="AE21" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.79826388888888888</v>
       </c>
       <c r="AF21" s="20">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.79500000000000004</v>
       </c>
       <c r="AG21" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.79</v>
       </c>
       <c r="AH21" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
+        <v>0.79499999999999993</v>
+      </c>
+      <c r="AI21" s="19">
+        <f t="shared" si="37"/>
         <v>0.79500000000000004</v>
       </c>
-      <c r="AI21" s="19">
-        <f t="shared" si="36"/>
+      <c r="AJ21" s="19">
+        <f t="shared" si="37"/>
+        <v>0.79499999999999993</v>
+      </c>
+      <c r="AK21" s="19">
+        <f t="shared" si="37"/>
         <v>0.79500000000000004</v>
       </c>
-      <c r="AJ21" s="19">
-        <f t="shared" si="36"/>
+      <c r="AL21" s="19">
+        <f t="shared" si="37"/>
         <v>0.79500000000000004</v>
       </c>
-      <c r="AK21" s="19">
-        <f t="shared" si="36"/>
+      <c r="AM21" s="19">
+        <f t="shared" si="37"/>
         <v>0.79500000000000004</v>
       </c>
-      <c r="AL21" s="19">
-        <f t="shared" si="36"/>
+      <c r="AN21" s="19">
+        <f t="shared" si="37"/>
         <v>0.79500000000000004</v>
       </c>
-      <c r="AM21" s="19">
-        <f t="shared" si="36"/>
-        <v>0.79499999999999993</v>
-      </c>
-      <c r="AN21" s="19">
-        <f t="shared" si="36"/>
+      <c r="AO21" s="19">
+        <f t="shared" si="37"/>
         <v>0.79500000000000004</v>
       </c>
-      <c r="AO21" s="19">
-        <f t="shared" si="36"/>
-        <v>0.79500000000000004</v>
-      </c>
       <c r="AP21" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.79500000000000004</v>
       </c>
       <c r="AR21" s="2" t="s">
@@ -5074,7 +5190,7 @@
       </c>
       <c r="AS21" s="33">
         <f>AS19/AS20</f>
-        <v>1237.762951169756</v>
+        <v>1198.2345037224436</v>
       </c>
     </row>
     <row r="22" spans="3:45" x14ac:dyDescent="0.25">
@@ -5082,159 +5198,159 @@
         <v>39</v>
       </c>
       <c r="D22" s="19">
-        <f t="shared" ref="D22:S22" si="37">D9/D4</f>
+        <f t="shared" ref="D22:S22" si="38">D9/D4</f>
         <v>0.23026894005976445</v>
       </c>
       <c r="E22" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.22086648983200707</v>
       </c>
       <c r="F22" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.18563556906707201</v>
       </c>
       <c r="G22" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.32518262987012986</v>
       </c>
       <c r="H22" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.21452991452991452</v>
       </c>
       <c r="I22" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.2015609093993892</v>
       </c>
       <c r="J22" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.16511127063890882</v>
       </c>
       <c r="K22" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.33955637707948244</v>
       </c>
       <c r="L22" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.22051507170032192</v>
       </c>
       <c r="M22" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.19745975483680403</v>
       </c>
       <c r="N22" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.16074061936752418</v>
       </c>
       <c r="O22" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.34652969180656479</v>
       </c>
       <c r="P22" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.22335647202939976</v>
       </c>
       <c r="Q22" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.18190812720848057</v>
       </c>
       <c r="R22" s="20">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.14021375019939383</v>
       </c>
       <c r="S22" s="19">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>0.33613445378151263</v>
       </c>
       <c r="V22" s="19">
-        <f t="shared" ref="V22:AP22" si="38">V9/V4</f>
+        <f t="shared" ref="V22:AP22" si="39">V9/V4</f>
         <v>0.34737408137659076</v>
       </c>
       <c r="W22" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.36507075587988758</v>
       </c>
       <c r="X22" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.34168824897941269</v>
       </c>
       <c r="Y22" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.28198719635183722</v>
       </c>
       <c r="Z22" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.17500457289189683</v>
       </c>
       <c r="AA22" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.14119627544847177</v>
       </c>
       <c r="AB22" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.24959391296913738</v>
       </c>
       <c r="AC22" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.25480860068775268</v>
       </c>
       <c r="AD22" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.25014216661927779</v>
       </c>
       <c r="AE22" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.25170454545454546</v>
       </c>
       <c r="AF22" s="20">
-        <f t="shared" si="38"/>
-        <v>0.24323532948532947</v>
+        <f t="shared" si="39"/>
+        <v>0.24095072259212669</v>
       </c>
       <c r="AG22" s="19">
-        <f t="shared" si="38"/>
-        <v>0.23823532948532952</v>
+        <f t="shared" si="39"/>
+        <v>0.23595072259212668</v>
       </c>
       <c r="AH22" s="19">
-        <f t="shared" si="38"/>
-        <v>0.23873034769463339</v>
+        <f t="shared" si="39"/>
+        <v>0.23643946838960803</v>
       </c>
       <c r="AI22" s="19">
-        <f t="shared" si="38"/>
-        <v>0.24100429088422282</v>
+        <f t="shared" si="39"/>
+        <v>0.23871657765373647</v>
       </c>
       <c r="AJ22" s="19">
-        <f t="shared" si="38"/>
-        <v>0.24326740577290953</v>
+        <f t="shared" si="39"/>
+        <v>0.24098284354041677</v>
       </c>
       <c r="AK22" s="19">
-        <f t="shared" si="38"/>
-        <v>0.24551974392403111</v>
+        <f t="shared" si="39"/>
+        <v>0.24323831768477955</v>
       </c>
       <c r="AL22" s="19">
-        <f t="shared" si="38"/>
-        <v>0.24776135665538535</v>
+        <f t="shared" si="39"/>
+        <v>0.24548305147607397</v>
       </c>
       <c r="AM22" s="19">
-        <f t="shared" si="38"/>
-        <v>0.2499922950403998</v>
+        <f t="shared" si="39"/>
+        <v>0.24771709605883829</v>
       </c>
       <c r="AN22" s="19">
-        <f t="shared" si="38"/>
-        <v>0.25221260990929517</v>
+        <f t="shared" si="39"/>
+        <v>0.2499405023340657</v>
       </c>
       <c r="AO22" s="19">
-        <f t="shared" si="38"/>
-        <v>0.25442235185024342</v>
+        <f t="shared" si="39"/>
+        <v>0.25215332096036353</v>
       </c>
       <c r="AP22" s="19">
-        <f t="shared" si="38"/>
-        <v>0.25662157121052059</v>
+        <f t="shared" si="39"/>
+        <v>0.25435560235510746</v>
       </c>
       <c r="AR22" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AS22" s="25">
         <f>(AS21-B4)/B4</f>
-        <v>0.87539841086326664</v>
+        <v>1.0364284563603734</v>
       </c>
     </row>
     <row r="23" spans="3:45" x14ac:dyDescent="0.25">
@@ -6119,55 +6235,55 @@
         <v>80</v>
       </c>
       <c r="D41" s="12">
-        <f t="shared" ref="D41:P41" si="39">SUM(D26:D40)</f>
+        <f t="shared" ref="D41:P41" si="40">SUM(D26:D40)</f>
         <v>19417</v>
       </c>
       <c r="E41" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>20502</v>
       </c>
       <c r="F41" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>21774</v>
       </c>
       <c r="G41" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>22013</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>21520</v>
       </c>
       <c r="I41" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>22110</v>
       </c>
       <c r="J41" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>23125</v>
       </c>
       <c r="K41" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>23799</v>
       </c>
       <c r="L41" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>23992</v>
       </c>
       <c r="M41" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>24798</v>
       </c>
       <c r="N41" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>25530</v>
       </c>
       <c r="O41" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>27757</v>
       </c>
       <c r="P41" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>26445</v>
       </c>
       <c r="Q41" s="12">
@@ -6175,11 +6291,11 @@
         <v>27006</v>
       </c>
       <c r="R41" s="13">
-        <f t="shared" ref="R41:S41" si="40">SUM(R26:R40)</f>
+        <f t="shared" ref="R41:S41" si="41">SUM(R26:R40)</f>
         <v>28435</v>
       </c>
       <c r="S41" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -6443,11 +6559,11 @@
         <v>93</v>
       </c>
       <c r="D47" s="16">
-        <f t="shared" ref="D47:P47" si="41">SUM(D42:D46)</f>
+        <f t="shared" ref="D47:P47" si="42">SUM(D42:D46)</f>
         <v>5526</v>
       </c>
       <c r="E47" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5618</v>
       </c>
       <c r="F47" s="16">
@@ -6455,43 +6571,43 @@
         <v>5680</v>
       </c>
       <c r="G47" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7168</v>
       </c>
       <c r="H47" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5255</v>
       </c>
       <c r="I47" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4245</v>
       </c>
       <c r="J47" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3521</v>
       </c>
       <c r="K47" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5356</v>
       </c>
       <c r="L47" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3962</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4076</v>
       </c>
       <c r="N47" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3514</v>
       </c>
       <c r="O47" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5507</v>
       </c>
       <c r="P47" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3833</v>
       </c>
       <c r="Q47" s="16">
@@ -6499,11 +6615,11 @@
         <v>3549</v>
       </c>
       <c r="R47" s="40">
-        <f t="shared" ref="R47:S47" si="42">SUM(R42:R46)</f>
+        <f t="shared" ref="R47:S47" si="43">SUM(R42:R46)</f>
         <v>2921</v>
       </c>
       <c r="S47" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -7142,15 +7258,15 @@
         <v>13893</v>
       </c>
       <c r="E60" s="16">
-        <f t="shared" ref="E60:O60" si="43">SUM(E48:E59)</f>
+        <f t="shared" ref="E60:O60" si="44">SUM(E48:E59)</f>
         <v>14885</v>
       </c>
       <c r="F60" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>16097</v>
       </c>
       <c r="G60" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>14847</v>
       </c>
       <c r="H60" s="16">
@@ -7162,27 +7278,27 @@
         <v>17867</v>
       </c>
       <c r="J60" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>19606</v>
       </c>
       <c r="K60" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>18443</v>
       </c>
       <c r="L60" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>20033</v>
       </c>
       <c r="M60" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>20719</v>
       </c>
       <c r="N60" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>22013</v>
       </c>
       <c r="O60" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>22249</v>
       </c>
       <c r="P60" s="16">
@@ -7194,11 +7310,11 @@
         <v>23457</v>
       </c>
       <c r="R60" s="40">
-        <f t="shared" ref="R60:S60" si="44">SUM(R48:R59)</f>
+        <f t="shared" ref="R60:S60" si="45">SUM(R48:R59)</f>
         <v>25516</v>
       </c>
       <c r="S60" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="T60" s="16"/>
@@ -7208,55 +7324,55 @@
         <v>92</v>
       </c>
       <c r="D61" s="12">
-        <f t="shared" ref="D61:P61" si="45">D47+D60</f>
+        <f t="shared" ref="D61:P61" si="46">D47+D60</f>
         <v>19419</v>
       </c>
       <c r="E61" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>20503</v>
       </c>
       <c r="F61" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>21777</v>
       </c>
       <c r="G61" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>22015</v>
       </c>
       <c r="H61" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>21520</v>
       </c>
       <c r="I61" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>22112</v>
       </c>
       <c r="J61" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>23127</v>
       </c>
       <c r="K61" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>23799</v>
       </c>
       <c r="L61" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>23995</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>24795</v>
       </c>
       <c r="N61" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>25527</v>
       </c>
       <c r="O61" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>27756</v>
       </c>
       <c r="P61" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>26449</v>
       </c>
       <c r="Q61" s="12">
@@ -7264,11 +7380,11 @@
         <v>27006</v>
       </c>
       <c r="R61" s="13">
-        <f t="shared" ref="R61:S61" si="46">R47+R60</f>
+        <f t="shared" ref="R61:S61" si="47">R47+R60</f>
         <v>28437</v>
       </c>
       <c r="S61" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="T61" s="12"/>
@@ -7340,81 +7456,81 @@
         <v>96</v>
       </c>
       <c r="D64" s="14">
-        <f t="shared" ref="D64:S64" si="47">D9</f>
+        <f t="shared" ref="D64:S64" si="48">D9</f>
         <v>1310</v>
       </c>
       <c r="E64" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1249</v>
       </c>
       <c r="F64" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>977</v>
       </c>
       <c r="G64" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>3205</v>
       </c>
       <c r="H64" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1255</v>
       </c>
       <c r="I64" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1188</v>
       </c>
       <c r="J64" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>920</v>
       </c>
       <c r="K64" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>3674</v>
       </c>
       <c r="L64" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1507</v>
       </c>
       <c r="M64" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1337</v>
       </c>
       <c r="N64" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>981</v>
       </c>
       <c r="O64" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>4149</v>
       </c>
       <c r="P64" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1641</v>
       </c>
       <c r="Q64" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1287</v>
       </c>
       <c r="R64" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>879</v>
       </c>
       <c r="S64" s="14">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>4000</v>
       </c>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="14">
-        <f t="shared" ref="V64:X64" si="48">V12</f>
+        <f t="shared" ref="V64:X64" si="49">V12</f>
         <v>5345</v>
       </c>
       <c r="W64" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>7650</v>
       </c>
       <c r="X64" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>7667</v>
       </c>
       <c r="Y64" s="14">
@@ -7426,23 +7542,23 @@
         <v>3827</v>
       </c>
       <c r="AA64" s="14">
-        <f t="shared" ref="V64:AE64" si="49">AA9</f>
+        <f t="shared" ref="AA64:AE64" si="50">AA9</f>
         <v>2684</v>
       </c>
       <c r="AB64" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>5839</v>
       </c>
       <c r="AC64" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>6743</v>
       </c>
       <c r="AD64" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>7038</v>
       </c>
       <c r="AE64" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>7974</v>
       </c>
     </row>
@@ -8186,55 +8302,55 @@
         <v>107</v>
       </c>
       <c r="D75" s="12">
-        <f t="shared" ref="D75:P75" si="50">SUM(D65:D74)</f>
+        <f t="shared" ref="D75:P75" si="51">SUM(D65:D74)</f>
         <v>-1111</v>
       </c>
       <c r="E75" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>927</v>
       </c>
       <c r="F75" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>542</v>
       </c>
       <c r="G75" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>4075</v>
       </c>
       <c r="H75" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-143</v>
       </c>
       <c r="I75" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1628</v>
       </c>
       <c r="J75" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1077</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>4821</v>
       </c>
       <c r="L75" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>188</v>
       </c>
       <c r="M75" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1629</v>
       </c>
       <c r="N75" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1181</v>
       </c>
       <c r="O75" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>5725</v>
       </c>
       <c r="P75" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-289</v>
       </c>
       <c r="Q75" s="12">
@@ -8242,51 +8358,51 @@
         <v>1387</v>
       </c>
       <c r="R75" s="13">
-        <f t="shared" ref="R75:S75" si="51">SUM(R65:R74)</f>
+        <f t="shared" ref="R75:S75" si="52">SUM(R65:R74)</f>
         <v>960</v>
       </c>
       <c r="S75" s="12">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="V75" s="12">
-        <f t="shared" ref="V75:AE75" si="52">SUM(V65:V74)</f>
-        <v>0</v>
-      </c>
-      <c r="W75" s="12">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
+      <c r="V75" s="12">
+        <f t="shared" ref="V75:AE75" si="53">SUM(V65:V74)</f>
+        <v>0</v>
+      </c>
+      <c r="W75" s="12">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
       <c r="X75" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y75" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Z75" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>6777</v>
       </c>
       <c r="AA75" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>5975</v>
       </c>
       <c r="AB75" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>6228</v>
       </c>
       <c r="AC75" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>4434</v>
       </c>
       <c r="AD75" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>7384</v>
       </c>
       <c r="AE75" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>8720</v>
       </c>
     </row>
@@ -8561,55 +8677,55 @@
         <v>111</v>
       </c>
       <c r="D80" s="12">
-        <f t="shared" ref="D80:P80" si="53">SUM(D77:D79)</f>
+        <f t="shared" ref="D80:P80" si="54">SUM(D77:D79)</f>
         <v>-446</v>
       </c>
       <c r="E80" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-277</v>
       </c>
       <c r="F80" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-600</v>
       </c>
       <c r="G80" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-461</v>
       </c>
       <c r="H80" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-377</v>
       </c>
       <c r="I80" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-372</v>
       </c>
       <c r="J80" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-554</v>
       </c>
       <c r="K80" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-498</v>
       </c>
       <c r="L80" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-405</v>
       </c>
       <c r="M80" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-473</v>
       </c>
       <c r="N80" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-488</v>
       </c>
       <c r="O80" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-531</v>
       </c>
       <c r="P80" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-545</v>
       </c>
       <c r="Q80" s="12">
@@ -8617,51 +8733,51 @@
         <v>-698</v>
       </c>
       <c r="R80" s="13">
-        <f t="shared" ref="R80:S80" si="54">SUM(R77:R79)</f>
+        <f t="shared" ref="R80:S80" si="55">SUM(R77:R79)</f>
         <v>-524</v>
       </c>
       <c r="S80" s="12">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="V80" s="12">
-        <f t="shared" ref="V80:AE80" si="55">SUM(V77:V79)</f>
-        <v>0</v>
-      </c>
-      <c r="W80" s="12">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
+      <c r="V80" s="12">
+        <f t="shared" ref="V80:AE80" si="56">SUM(V77:V79)</f>
+        <v>0</v>
+      </c>
+      <c r="W80" s="12">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
       <c r="X80" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Y80" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Z80" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-876</v>
       </c>
       <c r="AA80" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-484</v>
       </c>
       <c r="AB80" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-632</v>
       </c>
       <c r="AC80" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-1784</v>
       </c>
       <c r="AD80" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-1800</v>
       </c>
       <c r="AE80" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-1888</v>
       </c>
     </row>
@@ -9143,55 +9259,55 @@
         <v>118</v>
       </c>
       <c r="D88" s="12">
-        <f t="shared" ref="D88:P88" si="56">SUM(D82:D87)</f>
+        <f t="shared" ref="D88:P88" si="57">SUM(D82:D87)</f>
         <v>1203</v>
       </c>
       <c r="E88" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-370</v>
       </c>
       <c r="F88" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-694</v>
       </c>
       <c r="G88" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-3240</v>
       </c>
       <c r="H88" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>219</v>
       </c>
       <c r="I88" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-778</v>
       </c>
       <c r="J88" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-558</v>
       </c>
       <c r="K88" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-3818</v>
       </c>
       <c r="L88" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-415</v>
       </c>
       <c r="M88" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-891</v>
       </c>
       <c r="N88" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-935</v>
       </c>
       <c r="O88" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-3461</v>
       </c>
       <c r="P88" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-1014</v>
       </c>
       <c r="Q88" s="12">
@@ -9199,47 +9315,47 @@
         <v>-456</v>
       </c>
       <c r="R88" s="13">
-        <f t="shared" ref="R88:S88" si="57">SUM(R82:R87)</f>
+        <f t="shared" ref="R88:S88" si="58">SUM(R82:R87)</f>
         <v>-632</v>
       </c>
       <c r="S88" s="12">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="V88" s="12">
-        <f t="shared" ref="V88:AD88" si="58">SUM(V82:V87)</f>
-        <v>0</v>
-      </c>
-      <c r="W88" s="12">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
+      <c r="V88" s="12">
+        <f t="shared" ref="V88:AD88" si="59">SUM(V82:V87)</f>
+        <v>0</v>
+      </c>
+      <c r="W88" s="12">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
       <c r="X88" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Y88" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Z88" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-6250</v>
       </c>
       <c r="AA88" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-3571</v>
       </c>
       <c r="AB88" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-7484</v>
       </c>
       <c r="AC88" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-3100</v>
       </c>
       <c r="AD88" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-4935</v>
       </c>
       <c r="AE88" s="12">
@@ -9381,55 +9497,55 @@
         <v>120</v>
       </c>
       <c r="D92" s="14">
-        <f t="shared" ref="D92" si="59">D75+D80+D88+D90</f>
+        <f t="shared" ref="D92" si="60">D75+D80+D88+D90</f>
         <v>-326</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" ref="E92:P92" si="60">E75+E80+E88+E90</f>
+        <f t="shared" ref="E92:P92" si="61">E75+E80+E88+E90</f>
         <v>288</v>
       </c>
       <c r="F92" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-745</v>
       </c>
       <c r="G92" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>335</v>
       </c>
       <c r="H92" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-308</v>
       </c>
       <c r="I92" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>461</v>
       </c>
       <c r="J92" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-39</v>
       </c>
       <c r="K92" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>470</v>
       </c>
       <c r="L92" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-636</v>
       </c>
       <c r="M92" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>261</v>
       </c>
       <c r="N92" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-255</v>
       </c>
       <c r="O92" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1744</v>
       </c>
       <c r="P92" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-1864</v>
       </c>
       <c r="Q92" s="14">
@@ -9437,51 +9553,51 @@
         <v>196</v>
       </c>
       <c r="R92" s="15">
-        <f t="shared" ref="R92:S92" si="61">R75+R80+R88+R90</f>
+        <f t="shared" ref="R92:S92" si="62">R75+R80+R88+R90</f>
         <v>-204</v>
       </c>
       <c r="S92" s="14">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="V92" s="14">
-        <f t="shared" ref="V92:AE92" si="62">V75+V80+V88+V90</f>
-        <v>0</v>
-      </c>
-      <c r="W92" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
+      <c r="V92" s="14">
+        <f t="shared" ref="V92:AE92" si="63">V75+V80+V88+V90</f>
+        <v>0</v>
+      </c>
+      <c r="W92" s="14">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
       <c r="X92" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Y92" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Z92" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-330</v>
       </c>
       <c r="AA92" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1858</v>
       </c>
       <c r="AB92" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-1870</v>
       </c>
       <c r="AC92" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-446</v>
       </c>
       <c r="AD92" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>588</v>
       </c>
       <c r="AE92" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1120</v>
       </c>
     </row>
@@ -9518,55 +9634,55 @@
         <v>121</v>
       </c>
       <c r="D94" s="14">
-        <f t="shared" ref="D94" si="63">D75+D77</f>
+        <f t="shared" ref="D94" si="64">D75+D77</f>
         <v>-1566</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" ref="E94:P94" si="64">E75+E77</f>
+        <f t="shared" ref="E94:P94" si="65">E75+E77</f>
         <v>652</v>
       </c>
       <c r="F94" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-39</v>
       </c>
       <c r="G94" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>3633</v>
       </c>
       <c r="H94" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-528</v>
       </c>
       <c r="I94" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1235</v>
       </c>
       <c r="J94" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>528</v>
       </c>
       <c r="K94" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>4310</v>
       </c>
       <c r="L94" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-222</v>
       </c>
       <c r="M94" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1157</v>
       </c>
       <c r="N94" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>705</v>
       </c>
       <c r="O94" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>5209</v>
       </c>
       <c r="P94" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-838</v>
       </c>
       <c r="Q94" s="14">
@@ -9574,51 +9690,51 @@
         <v>690</v>
       </c>
       <c r="R94" s="15">
-        <f t="shared" ref="R94:S94" si="65">R75+R77</f>
+        <f t="shared" ref="R94:S94" si="66">R75+R77</f>
         <v>440</v>
       </c>
       <c r="S94" s="14">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="V94" s="14">
-        <f t="shared" ref="V94:AE94" si="66">V75+V77</f>
-        <v>0</v>
-      </c>
-      <c r="W94" s="14">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
+      <c r="V94" s="14">
+        <f t="shared" ref="V94:AE94" si="67">V75+V77</f>
+        <v>0</v>
+      </c>
+      <c r="W94" s="14">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
       <c r="X94" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Y94" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Z94" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>5817</v>
       </c>
       <c r="AA94" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>5459</v>
       </c>
       <c r="AB94" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>5577</v>
       </c>
       <c r="AC94" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>2681</v>
       </c>
       <c r="AD94" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>5547</v>
       </c>
       <c r="AE94" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>6847</v>
       </c>
     </row>
@@ -10556,11 +10672,11 @@
   <dimension ref="B4:V34"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomRight" activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -11078,7 +11194,7 @@
         <f t="shared" si="0"/>
         <v>7342</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="57">
         <f>SUM(C16:F16)</f>
         <v>20730</v>
       </c>
@@ -11098,7 +11214,7 @@
         <f t="shared" si="0"/>
         <v>8180</v>
       </c>
-      <c r="L16" s="51">
+      <c r="L16" s="57">
         <f>SUM(H16:K16)</f>
         <v>21949</v>
       </c>
@@ -11118,7 +11234,7 @@
         <f t="shared" si="0"/>
         <v>8784</v>
       </c>
-      <c r="Q16" s="51">
+      <c r="Q16" s="57">
         <f>SUM(M16:P16)</f>
         <v>23542</v>
       </c>
@@ -11138,7 +11254,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V16" s="51">
+      <c r="V16" s="57">
         <f>SUM(R16:U16)</f>
         <v>15399</v>
       </c>
@@ -11199,7 +11315,9 @@
       <c r="T17" s="46">
         <v>0.02</v>
       </c>
-      <c r="U17" s="46"/>
+      <c r="U17" s="46">
+        <v>0</v>
+      </c>
       <c r="V17" s="52"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
@@ -11365,7 +11483,9 @@
       <c r="T22" s="42">
         <v>0.04</v>
       </c>
-      <c r="U22" s="42"/>
+      <c r="U22" s="42">
+        <v>0</v>
+      </c>
       <c r="V22" s="54"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
@@ -11635,7 +11755,9 @@
       <c r="T28" s="42">
         <v>0.13</v>
       </c>
-      <c r="U28" s="42"/>
+      <c r="U28" s="42">
+        <v>0.15</v>
+      </c>
       <c r="V28" s="54"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
@@ -11919,7 +12041,9 @@
       <c r="T34" s="46">
         <v>0.02</v>
       </c>
-      <c r="U34" s="46"/>
+      <c r="U34" s="46">
+        <v>-0.03</v>
+      </c>
       <c r="V34" s="52"/>
     </row>
   </sheetData>
@@ -11936,7 +12060,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S48" sqref="S48"/>
+      <selection pane="bottomRight" activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -12093,10 +12217,12 @@
       <c r="S7" s="14">
         <v>1896</v>
       </c>
-      <c r="T7" s="14"/>
+      <c r="T7" s="14">
+        <v>3700</v>
+      </c>
       <c r="U7" s="57">
         <f>SUM(Q7:T7)</f>
-        <v>6638</v>
+        <v>10338</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -12153,7 +12279,9 @@
       <c r="S8" s="23">
         <v>0.06</v>
       </c>
-      <c r="T8" s="23"/>
+      <c r="T8" s="23">
+        <v>0.02</v>
+      </c>
       <c r="U8" s="56"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -12210,7 +12338,9 @@
       <c r="S9" s="42">
         <v>0.09</v>
       </c>
-      <c r="T9" s="42"/>
+      <c r="T9" s="42">
+        <v>0.09</v>
+      </c>
       <c r="U9" s="54"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -12283,9 +12413,12 @@
       <c r="S11" s="2">
         <v>68</v>
       </c>
+      <c r="T11" s="2">
+        <v>100</v>
+      </c>
       <c r="U11" s="51">
         <f>SUM(Q11:T11)</f>
-        <v>259</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -12342,7 +12475,9 @@
       <c r="S12" s="23">
         <v>-0.06</v>
       </c>
-      <c r="T12" s="23"/>
+      <c r="T12" s="23">
+        <v>-0.1</v>
+      </c>
       <c r="U12" s="56"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -12399,7 +12534,9 @@
       <c r="S13" s="42">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="T13" s="42"/>
+      <c r="T13" s="42">
+        <v>-0.21</v>
+      </c>
       <c r="U13" s="54"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -12431,66 +12568,69 @@
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="14">
         <v>808</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="14">
         <v>665</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="14">
         <v>717</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="14">
         <v>1613</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="57">
         <f>SUM(B15:E15)</f>
         <v>3803</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="14">
         <v>809</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="14">
         <v>656</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="14">
         <v>729</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="14">
         <v>1627</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="57">
         <f>SUM(G15:J15)</f>
         <v>3821</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="14">
         <v>854</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="14">
         <v>694</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="14">
         <v>740</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="14">
         <v>1640</v>
       </c>
-      <c r="P15" s="51">
+      <c r="P15" s="57">
         <f>SUM(L15:O15)</f>
         <v>3928</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="14">
         <v>864</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="14">
         <v>659</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="14">
         <v>685</v>
       </c>
-      <c r="U15" s="51">
+      <c r="T15" s="14">
+        <v>1500</v>
+      </c>
+      <c r="U15" s="57">
         <f>SUM(Q15:T15)</f>
-        <v>2208</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -12547,7 +12687,9 @@
       <c r="S16" s="23">
         <v>-0.08</v>
       </c>
-      <c r="T16" s="23"/>
+      <c r="T16" s="23">
+        <v>-0.04</v>
+      </c>
       <c r="U16" s="56"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -12604,7 +12746,9 @@
       <c r="S17" s="42">
         <v>-0.05</v>
       </c>
-      <c r="T17" s="42"/>
+      <c r="T17" s="42">
+        <v>-0.02</v>
+      </c>
       <c r="U17" s="54"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -12620,66 +12764,69 @@
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="14">
         <v>586</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="14">
         <v>595</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="14">
         <v>486</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="14">
         <v>913</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="57">
         <f>SUM(B19:E19)</f>
         <v>2580</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="14">
         <v>539</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="14">
         <v>584</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="14">
         <v>496</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="14">
         <v>921</v>
       </c>
-      <c r="K19" s="51">
+      <c r="K19" s="57">
         <f>SUM(G19:J19)</f>
         <v>2540</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="14">
         <v>565</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="14">
         <v>568</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="14">
         <v>466</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="14">
         <v>879</v>
       </c>
-      <c r="P19" s="51">
+      <c r="P19" s="57">
         <f>SUM(L19:O19)</f>
         <v>2478</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="14">
         <v>508</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="14">
         <v>529</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="14">
         <v>448</v>
       </c>
-      <c r="U19" s="51">
+      <c r="T19" s="14">
+        <v>800</v>
+      </c>
+      <c r="U19" s="57">
         <f>SUM(Q19:T19)</f>
-        <v>1485</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -12736,7 +12883,9 @@
       <c r="S20" s="23">
         <v>-0.04</v>
       </c>
-      <c r="T20" s="23"/>
+      <c r="T20" s="23">
+        <v>-0.12</v>
+      </c>
       <c r="U20" s="56"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -12793,7 +12942,9 @@
       <c r="S21" s="42">
         <v>-0.04</v>
       </c>
-      <c r="T21" s="42"/>
+      <c r="T21" s="42">
+        <v>-0.1</v>
+      </c>
       <c r="U21" s="54"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -12825,66 +12976,69 @@
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="14">
         <v>245</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="14">
         <v>246</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="14">
         <v>246</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="14">
         <v>535</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="57">
         <f>SUM(B23:E23)</f>
         <v>1272</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="14">
         <v>220</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="14">
         <v>218</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="14">
         <v>221</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="14">
         <v>502</v>
       </c>
-      <c r="K23" s="51">
+      <c r="K23" s="57">
         <f>SUM(G23:J23)</f>
         <v>1161</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="14">
         <v>203</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="14">
         <v>211</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="14">
         <v>195</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="14">
         <v>486</v>
       </c>
-      <c r="P23" s="51">
+      <c r="P23" s="57">
         <f>SUM(L23:O23)</f>
         <v>1095</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="14">
         <v>234</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="14">
         <v>229</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="14">
         <v>212</v>
       </c>
-      <c r="U23" s="51">
+      <c r="T23" s="14">
+        <v>500</v>
+      </c>
+      <c r="U23" s="57">
         <f>SUM(Q23:T23)</f>
-        <v>675</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -12941,7 +13095,9 @@
       <c r="S24" s="23">
         <v>0.04</v>
       </c>
-      <c r="T24" s="23"/>
+      <c r="T24" s="23">
+        <v>-0.03</v>
+      </c>
       <c r="U24" s="56"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -12998,7 +13154,9 @@
       <c r="S25" s="42">
         <v>0.18</v>
       </c>
-      <c r="T25" s="42"/>
+      <c r="T25" s="42">
+        <v>0.01</v>
+      </c>
       <c r="U25" s="54"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -13014,66 +13172,69 @@
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="14">
         <v>262</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="14">
         <v>237</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="14">
         <v>217</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="14">
         <v>475</v>
       </c>
-      <c r="F27" s="51">
+      <c r="F27" s="57">
         <f>SUM(B27:E27)</f>
         <v>1191</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="14">
         <v>243</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="14">
         <v>231</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="14">
         <v>220</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="14">
         <v>502</v>
       </c>
-      <c r="K27" s="51">
+      <c r="K27" s="57">
         <f>SUM(G27:J27)</f>
         <v>1196</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="14">
         <v>274</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="14">
         <v>261</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="14">
         <v>227</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="14">
         <v>456</v>
       </c>
-      <c r="P27" s="51">
+      <c r="P27" s="57">
         <f>SUM(L27:O27)</f>
         <v>1218</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="14">
         <v>255</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="14">
         <v>256</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="14">
         <v>215</v>
       </c>
-      <c r="U27" s="51">
+      <c r="T27" s="14">
+        <v>400</v>
+      </c>
+      <c r="U27" s="57">
         <f>SUM(Q27:T27)</f>
-        <v>726</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -13130,7 +13291,9 @@
       <c r="S28" s="23">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="T28" s="23"/>
+      <c r="T28" s="23">
+        <v>-0.04</v>
+      </c>
       <c r="U28" s="56"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -13187,7 +13350,9 @@
       <c r="S29" s="42">
         <v>-0.05</v>
       </c>
-      <c r="T29" s="42"/>
+      <c r="T29" s="42">
+        <v>-0.05</v>
+      </c>
       <c r="U29" s="54"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -13203,66 +13368,69 @@
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="14">
         <v>273</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="14">
         <v>285</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="14">
         <v>254</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="14">
         <v>494</v>
       </c>
-      <c r="F31" s="51">
+      <c r="F31" s="57">
         <f>SUM(B31:E31)</f>
         <v>1306</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="14">
         <v>269</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="14">
         <v>295</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="14">
         <v>301</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="14">
         <v>662</v>
       </c>
-      <c r="K31" s="51">
+      <c r="K31" s="57">
         <f>SUM(G31:J31)</f>
         <v>1527</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="14">
         <v>472</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="14">
         <v>464</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="14">
         <v>431</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="14">
         <v>839</v>
       </c>
-      <c r="P31" s="51">
+      <c r="P31" s="57">
         <f>SUM(L31:O31)</f>
         <v>2206</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="14">
         <v>499</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="14">
         <v>472</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="14">
         <v>402</v>
       </c>
-      <c r="U31" s="51">
+      <c r="T31" s="14">
+        <v>800</v>
+      </c>
+      <c r="U31" s="57">
         <f>SUM(Q31:T31)</f>
-        <v>1373</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -13319,7 +13487,9 @@
       <c r="S32" s="23">
         <v>-0.09</v>
       </c>
-      <c r="T32" s="23"/>
+      <c r="T32" s="23">
+        <v>-0.06</v>
+      </c>
       <c r="U32" s="56"/>
     </row>
     <row r="33" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13376,7 +13546,9 @@
       <c r="S33" s="48">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="T33" s="48"/>
+      <c r="T33" s="48">
+        <v>-0.04</v>
+      </c>
       <c r="U33" s="52"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -13482,11 +13654,11 @@
       </c>
       <c r="T35" s="12">
         <f t="shared" ref="T35" si="1">T7+T11+T15+T19+T23+T27+T31</f>
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="U35" s="57">
         <f>SUM(Q35:T35)</f>
-        <v>13364</v>
+        <v>21164</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -13543,7 +13715,9 @@
       <c r="S36" s="47">
         <v>0</v>
       </c>
-      <c r="T36" s="47"/>
+      <c r="T36" s="47">
+        <v>-0.02</v>
+      </c>
       <c r="U36" s="56"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -13600,7 +13774,9 @@
       <c r="S37" s="43">
         <v>0.02</v>
       </c>
-      <c r="T37" s="43"/>
+      <c r="T37" s="43">
+        <v>0.02</v>
+      </c>
       <c r="U37" s="54"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -13673,10 +13849,12 @@
       <c r="S39" s="12">
         <v>2344</v>
       </c>
-      <c r="T39" s="12"/>
+      <c r="T39" s="12">
+        <v>4000</v>
+      </c>
       <c r="U39" s="57">
         <f>SUM(Q39:T39)</f>
-        <v>7327</v>
+        <v>11327</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -13733,7 +13911,9 @@
       <c r="S40" s="47">
         <v>0.06</v>
       </c>
-      <c r="T40" s="47"/>
+      <c r="T40" s="47">
+        <v>0.04</v>
+      </c>
       <c r="U40" s="56"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -13790,7 +13970,9 @@
       <c r="S41" s="43">
         <v>0.13</v>
       </c>
-      <c r="T41" s="43"/>
+      <c r="T41" s="43">
+        <v>0.08</v>
+      </c>
       <c r="U41" s="54"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -13880,11 +14062,11 @@
       </c>
       <c r="T43" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11800</v>
       </c>
       <c r="U43" s="57">
         <f>SUM(Q43:T43)</f>
-        <v>20691</v>
+        <v>32491</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -13941,7 +14123,9 @@
       <c r="S44" s="47">
         <v>0.02</v>
       </c>
-      <c r="T44" s="47"/>
+      <c r="T44" s="47">
+        <v>0</v>
+      </c>
       <c r="U44" s="56"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -13998,7 +14182,9 @@
       <c r="S45" s="43">
         <v>0.06</v>
       </c>
-      <c r="T45" s="43"/>
+      <c r="T45" s="43">
+        <v>0.04</v>
+      </c>
       <c r="U45" s="54"/>
     </row>
   </sheetData>
@@ -14040,15 +14226,15 @@
       </c>
       <c r="D5" s="35">
         <f>Modell!$B$9/Modell!AF9</f>
-        <v>8.5643519079270991</v>
+        <v>8.1037843069213942</v>
       </c>
       <c r="E5" s="35">
         <f>Modell!$B$9/Modell!AG9</f>
-        <v>8.3277119414947389</v>
+        <v>7.8814385802670373</v>
       </c>
       <c r="F5" s="35">
         <f>Modell!$B$9/Modell!AH9</f>
-        <v>7.9147086217907621</v>
+        <v>7.4906159995216557</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="62" x14ac:dyDescent="0.7">
@@ -14057,15 +14243,15 @@
       </c>
       <c r="D6" s="35">
         <f>Modell!$B$4/Modell!AF16</f>
-        <v>9.5724089027588644</v>
+        <v>8.8272732503631364</v>
       </c>
       <c r="E6" s="35">
         <f>Modell!$B$4/Modell!AG16</f>
-        <v>9.2981055896294649</v>
+        <v>8.5759437291631802</v>
       </c>
       <c r="F6" s="35">
         <f>Modell!$B$4/Modell!AH16</f>
-        <v>8.8025862239004127</v>
+        <v>8.1178771922631316</v>
       </c>
     </row>
   </sheetData>
@@ -14078,10 +14264,10 @@
   <dimension ref="A3:HG22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O37" sqref="O37"/>
+      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -14331,7 +14517,7 @@
     <row r="6" spans="1:215" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <f>AA22</f>
-        <v>-0.15570302091726479</v>
+        <v>-5.2963959560494121E-2</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
@@ -16355,7 +16541,7 @@
       </c>
       <c r="AA22" s="39">
         <f>(AA21-Modell!B4)/Modell!B4</f>
-        <v>-0.15570302091726479</v>
+        <v>-5.2963959560494121E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Pandora modell.xlsx
+++ b/Pandora modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB56FD7-4FE2-AB4C-A18A-DAE831E06CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D923E151-FED9-5F45-92D0-D3F164045678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24260" yWindow="500" windowWidth="26660" windowHeight="26740" activeTab="1" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17200" activeTab="1" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -979,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1061,10 +1061,7 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1468,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6FABC2-1253-924E-8CB2-F0C03750A097}">
   <dimension ref="A2:AA62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1886,10 +1883,10 @@
   <dimension ref="A1:HY127"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="Z4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AI26" sqref="AI26"/>
+      <selection pane="bottomRight" activeCell="AJ26" sqref="AJ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2059,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="21">
-        <v>588.4</v>
+        <v>547</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>53</v>
@@ -2109,14 +2106,10 @@
       <c r="R4" s="13">
         <v>6269</v>
       </c>
-      <c r="S4" s="65">
+      <c r="S4" s="12">
         <v>11900</v>
       </c>
-      <c r="T4" s="68"/>
-      <c r="U4" s="14">
-        <f>SUM(P4:S4)</f>
-        <v>32591</v>
-      </c>
+      <c r="U4" s="14"/>
       <c r="V4" s="12">
         <v>16737</v>
       </c>
@@ -2151,44 +2144,44 @@
         <v>32591</v>
       </c>
       <c r="AG4" s="12">
-        <f>AF4*1.05</f>
-        <v>34220.550000000003</v>
+        <f>AF4*1.02</f>
+        <v>33242.82</v>
       </c>
       <c r="AH4" s="12">
-        <f t="shared" ref="AH4:AP4" si="0">AG4*1.05</f>
-        <v>35931.577500000007</v>
+        <f>AG4*1.035</f>
+        <v>34406.318699999996</v>
       </c>
       <c r="AI4" s="12">
-        <f t="shared" si="0"/>
-        <v>37728.156375000006</v>
+        <f t="shared" ref="AH4:AP4" si="0">AH4*1.05</f>
+        <v>36126.634634999995</v>
       </c>
       <c r="AJ4" s="12">
         <f t="shared" si="0"/>
-        <v>39614.564193750011</v>
+        <v>37932.966366749999</v>
       </c>
       <c r="AK4" s="12">
         <f t="shared" si="0"/>
-        <v>41595.29240343751</v>
+        <v>39829.614685087501</v>
       </c>
       <c r="AL4" s="12">
         <f t="shared" si="0"/>
-        <v>43675.057023609384</v>
+        <v>41821.09541934188</v>
       </c>
       <c r="AM4" s="12">
         <f t="shared" si="0"/>
-        <v>45858.809874789855</v>
+        <v>43912.150190308974</v>
       </c>
       <c r="AN4" s="12">
         <f t="shared" si="0"/>
-        <v>48151.750368529349</v>
+        <v>46107.757699824426</v>
       </c>
       <c r="AO4" s="12">
         <f t="shared" si="0"/>
-        <v>50559.337886955815</v>
+        <v>48413.145584815647</v>
       </c>
       <c r="AP4" s="12">
         <f t="shared" si="0"/>
-        <v>53087.30478130361</v>
+        <v>50833.80286405643</v>
       </c>
     </row>
     <row r="5" spans="1:233" x14ac:dyDescent="0.25">
@@ -2246,10 +2239,11 @@
       <c r="R5" s="15">
         <v>-1300</v>
       </c>
-      <c r="S5" s="66">
+      <c r="S5" s="14">
         <v>-2700</v>
       </c>
-      <c r="T5" s="66"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
       <c r="V5" s="14">
         <v>-4544</v>
       </c>
@@ -2281,48 +2275,48 @@
         <v>-6391</v>
       </c>
       <c r="AF5" s="15">
-        <f>AF4*-0.205</f>
-        <v>-6681.1549999999997</v>
+        <f>AF4*-0.213</f>
+        <v>-6941.8829999999998</v>
       </c>
       <c r="AG5" s="14">
-        <f>AG4*-0.21</f>
-        <v>-7186.3155000000006</v>
+        <f>AG4*-0.215</f>
+        <v>-7147.2062999999998</v>
       </c>
       <c r="AH5" s="14">
-        <f t="shared" ref="AH5:AP5" si="1">AH4*-0.205</f>
-        <v>-7365.9733875000011</v>
+        <f t="shared" ref="AH5:AP5" si="1">AH4*-0.215</f>
+        <v>-7397.358520499999</v>
       </c>
       <c r="AI5" s="14">
         <f t="shared" si="1"/>
-        <v>-7734.272056875001</v>
+        <v>-7767.2264465249991</v>
       </c>
       <c r="AJ5" s="14">
         <f t="shared" si="1"/>
-        <v>-8120.9856597187518</v>
+        <v>-8155.5877688512501</v>
       </c>
       <c r="AK5" s="14">
         <f t="shared" si="1"/>
-        <v>-8527.0349427046895</v>
+        <v>-8563.3671572938129</v>
       </c>
       <c r="AL5" s="14">
         <f t="shared" si="1"/>
-        <v>-8953.3866898399228</v>
+        <v>-8991.5355151585045</v>
       </c>
       <c r="AM5" s="14">
         <f t="shared" si="1"/>
-        <v>-9401.0560243319196</v>
+        <v>-9441.1122909164296</v>
       </c>
       <c r="AN5" s="14">
         <f t="shared" si="1"/>
-        <v>-9871.1088255485156</v>
+        <v>-9913.1679054622509</v>
       </c>
       <c r="AO5" s="14">
         <f t="shared" si="1"/>
-        <v>-10364.664266825941</v>
+        <v>-10408.826300735363</v>
       </c>
       <c r="AP5" s="14">
         <f t="shared" si="1"/>
-        <v>-10882.897480167239</v>
+        <v>-10929.267615772133</v>
       </c>
     </row>
     <row r="6" spans="1:233" x14ac:dyDescent="0.25">
@@ -2331,7 +2325,7 @@
       </c>
       <c r="B6" s="5">
         <f>B4*B5</f>
-        <v>46483.6</v>
+        <v>43213</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
@@ -2396,11 +2390,11 @@
         <f t="shared" ref="R6:S6" si="3">SUM(R4:R5)</f>
         <v>4969</v>
       </c>
-      <c r="S6" s="66">
+      <c r="S6" s="14">
         <f t="shared" si="3"/>
         <v>9200</v>
       </c>
-      <c r="T6" s="68"/>
+      <c r="U6" s="14"/>
       <c r="V6" s="14">
         <f t="shared" ref="V6:AE6" si="4">SUM(V4:V5)</f>
         <v>12193</v>
@@ -2443,47 +2437,47 @@
       </c>
       <c r="AF6" s="15">
         <f t="shared" ref="AF6:AP6" si="5">SUM(AF4:AF5)</f>
-        <v>25909.845000000001</v>
+        <v>25649.116999999998</v>
       </c>
       <c r="AG6" s="14">
         <f t="shared" si="5"/>
-        <v>27034.234500000002</v>
+        <v>26095.613700000002</v>
       </c>
       <c r="AH6" s="14">
         <f t="shared" si="5"/>
-        <v>28565.604112500005</v>
+        <v>27008.960179499998</v>
       </c>
       <c r="AI6" s="14">
         <f t="shared" si="5"/>
-        <v>29993.884318125005</v>
+        <v>28359.408188474998</v>
       </c>
       <c r="AJ6" s="14">
         <f t="shared" si="5"/>
-        <v>31493.578534031258</v>
+        <v>29777.378597898751</v>
       </c>
       <c r="AK6" s="14">
         <f t="shared" si="5"/>
-        <v>33068.257460732821</v>
+        <v>31266.24752779369</v>
       </c>
       <c r="AL6" s="14">
         <f t="shared" si="5"/>
-        <v>34721.670333769463</v>
+        <v>32829.559904183378</v>
       </c>
       <c r="AM6" s="14">
         <f t="shared" si="5"/>
-        <v>36457.753850457935</v>
+        <v>34471.037899392541</v>
       </c>
       <c r="AN6" s="14">
         <f t="shared" si="5"/>
-        <v>38280.641542980833</v>
+        <v>36194.589794362175</v>
       </c>
       <c r="AO6" s="14">
         <f t="shared" si="5"/>
-        <v>40194.673620129877</v>
+        <v>38004.31928408028</v>
       </c>
       <c r="AP6" s="14">
         <f t="shared" si="5"/>
-        <v>42204.407301136373</v>
+        <v>39904.535248284301</v>
       </c>
     </row>
     <row r="7" spans="1:233" x14ac:dyDescent="0.25">
@@ -2542,10 +2536,10 @@
       <c r="R7" s="15">
         <v>-3494</v>
       </c>
-      <c r="S7" s="66">
+      <c r="S7" s="14">
         <v>-4500</v>
       </c>
-      <c r="T7" s="68"/>
+      <c r="U7" s="14"/>
       <c r="V7" s="14">
         <v>-4722</v>
       </c>
@@ -2577,48 +2571,48 @@
         <v>-14844</v>
       </c>
       <c r="AF7" s="15">
-        <f>AE7*1.04</f>
-        <v>-15437.76</v>
+        <f>AE7*1.035</f>
+        <v>-15363.539999999999</v>
       </c>
       <c r="AG7" s="14">
         <f>AF7*1.05</f>
-        <v>-16209.648000000001</v>
+        <v>-16131.717000000001</v>
       </c>
       <c r="AH7" s="14">
-        <f>AG7*1.06</f>
-        <v>-17182.226880000002</v>
+        <f>AG7*1.02</f>
+        <v>-16454.351340000001</v>
       </c>
       <c r="AI7" s="14">
         <f t="shared" ref="AI7:AP7" si="6">AH7*1.045</f>
-        <v>-17955.427089600002</v>
+        <v>-17194.797150300001</v>
       </c>
       <c r="AJ7" s="14">
         <f t="shared" si="6"/>
-        <v>-18763.421308632001</v>
+        <v>-17968.563022063499</v>
       </c>
       <c r="AK7" s="14">
         <f t="shared" si="6"/>
-        <v>-19607.775267520439</v>
+        <v>-18777.148358056354</v>
       </c>
       <c r="AL7" s="14">
         <f t="shared" si="6"/>
-        <v>-20490.125154558857</v>
+        <v>-19622.120034168889</v>
       </c>
       <c r="AM7" s="14">
         <f t="shared" si="6"/>
-        <v>-21412.180786514004</v>
+        <v>-20505.115435706488</v>
       </c>
       <c r="AN7" s="14">
         <f t="shared" si="6"/>
-        <v>-22375.728921907132</v>
+        <v>-21427.845630313277</v>
       </c>
       <c r="AO7" s="14">
         <f t="shared" si="6"/>
-        <v>-23382.636723392952</v>
+        <v>-22392.098683677374</v>
       </c>
       <c r="AP7" s="14">
         <f t="shared" si="6"/>
-        <v>-24434.855375945634</v>
+        <v>-23399.743124442855</v>
       </c>
     </row>
     <row r="8" spans="1:233" x14ac:dyDescent="0.25">
@@ -2677,10 +2671,10 @@
       <c r="R8" s="15">
         <v>-596</v>
       </c>
-      <c r="S8" s="66">
+      <c r="S8" s="14">
         <v>-700</v>
       </c>
-      <c r="T8" s="68"/>
+      <c r="U8" s="14"/>
       <c r="V8" s="14">
         <v>-1657</v>
       </c>
@@ -2712,48 +2706,48 @@
         <v>-2471</v>
       </c>
       <c r="AF8" s="15">
-        <f>AE8*1.06</f>
-        <v>-2619.2600000000002</v>
+        <f>AE8*1.03</f>
+        <v>-2545.13</v>
       </c>
       <c r="AG8" s="14">
         <f>AF8*1.05</f>
-        <v>-2750.2230000000004</v>
+        <v>-2672.3865000000001</v>
       </c>
       <c r="AH8" s="14">
-        <f t="shared" ref="AH8" si="7">AG8*1.05</f>
-        <v>-2887.7341500000007</v>
+        <f>AG8*1.04</f>
+        <v>-2779.2819600000003</v>
       </c>
       <c r="AI8" s="14">
-        <f t="shared" ref="AI8:AP8" si="8">AH8*1.05</f>
-        <v>-3032.120857500001</v>
+        <f t="shared" ref="AI8:AP8" si="7">AH8*1.05</f>
+        <v>-2918.2460580000002</v>
       </c>
       <c r="AJ8" s="14">
-        <f t="shared" si="8"/>
-        <v>-3183.7269003750012</v>
+        <f t="shared" si="7"/>
+        <v>-3064.1583609000004</v>
       </c>
       <c r="AK8" s="14">
-        <f t="shared" si="8"/>
-        <v>-3342.9132453937514</v>
+        <f t="shared" si="7"/>
+        <v>-3217.3662789450004</v>
       </c>
       <c r="AL8" s="14">
-        <f t="shared" si="8"/>
-        <v>-3510.0589076634392</v>
+        <f t="shared" si="7"/>
+        <v>-3378.2345928922505</v>
       </c>
       <c r="AM8" s="14">
-        <f t="shared" si="8"/>
-        <v>-3685.5618530466113</v>
+        <f t="shared" si="7"/>
+        <v>-3547.146322536863</v>
       </c>
       <c r="AN8" s="14">
-        <f t="shared" si="8"/>
-        <v>-3869.8399456989418</v>
+        <f t="shared" si="7"/>
+        <v>-3724.5036386637062</v>
       </c>
       <c r="AO8" s="14">
-        <f t="shared" si="8"/>
-        <v>-4063.3319429838889</v>
+        <f t="shared" si="7"/>
+        <v>-3910.7288205968916</v>
       </c>
       <c r="AP8" s="14">
-        <f t="shared" si="8"/>
-        <v>-4266.4985401330832</v>
+        <f t="shared" si="7"/>
+        <v>-4106.265261626736</v>
       </c>
     </row>
     <row r="9" spans="1:233" x14ac:dyDescent="0.25">
@@ -2762,163 +2756,159 @@
       </c>
       <c r="B9" s="6">
         <f>B6-B7+B8</f>
-        <v>63637.599999999999</v>
+        <v>60367</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="12">
-        <f t="shared" ref="D9:Q9" si="9">SUM(D6:D8)</f>
+        <f t="shared" ref="D9:Q9" si="8">SUM(D6:D8)</f>
         <v>1310</v>
       </c>
       <c r="E9" s="12">
+        <f t="shared" si="8"/>
+        <v>1249</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="8"/>
+        <v>977</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="8"/>
+        <v>3205</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="8"/>
+        <v>1255</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="8"/>
+        <v>1188</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="8"/>
+        <v>920</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="8"/>
+        <v>3674</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="8"/>
+        <v>1507</v>
+      </c>
+      <c r="M9" s="12">
+        <f t="shared" si="8"/>
+        <v>1337</v>
+      </c>
+      <c r="N9" s="12">
+        <f t="shared" si="8"/>
+        <v>981</v>
+      </c>
+      <c r="O9" s="12">
+        <f t="shared" si="8"/>
+        <v>4149</v>
+      </c>
+      <c r="P9" s="12">
+        <f t="shared" si="8"/>
+        <v>1641</v>
+      </c>
+      <c r="Q9" s="12">
+        <f t="shared" si="8"/>
+        <v>1287</v>
+      </c>
+      <c r="R9" s="13">
+        <f t="shared" ref="R9:S9" si="9">SUM(R6:R8)</f>
+        <v>879</v>
+      </c>
+      <c r="S9" s="12">
         <f t="shared" si="9"/>
-        <v>1249</v>
-      </c>
-      <c r="F9" s="12">
-        <f t="shared" si="9"/>
-        <v>977</v>
-      </c>
-      <c r="G9" s="12">
-        <f t="shared" si="9"/>
-        <v>3205</v>
-      </c>
-      <c r="H9" s="12">
-        <f t="shared" si="9"/>
-        <v>1255</v>
-      </c>
-      <c r="I9" s="12">
-        <f t="shared" si="9"/>
-        <v>1188</v>
-      </c>
-      <c r="J9" s="12">
-        <f t="shared" si="9"/>
-        <v>920</v>
-      </c>
-      <c r="K9" s="12">
-        <f t="shared" si="9"/>
-        <v>3674</v>
-      </c>
-      <c r="L9" s="12">
-        <f t="shared" si="9"/>
-        <v>1507</v>
-      </c>
-      <c r="M9" s="12">
-        <f t="shared" si="9"/>
-        <v>1337</v>
-      </c>
-      <c r="N9" s="12">
-        <f t="shared" si="9"/>
-        <v>981</v>
-      </c>
-      <c r="O9" s="12">
-        <f t="shared" si="9"/>
-        <v>4149</v>
-      </c>
-      <c r="P9" s="12">
-        <f t="shared" si="9"/>
-        <v>1641</v>
-      </c>
-      <c r="Q9" s="12">
-        <f t="shared" si="9"/>
-        <v>1287</v>
-      </c>
-      <c r="R9" s="13">
-        <f t="shared" ref="R9:S9" si="10">SUM(R6:R8)</f>
-        <v>879</v>
-      </c>
-      <c r="S9" s="65">
+        <v>4000</v>
+      </c>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12">
+        <f t="shared" ref="V9:AE9" si="10">SUM(V6:V8)</f>
+        <v>5814</v>
+      </c>
+      <c r="W9" s="12">
         <f t="shared" si="10"/>
-        <v>4000</v>
-      </c>
-      <c r="T9" s="68"/>
-      <c r="U9" s="14">
-        <f>SUM(P9:S9)</f>
-        <v>7807</v>
-      </c>
-      <c r="V9" s="12">
-        <f t="shared" ref="V9:AE9" si="11">SUM(V6:V8)</f>
-        <v>5814</v>
-      </c>
-      <c r="W9" s="12">
+        <v>7404</v>
+      </c>
+      <c r="X9" s="12">
+        <f t="shared" si="10"/>
+        <v>7784</v>
+      </c>
+      <c r="Y9" s="12">
+        <f t="shared" si="10"/>
+        <v>6431</v>
+      </c>
+      <c r="Z9" s="12">
+        <f t="shared" si="10"/>
+        <v>3827</v>
+      </c>
+      <c r="AA9" s="12">
+        <f t="shared" si="10"/>
+        <v>2684</v>
+      </c>
+      <c r="AB9" s="12">
+        <f t="shared" si="10"/>
+        <v>5839</v>
+      </c>
+      <c r="AC9" s="12">
+        <f t="shared" si="10"/>
+        <v>6743</v>
+      </c>
+      <c r="AD9" s="12">
+        <f t="shared" si="10"/>
+        <v>7038</v>
+      </c>
+      <c r="AE9" s="12">
+        <f t="shared" si="10"/>
+        <v>7974</v>
+      </c>
+      <c r="AF9" s="13">
+        <f t="shared" ref="AF9:AP9" si="11">SUM(AF6:AF8)</f>
+        <v>7740.4469999999992</v>
+      </c>
+      <c r="AG9" s="12">
         <f t="shared" si="11"/>
-        <v>7404</v>
-      </c>
-      <c r="X9" s="12">
+        <v>7291.5102000000006</v>
+      </c>
+      <c r="AH9" s="12">
         <f t="shared" si="11"/>
-        <v>7784</v>
-      </c>
-      <c r="Y9" s="12">
+        <v>7775.3268794999967</v>
+      </c>
+      <c r="AI9" s="12">
         <f t="shared" si="11"/>
-        <v>6431</v>
-      </c>
-      <c r="Z9" s="12">
+        <v>8246.3649801749962</v>
+      </c>
+      <c r="AJ9" s="12">
         <f t="shared" si="11"/>
-        <v>3827</v>
-      </c>
-      <c r="AA9" s="12">
+        <v>8744.6572149352505</v>
+      </c>
+      <c r="AK9" s="12">
         <f t="shared" si="11"/>
-        <v>2684</v>
-      </c>
-      <c r="AB9" s="12">
+        <v>9271.7328907923347</v>
+      </c>
+      <c r="AL9" s="12">
         <f t="shared" si="11"/>
-        <v>5839</v>
-      </c>
-      <c r="AC9" s="12">
+        <v>9829.205277122237</v>
+      </c>
+      <c r="AM9" s="12">
         <f t="shared" si="11"/>
-        <v>6743</v>
-      </c>
-      <c r="AD9" s="12">
+        <v>10418.77614114919</v>
+      </c>
+      <c r="AN9" s="12">
         <f t="shared" si="11"/>
-        <v>7038</v>
-      </c>
-      <c r="AE9" s="12">
+        <v>11042.240525385192</v>
+      </c>
+      <c r="AO9" s="12">
         <f t="shared" si="11"/>
-        <v>7974</v>
-      </c>
-      <c r="AF9" s="13">
-        <f t="shared" ref="AF9:AP9" si="12">SUM(AF6:AF8)</f>
-        <v>7852.8250000000007</v>
-      </c>
-      <c r="AG9" s="12">
-        <f t="shared" si="12"/>
-        <v>8074.3635000000013</v>
-      </c>
-      <c r="AH9" s="12">
-        <f t="shared" si="12"/>
-        <v>8495.6430825000025</v>
-      </c>
-      <c r="AI9" s="12">
-        <f t="shared" si="12"/>
-        <v>9006.3363710250014</v>
-      </c>
-      <c r="AJ9" s="12">
-        <f t="shared" si="12"/>
-        <v>9546.4303250242556</v>
-      </c>
-      <c r="AK9" s="12">
-        <f t="shared" si="12"/>
-        <v>10117.56894781863</v>
-      </c>
-      <c r="AL9" s="12">
-        <f t="shared" si="12"/>
-        <v>10721.486271547168</v>
-      </c>
-      <c r="AM9" s="12">
-        <f t="shared" si="12"/>
-        <v>11360.011210897321</v>
-      </c>
-      <c r="AN9" s="12">
-        <f t="shared" si="12"/>
-        <v>12035.072675374759</v>
-      </c>
-      <c r="AO9" s="12">
-        <f t="shared" si="12"/>
-        <v>12748.704953753037</v>
+        <v>11701.491779806016</v>
       </c>
       <c r="AP9" s="12">
-        <f t="shared" si="12"/>
-        <v>13503.053385057656</v>
+        <f t="shared" si="11"/>
+        <v>12398.526862214709</v>
       </c>
     </row>
     <row r="10" spans="1:233" x14ac:dyDescent="0.25">
@@ -2970,8 +2960,7 @@
       <c r="R10" s="15">
         <v>42</v>
       </c>
-      <c r="S10" s="66"/>
-      <c r="T10" s="68"/>
+      <c r="S10" s="14"/>
       <c r="V10" s="14">
         <v>84</v>
       </c>
@@ -3010,39 +2999,39 @@
         <v>234.6</v>
       </c>
       <c r="AH10" s="14">
-        <f t="shared" ref="AH10:AP10" si="13">AG10*1.02</f>
+        <f t="shared" ref="AH10:AP10" si="12">AG10*1.02</f>
         <v>239.292</v>
       </c>
       <c r="AI10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>244.07784000000001</v>
       </c>
       <c r="AJ10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>248.95939680000001</v>
       </c>
       <c r="AK10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>253.93858473600002</v>
       </c>
       <c r="AL10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>259.01735643072004</v>
       </c>
       <c r="AM10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>264.19770355933446</v>
       </c>
       <c r="AN10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>269.48165763052117</v>
       </c>
       <c r="AO10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>274.8712907831316</v>
       </c>
       <c r="AP10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>280.36871659879421</v>
       </c>
     </row>
@@ -3095,8 +3084,7 @@
       <c r="R11" s="15">
         <v>-274</v>
       </c>
-      <c r="S11" s="66"/>
-      <c r="T11" s="68"/>
+      <c r="S11" s="14"/>
       <c r="V11" s="14">
         <v>-553</v>
       </c>
@@ -3135,39 +3123,39 @@
         <v>-1177.08</v>
       </c>
       <c r="AH11" s="14">
-        <f t="shared" ref="AH11:AP11" si="14">AG11*1.02</f>
+        <f t="shared" ref="AH11:AP11" si="13">AG11*1.02</f>
         <v>-1200.6215999999999</v>
       </c>
       <c r="AI11" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-1224.6340319999999</v>
       </c>
       <c r="AJ11" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-1249.1267126400001</v>
       </c>
       <c r="AK11" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-1274.1092468928</v>
       </c>
       <c r="AL11" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-1299.5914318306561</v>
       </c>
       <c r="AM11" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-1325.5832604672692</v>
       </c>
       <c r="AN11" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-1352.0949256766146</v>
       </c>
       <c r="AO11" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-1379.1368241901469</v>
       </c>
       <c r="AP11" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-1406.7195606739499</v>
       </c>
     </row>
@@ -3176,153 +3164,152 @@
         <v>61</v>
       </c>
       <c r="D12" s="14">
-        <f t="shared" ref="D12:Q12" si="15">SUM(D9:D11)</f>
+        <f t="shared" ref="D12:Q12" si="14">SUM(D9:D11)</f>
         <v>1300</v>
       </c>
       <c r="E12" s="14">
+        <f t="shared" si="14"/>
+        <v>1221</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="14"/>
+        <v>959</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="14"/>
+        <v>3051</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="14"/>
+        <v>1161</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="14"/>
+        <v>1016</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="14"/>
+        <v>710</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="14"/>
+        <v>3344</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" si="14"/>
+        <v>1278</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" si="14"/>
+        <v>1057</v>
+      </c>
+      <c r="N12" s="14">
+        <f t="shared" si="14"/>
+        <v>788</v>
+      </c>
+      <c r="O12" s="14">
+        <f t="shared" si="14"/>
+        <v>3802</v>
+      </c>
+      <c r="P12" s="14">
+        <f t="shared" si="14"/>
+        <v>1403</v>
+      </c>
+      <c r="Q12" s="14">
+        <f t="shared" si="14"/>
+        <v>1063</v>
+      </c>
+      <c r="R12" s="15">
+        <f t="shared" ref="R12:S12" si="15">SUM(R9:R11)</f>
+        <v>647</v>
+      </c>
+      <c r="S12" s="14">
         <f t="shared" si="15"/>
-        <v>1221</v>
-      </c>
-      <c r="F12" s="14">
-        <f t="shared" si="15"/>
-        <v>959</v>
-      </c>
-      <c r="G12" s="14">
-        <f t="shared" si="15"/>
-        <v>3051</v>
-      </c>
-      <c r="H12" s="14">
-        <f t="shared" si="15"/>
-        <v>1161</v>
-      </c>
-      <c r="I12" s="14">
-        <f t="shared" si="15"/>
-        <v>1016</v>
-      </c>
-      <c r="J12" s="14">
-        <f t="shared" si="15"/>
-        <v>710</v>
-      </c>
-      <c r="K12" s="14">
-        <f t="shared" si="15"/>
-        <v>3344</v>
-      </c>
-      <c r="L12" s="14">
-        <f t="shared" si="15"/>
-        <v>1278</v>
-      </c>
-      <c r="M12" s="14">
-        <f t="shared" si="15"/>
-        <v>1057</v>
-      </c>
-      <c r="N12" s="14">
-        <f t="shared" si="15"/>
-        <v>788</v>
-      </c>
-      <c r="O12" s="14">
-        <f t="shared" si="15"/>
-        <v>3802</v>
-      </c>
-      <c r="P12" s="14">
-        <f t="shared" si="15"/>
-        <v>1403</v>
-      </c>
-      <c r="Q12" s="14">
-        <f t="shared" si="15"/>
-        <v>1063</v>
-      </c>
-      <c r="R12" s="15">
-        <f t="shared" ref="R12:S12" si="16">SUM(R9:R11)</f>
-        <v>647</v>
-      </c>
-      <c r="S12" s="66">
+        <v>4000</v>
+      </c>
+      <c r="V12" s="14">
+        <f t="shared" ref="V12:AE12" si="16">SUM(V9:V11)</f>
+        <v>5345</v>
+      </c>
+      <c r="W12" s="14">
         <f t="shared" si="16"/>
-        <v>4000</v>
-      </c>
-      <c r="T12" s="68"/>
-      <c r="V12" s="14">
-        <f t="shared" ref="V12:AE12" si="17">SUM(V9:V11)</f>
-        <v>5345</v>
-      </c>
-      <c r="W12" s="14">
+        <v>7650</v>
+      </c>
+      <c r="X12" s="14">
+        <f t="shared" si="16"/>
+        <v>7667</v>
+      </c>
+      <c r="Y12" s="14">
+        <f t="shared" si="16"/>
+        <v>6582</v>
+      </c>
+      <c r="Z12" s="14">
+        <f t="shared" si="16"/>
+        <v>3827</v>
+      </c>
+      <c r="AA12" s="14">
+        <f t="shared" si="16"/>
+        <v>2493</v>
+      </c>
+      <c r="AB12" s="14">
+        <f t="shared" si="16"/>
+        <v>5378</v>
+      </c>
+      <c r="AC12" s="14">
+        <f t="shared" si="16"/>
+        <v>6533</v>
+      </c>
+      <c r="AD12" s="14">
+        <f t="shared" si="16"/>
+        <v>6233</v>
+      </c>
+      <c r="AE12" s="14">
+        <f t="shared" si="16"/>
+        <v>6925</v>
+      </c>
+      <c r="AF12" s="15">
+        <f t="shared" ref="AF12:AP12" si="17">SUM(AF9:AF11)</f>
+        <v>6816.4469999999992</v>
+      </c>
+      <c r="AG12" s="14">
         <f t="shared" si="17"/>
-        <v>7650</v>
-      </c>
-      <c r="X12" s="14">
+        <v>6349.0302000000011</v>
+      </c>
+      <c r="AH12" s="14">
         <f t="shared" si="17"/>
-        <v>7667</v>
-      </c>
-      <c r="Y12" s="14">
+        <v>6813.9972794999976</v>
+      </c>
+      <c r="AI12" s="14">
         <f t="shared" si="17"/>
-        <v>6582</v>
-      </c>
-      <c r="Z12" s="14">
+        <v>7265.8087881749962</v>
+      </c>
+      <c r="AJ12" s="14">
         <f t="shared" si="17"/>
-        <v>3827</v>
-      </c>
-      <c r="AA12" s="14">
+        <v>7744.4898990952515</v>
+      </c>
+      <c r="AK12" s="14">
         <f t="shared" si="17"/>
-        <v>2493</v>
-      </c>
-      <c r="AB12" s="14">
+        <v>8251.5622286355356</v>
+      </c>
+      <c r="AL12" s="14">
         <f t="shared" si="17"/>
-        <v>5378</v>
-      </c>
-      <c r="AC12" s="14">
+        <v>8788.6312017223008</v>
+      </c>
+      <c r="AM12" s="14">
         <f t="shared" si="17"/>
-        <v>6533</v>
-      </c>
-      <c r="AD12" s="14">
+        <v>9357.3905842412551</v>
+      </c>
+      <c r="AN12" s="14">
         <f t="shared" si="17"/>
-        <v>6233</v>
-      </c>
-      <c r="AE12" s="14">
+        <v>9959.6272573390997</v>
+      </c>
+      <c r="AO12" s="14">
         <f t="shared" si="17"/>
-        <v>6925</v>
-      </c>
-      <c r="AF12" s="15">
-        <f t="shared" ref="AF12:AP12" si="18">SUM(AF9:AF11)</f>
-        <v>6928.8250000000007</v>
-      </c>
-      <c r="AG12" s="14">
-        <f t="shared" si="18"/>
-        <v>7131.8835000000017</v>
-      </c>
-      <c r="AH12" s="14">
-        <f t="shared" si="18"/>
-        <v>7534.3134825000016</v>
-      </c>
-      <c r="AI12" s="14">
-        <f t="shared" si="18"/>
-        <v>8025.7801790250014</v>
-      </c>
-      <c r="AJ12" s="14">
-        <f t="shared" si="18"/>
-        <v>8546.2630091842566</v>
-      </c>
-      <c r="AK12" s="14">
-        <f t="shared" si="18"/>
-        <v>9097.3982856618313</v>
-      </c>
-      <c r="AL12" s="14">
-        <f t="shared" si="18"/>
-        <v>9680.912196147232</v>
-      </c>
-      <c r="AM12" s="14">
-        <f t="shared" si="18"/>
-        <v>10298.625653989386</v>
-      </c>
-      <c r="AN12" s="14">
-        <f t="shared" si="18"/>
-        <v>10952.459407328666</v>
-      </c>
-      <c r="AO12" s="14">
-        <f t="shared" si="18"/>
-        <v>11644.439420346022</v>
+        <v>10597.226246399001</v>
       </c>
       <c r="AP12" s="14">
-        <f t="shared" si="18"/>
-        <v>12376.7025409825</v>
+        <f t="shared" si="17"/>
+        <v>11272.176018139553</v>
       </c>
     </row>
     <row r="13" spans="1:233" x14ac:dyDescent="0.25">
@@ -3374,10 +3361,9 @@
       <c r="R13" s="15">
         <v>-159</v>
       </c>
-      <c r="S13" s="66">
+      <c r="S13" s="14">
         <v>-900</v>
       </c>
-      <c r="T13" s="68"/>
       <c r="V13" s="14">
         <v>-1671</v>
       </c>
@@ -3410,47 +3396,47 @@
       </c>
       <c r="AF13" s="15">
         <f>AF12*-0.24</f>
-        <v>-1662.9180000000001</v>
+        <v>-1635.9472799999996</v>
       </c>
       <c r="AG13" s="14">
-        <f t="shared" ref="AG13:AP13" si="19">AG12*-0.24</f>
-        <v>-1711.6520400000004</v>
+        <f t="shared" ref="AG13:AP13" si="18">AG12*-0.24</f>
+        <v>-1523.7672480000001</v>
       </c>
       <c r="AH13" s="14">
-        <f t="shared" si="19"/>
-        <v>-1808.2352358000003</v>
+        <f t="shared" si="18"/>
+        <v>-1635.3593470799995</v>
       </c>
       <c r="AI13" s="14">
-        <f t="shared" si="19"/>
-        <v>-1926.1872429660002</v>
+        <f t="shared" si="18"/>
+        <v>-1743.7941091619989</v>
       </c>
       <c r="AJ13" s="14">
-        <f t="shared" si="19"/>
-        <v>-2051.1031222042216</v>
+        <f t="shared" si="18"/>
+        <v>-1858.6775757828602</v>
       </c>
       <c r="AK13" s="14">
-        <f t="shared" si="19"/>
-        <v>-2183.3755885588394</v>
+        <f t="shared" si="18"/>
+        <v>-1980.3749348725285</v>
       </c>
       <c r="AL13" s="14">
-        <f t="shared" si="19"/>
-        <v>-2323.4189270753354</v>
+        <f t="shared" si="18"/>
+        <v>-2109.271488413352</v>
       </c>
       <c r="AM13" s="14">
-        <f t="shared" si="19"/>
-        <v>-2471.6701569574525</v>
+        <f t="shared" si="18"/>
+        <v>-2245.7737402179009</v>
       </c>
       <c r="AN13" s="14">
-        <f t="shared" si="19"/>
-        <v>-2628.5902577588799</v>
+        <f t="shared" si="18"/>
+        <v>-2390.3105417613838</v>
       </c>
       <c r="AO13" s="14">
-        <f t="shared" si="19"/>
-        <v>-2794.6654608830449</v>
+        <f t="shared" si="18"/>
+        <v>-2543.3342991357599</v>
       </c>
       <c r="AP13" s="14">
-        <f t="shared" si="19"/>
-        <v>-2970.4086098357998</v>
+        <f t="shared" si="18"/>
+        <v>-2705.3222443534928</v>
       </c>
     </row>
     <row r="14" spans="1:233" x14ac:dyDescent="0.25">
@@ -3458,917 +3444,916 @@
         <v>63</v>
       </c>
       <c r="D14" s="12">
-        <f t="shared" ref="D14:Q14" si="20">SUM(D12:D13)</f>
+        <f t="shared" ref="D14:Q14" si="19">SUM(D12:D13)</f>
         <v>994</v>
       </c>
       <c r="E14" s="12">
+        <f t="shared" si="19"/>
+        <v>934</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="19"/>
+        <v>733</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="19"/>
+        <v>2365</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="19"/>
+        <v>888</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" si="19"/>
+        <v>777</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="19"/>
+        <v>543</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" si="19"/>
+        <v>2529</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="19"/>
+        <v>965</v>
+      </c>
+      <c r="M14" s="12">
+        <f t="shared" si="19"/>
+        <v>797</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" si="19"/>
+        <v>595</v>
+      </c>
+      <c r="O14" s="12">
+        <f t="shared" si="19"/>
+        <v>2869</v>
+      </c>
+      <c r="P14" s="12">
+        <f t="shared" si="19"/>
+        <v>1101</v>
+      </c>
+      <c r="Q14" s="12">
+        <f t="shared" si="19"/>
+        <v>802</v>
+      </c>
+      <c r="R14" s="13">
+        <f t="shared" ref="R14:S14" si="20">SUM(R12:R13)</f>
+        <v>488</v>
+      </c>
+      <c r="S14" s="12">
         <f t="shared" si="20"/>
-        <v>934</v>
-      </c>
-      <c r="F14" s="12">
-        <f t="shared" si="20"/>
-        <v>733</v>
-      </c>
-      <c r="G14" s="12">
-        <f t="shared" si="20"/>
-        <v>2365</v>
-      </c>
-      <c r="H14" s="12">
-        <f t="shared" si="20"/>
-        <v>888</v>
-      </c>
-      <c r="I14" s="12">
-        <f t="shared" si="20"/>
-        <v>777</v>
-      </c>
-      <c r="J14" s="12">
-        <f t="shared" si="20"/>
-        <v>543</v>
-      </c>
-      <c r="K14" s="12">
-        <f t="shared" si="20"/>
-        <v>2529</v>
-      </c>
-      <c r="L14" s="12">
-        <f t="shared" si="20"/>
-        <v>965</v>
-      </c>
-      <c r="M14" s="12">
-        <f t="shared" si="20"/>
-        <v>797</v>
-      </c>
-      <c r="N14" s="12">
-        <f t="shared" si="20"/>
-        <v>595</v>
-      </c>
-      <c r="O14" s="12">
-        <f t="shared" si="20"/>
-        <v>2869</v>
-      </c>
-      <c r="P14" s="12">
-        <f t="shared" si="20"/>
-        <v>1101</v>
-      </c>
-      <c r="Q14" s="12">
-        <f t="shared" si="20"/>
-        <v>802</v>
-      </c>
-      <c r="R14" s="13">
-        <f t="shared" ref="R14:S14" si="21">SUM(R12:R13)</f>
-        <v>488</v>
-      </c>
-      <c r="S14" s="65">
+        <v>3100</v>
+      </c>
+      <c r="V14" s="12">
+        <f t="shared" ref="V14:AE14" si="21">SUM(V12:V13)</f>
+        <v>3674</v>
+      </c>
+      <c r="W14" s="12">
         <f t="shared" si="21"/>
-        <v>3100</v>
-      </c>
-      <c r="T14" s="68"/>
-      <c r="V14" s="12">
-        <f t="shared" ref="V14:AE14" si="22">SUM(V12:V13)</f>
-        <v>3674</v>
-      </c>
-      <c r="W14" s="12">
+        <v>6025</v>
+      </c>
+      <c r="X14" s="12">
+        <f t="shared" si="21"/>
+        <v>5768</v>
+      </c>
+      <c r="Y14" s="12">
+        <f t="shared" si="21"/>
+        <v>5045</v>
+      </c>
+      <c r="Z14" s="12">
+        <f t="shared" si="21"/>
+        <v>2943</v>
+      </c>
+      <c r="AA14" s="12">
+        <f t="shared" si="21"/>
+        <v>1937</v>
+      </c>
+      <c r="AB14" s="12">
+        <f t="shared" si="21"/>
+        <v>4160</v>
+      </c>
+      <c r="AC14" s="12">
+        <f t="shared" si="21"/>
+        <v>5029</v>
+      </c>
+      <c r="AD14" s="12">
+        <f t="shared" si="21"/>
+        <v>4739</v>
+      </c>
+      <c r="AE14" s="12">
+        <f t="shared" si="21"/>
+        <v>5226</v>
+      </c>
+      <c r="AF14" s="13">
+        <f t="shared" ref="AF14:AP14" si="22">SUM(AF12:AF13)</f>
+        <v>5180.4997199999998</v>
+      </c>
+      <c r="AG14" s="12">
         <f t="shared" si="22"/>
-        <v>6025</v>
-      </c>
-      <c r="X14" s="12">
+        <v>4825.262952000001</v>
+      </c>
+      <c r="AH14" s="12">
         <f t="shared" si="22"/>
-        <v>5768</v>
-      </c>
-      <c r="Y14" s="12">
+        <v>5178.6379324199979</v>
+      </c>
+      <c r="AI14" s="12">
         <f t="shared" si="22"/>
-        <v>5045</v>
-      </c>
-      <c r="Z14" s="12">
+        <v>5522.0146790129975</v>
+      </c>
+      <c r="AJ14" s="12">
         <f t="shared" si="22"/>
-        <v>2943</v>
-      </c>
-      <c r="AA14" s="12">
+        <v>5885.8123233123915</v>
+      </c>
+      <c r="AK14" s="12">
         <f t="shared" si="22"/>
-        <v>1937</v>
-      </c>
-      <c r="AB14" s="12">
+        <v>6271.1872937630069</v>
+      </c>
+      <c r="AL14" s="12">
         <f t="shared" si="22"/>
-        <v>4160</v>
-      </c>
-      <c r="AC14" s="12">
+        <v>6679.3597133089488</v>
+      </c>
+      <c r="AM14" s="12">
         <f t="shared" si="22"/>
-        <v>5029</v>
-      </c>
-      <c r="AD14" s="12">
+        <v>7111.6168440233541</v>
+      </c>
+      <c r="AN14" s="12">
         <f t="shared" si="22"/>
-        <v>4739</v>
-      </c>
-      <c r="AE14" s="12">
+        <v>7569.3167155777155</v>
+      </c>
+      <c r="AO14" s="12">
         <f t="shared" si="22"/>
-        <v>5226</v>
-      </c>
-      <c r="AF14" s="13">
-        <f t="shared" ref="AF14:AP14" si="23">SUM(AF12:AF13)</f>
-        <v>5265.9070000000011</v>
-      </c>
-      <c r="AG14" s="12">
-        <f t="shared" si="23"/>
-        <v>5420.2314600000009</v>
-      </c>
-      <c r="AH14" s="12">
-        <f t="shared" si="23"/>
-        <v>5726.0782467000008</v>
-      </c>
-      <c r="AI14" s="12">
-        <f t="shared" si="23"/>
-        <v>6099.5929360590017</v>
-      </c>
-      <c r="AJ14" s="12">
-        <f t="shared" si="23"/>
-        <v>6495.1598869800346</v>
-      </c>
-      <c r="AK14" s="12">
-        <f t="shared" si="23"/>
-        <v>6914.0226971029915</v>
-      </c>
-      <c r="AL14" s="12">
-        <f t="shared" si="23"/>
-        <v>7357.4932690718961</v>
-      </c>
-      <c r="AM14" s="12">
-        <f t="shared" si="23"/>
-        <v>7826.9554970319332</v>
-      </c>
-      <c r="AN14" s="12">
-        <f t="shared" si="23"/>
-        <v>8323.8691495697858</v>
-      </c>
-      <c r="AO14" s="12">
-        <f t="shared" si="23"/>
-        <v>8849.7739594629766</v>
+        <v>8053.8919472632406</v>
       </c>
       <c r="AP14" s="12">
-        <f t="shared" si="23"/>
-        <v>9406.2939311466998</v>
+        <f t="shared" si="22"/>
+        <v>8566.8537737860606</v>
       </c>
       <c r="AQ14" s="12">
         <f>AP14*(1+$AS$18)</f>
-        <v>9312.230991835233</v>
+        <v>8481.1852360482007</v>
       </c>
       <c r="AR14" s="12">
-        <f t="shared" ref="AR14:DC14" si="24">AQ14*(1+$AS$18)</f>
-        <v>9219.1086819168813</v>
+        <f t="shared" ref="AR14:DC14" si="23">AQ14*(1+$AS$18)</f>
+        <v>8396.3733836877182</v>
       </c>
       <c r="AS14" s="12">
+        <f t="shared" si="23"/>
+        <v>8312.4096498508407</v>
+      </c>
+      <c r="AT14" s="12">
+        <f t="shared" si="23"/>
+        <v>8229.2855533523325</v>
+      </c>
+      <c r="AU14" s="12">
+        <f t="shared" si="23"/>
+        <v>8146.9926978188087</v>
+      </c>
+      <c r="AV14" s="12">
+        <f t="shared" si="23"/>
+        <v>8065.5227708406201</v>
+      </c>
+      <c r="AW14" s="12">
+        <f t="shared" si="23"/>
+        <v>7984.8675431322135</v>
+      </c>
+      <c r="AX14" s="12">
+        <f t="shared" si="23"/>
+        <v>7905.018867700891</v>
+      </c>
+      <c r="AY14" s="12">
+        <f t="shared" si="23"/>
+        <v>7825.968679023882</v>
+      </c>
+      <c r="AZ14" s="12">
+        <f t="shared" si="23"/>
+        <v>7747.7089922336436</v>
+      </c>
+      <c r="BA14" s="12">
+        <f t="shared" si="23"/>
+        <v>7670.2319023113068</v>
+      </c>
+      <c r="BB14" s="12">
+        <f t="shared" si="23"/>
+        <v>7593.5295832881939</v>
+      </c>
+      <c r="BC14" s="12">
+        <f t="shared" si="23"/>
+        <v>7517.594287455312</v>
+      </c>
+      <c r="BD14" s="12">
+        <f t="shared" si="23"/>
+        <v>7442.4183445807585</v>
+      </c>
+      <c r="BE14" s="12">
+        <f t="shared" si="23"/>
+        <v>7367.9941611349504</v>
+      </c>
+      <c r="BF14" s="12">
+        <f t="shared" si="23"/>
+        <v>7294.3142195236005</v>
+      </c>
+      <c r="BG14" s="12">
+        <f t="shared" si="23"/>
+        <v>7221.3710773283647</v>
+      </c>
+      <c r="BH14" s="12">
+        <f t="shared" si="23"/>
+        <v>7149.1573665550814</v>
+      </c>
+      <c r="BI14" s="12">
+        <f t="shared" si="23"/>
+        <v>7077.6657928895302</v>
+      </c>
+      <c r="BJ14" s="12">
+        <f t="shared" si="23"/>
+        <v>7006.8891349606347</v>
+      </c>
+      <c r="BK14" s="12">
+        <f t="shared" si="23"/>
+        <v>6936.8202436110287</v>
+      </c>
+      <c r="BL14" s="12">
+        <f t="shared" si="23"/>
+        <v>6867.4520411749181</v>
+      </c>
+      <c r="BM14" s="12">
+        <f t="shared" si="23"/>
+        <v>6798.7775207631685</v>
+      </c>
+      <c r="BN14" s="12">
+        <f t="shared" si="23"/>
+        <v>6730.7897455555367</v>
+      </c>
+      <c r="BO14" s="12">
+        <f t="shared" si="23"/>
+        <v>6663.4818480999811</v>
+      </c>
+      <c r="BP14" s="12">
+        <f t="shared" si="23"/>
+        <v>6596.8470296189817</v>
+      </c>
+      <c r="BQ14" s="12">
+        <f t="shared" si="23"/>
+        <v>6530.8785593227922</v>
+      </c>
+      <c r="BR14" s="12">
+        <f t="shared" si="23"/>
+        <v>6465.5697737295641</v>
+      </c>
+      <c r="BS14" s="12">
+        <f t="shared" si="23"/>
+        <v>6400.9140759922684</v>
+      </c>
+      <c r="BT14" s="12">
+        <f t="shared" si="23"/>
+        <v>6336.9049352323455</v>
+      </c>
+      <c r="BU14" s="12">
+        <f t="shared" si="23"/>
+        <v>6273.5358858800219</v>
+      </c>
+      <c r="BV14" s="12">
+        <f t="shared" si="23"/>
+        <v>6210.8005270212216</v>
+      </c>
+      <c r="BW14" s="12">
+        <f t="shared" si="23"/>
+        <v>6148.6925217510097</v>
+      </c>
+      <c r="BX14" s="12">
+        <f t="shared" si="23"/>
+        <v>6087.2055965334994</v>
+      </c>
+      <c r="BY14" s="12">
+        <f t="shared" si="23"/>
+        <v>6026.3335405681646</v>
+      </c>
+      <c r="BZ14" s="12">
+        <f t="shared" si="23"/>
+        <v>5966.070205162483</v>
+      </c>
+      <c r="CA14" s="12">
+        <f t="shared" si="23"/>
+        <v>5906.4095031108582</v>
+      </c>
+      <c r="CB14" s="12">
+        <f t="shared" si="23"/>
+        <v>5847.3454080797492</v>
+      </c>
+      <c r="CC14" s="12">
+        <f t="shared" si="23"/>
+        <v>5788.8719539989515</v>
+      </c>
+      <c r="CD14" s="12">
+        <f t="shared" si="23"/>
+        <v>5730.9832344589622</v>
+      </c>
+      <c r="CE14" s="12">
+        <f t="shared" si="23"/>
+        <v>5673.6734021143729</v>
+      </c>
+      <c r="CF14" s="12">
+        <f t="shared" si="23"/>
+        <v>5616.9366680932289</v>
+      </c>
+      <c r="CG14" s="12">
+        <f t="shared" si="23"/>
+        <v>5560.7673014122965</v>
+      </c>
+      <c r="CH14" s="12">
+        <f t="shared" si="23"/>
+        <v>5505.1596283981735</v>
+      </c>
+      <c r="CI14" s="12">
+        <f t="shared" si="23"/>
+        <v>5450.1080321141917</v>
+      </c>
+      <c r="CJ14" s="12">
+        <f t="shared" si="23"/>
+        <v>5395.60695179305</v>
+      </c>
+      <c r="CK14" s="12">
+        <f t="shared" si="23"/>
+        <v>5341.6508822751193</v>
+      </c>
+      <c r="CL14" s="12">
+        <f t="shared" si="23"/>
+        <v>5288.2343734523683</v>
+      </c>
+      <c r="CM14" s="12">
+        <f t="shared" si="23"/>
+        <v>5235.3520297178447</v>
+      </c>
+      <c r="CN14" s="12">
+        <f t="shared" si="23"/>
+        <v>5182.9985094206659</v>
+      </c>
+      <c r="CO14" s="12">
+        <f t="shared" si="23"/>
+        <v>5131.1685243264592</v>
+      </c>
+      <c r="CP14" s="12">
+        <f t="shared" si="23"/>
+        <v>5079.8568390831942</v>
+      </c>
+      <c r="CQ14" s="12">
+        <f t="shared" si="23"/>
+        <v>5029.0582706923624</v>
+      </c>
+      <c r="CR14" s="12">
+        <f t="shared" si="23"/>
+        <v>4978.7676879854389</v>
+      </c>
+      <c r="CS14" s="12">
+        <f t="shared" si="23"/>
+        <v>4928.9800111055847</v>
+      </c>
+      <c r="CT14" s="12">
+        <f t="shared" si="23"/>
+        <v>4879.6902109945286</v>
+      </c>
+      <c r="CU14" s="12">
+        <f t="shared" si="23"/>
+        <v>4830.8933088845833</v>
+      </c>
+      <c r="CV14" s="12">
+        <f t="shared" si="23"/>
+        <v>4782.5843757957373</v>
+      </c>
+      <c r="CW14" s="12">
+        <f t="shared" si="23"/>
+        <v>4734.7585320377802</v>
+      </c>
+      <c r="CX14" s="12">
+        <f t="shared" si="23"/>
+        <v>4687.4109467174021</v>
+      </c>
+      <c r="CY14" s="12">
+        <f t="shared" si="23"/>
+        <v>4640.536837250228</v>
+      </c>
+      <c r="CZ14" s="12">
+        <f t="shared" si="23"/>
+        <v>4594.1314688777256</v>
+      </c>
+      <c r="DA14" s="12">
+        <f t="shared" si="23"/>
+        <v>4548.1901541889483</v>
+      </c>
+      <c r="DB14" s="12">
+        <f t="shared" si="23"/>
+        <v>4502.7082526470585</v>
+      </c>
+      <c r="DC14" s="12">
+        <f t="shared" si="23"/>
+        <v>4457.6811701205879</v>
+      </c>
+      <c r="DD14" s="12">
+        <f t="shared" ref="DD14:FO14" si="24">DC14*(1+$AS$18)</f>
+        <v>4413.1043584193822</v>
+      </c>
+      <c r="DE14" s="12">
         <f t="shared" si="24"/>
-        <v>9126.9175950977133</v>
-      </c>
-      <c r="AT14" s="12">
+        <v>4368.9733148351879</v>
+      </c>
+      <c r="DF14" s="12">
         <f t="shared" si="24"/>
-        <v>9035.6484191467353</v>
-      </c>
-      <c r="AU14" s="12">
+        <v>4325.2835816868364</v>
+      </c>
+      <c r="DG14" s="12">
         <f t="shared" si="24"/>
-        <v>8945.2919349552685</v>
-      </c>
-      <c r="AV14" s="12">
+        <v>4282.0307458699681</v>
+      </c>
+      <c r="DH14" s="12">
         <f t="shared" si="24"/>
-        <v>8855.8390156057158</v>
-      </c>
-      <c r="AW14" s="12">
+        <v>4239.2104384112681</v>
+      </c>
+      <c r="DI14" s="12">
         <f t="shared" si="24"/>
-        <v>8767.2806254496591</v>
-      </c>
-      <c r="AX14" s="12">
+        <v>4196.8183340271553</v>
+      </c>
+      <c r="DJ14" s="12">
         <f t="shared" si="24"/>
-        <v>8679.6078191951619</v>
-      </c>
-      <c r="AY14" s="12">
+        <v>4154.8501506868834</v>
+      </c>
+      <c r="DK14" s="12">
         <f t="shared" si="24"/>
-        <v>8592.81174100321</v>
-      </c>
-      <c r="AZ14" s="12">
+        <v>4113.3016491800145</v>
+      </c>
+      <c r="DL14" s="12">
         <f t="shared" si="24"/>
-        <v>8506.8836235931776</v>
-      </c>
-      <c r="BA14" s="12">
+        <v>4072.1686326882141</v>
+      </c>
+      <c r="DM14" s="12">
         <f t="shared" si="24"/>
-        <v>8421.8147873572452</v>
-      </c>
-      <c r="BB14" s="12">
+        <v>4031.4469463613318</v>
+      </c>
+      <c r="DN14" s="12">
         <f t="shared" si="24"/>
-        <v>8337.5966394836723</v>
-      </c>
-      <c r="BC14" s="12">
+        <v>3991.1324768977183</v>
+      </c>
+      <c r="DO14" s="12">
         <f t="shared" si="24"/>
-        <v>8254.2206730888356</v>
-      </c>
-      <c r="BD14" s="12">
+        <v>3951.2211521287413</v>
+      </c>
+      <c r="DP14" s="12">
         <f t="shared" si="24"/>
-        <v>8171.6784663579474</v>
-      </c>
-      <c r="BE14" s="12">
+        <v>3911.7089406074538</v>
+      </c>
+      <c r="DQ14" s="12">
         <f t="shared" si="24"/>
-        <v>8089.9616816943681</v>
-      </c>
-      <c r="BF14" s="12">
+        <v>3872.5918512013791</v>
+      </c>
+      <c r="DR14" s="12">
         <f t="shared" si="24"/>
-        <v>8009.0620648774247</v>
-      </c>
-      <c r="BG14" s="12">
+        <v>3833.8659326893653</v>
+      </c>
+      <c r="DS14" s="12">
         <f t="shared" si="24"/>
-        <v>7928.9714442286504</v>
-      </c>
-      <c r="BH14" s="12">
+        <v>3795.5272733624715</v>
+      </c>
+      <c r="DT14" s="12">
         <f t="shared" si="24"/>
-        <v>7849.6817297863636</v>
-      </c>
-      <c r="BI14" s="12">
+        <v>3757.5720006288466</v>
+      </c>
+      <c r="DU14" s="12">
         <f t="shared" si="24"/>
-        <v>7771.1849124885002</v>
-      </c>
-      <c r="BJ14" s="12">
+        <v>3719.9962806225581</v>
+      </c>
+      <c r="DV14" s="12">
         <f t="shared" si="24"/>
-        <v>7693.4730633636154</v>
-      </c>
-      <c r="BK14" s="12">
+        <v>3682.7963178163322</v>
+      </c>
+      <c r="DW14" s="12">
         <f t="shared" si="24"/>
-        <v>7616.5383327299796</v>
-      </c>
-      <c r="BL14" s="12">
+        <v>3645.9683546381689</v>
+      </c>
+      <c r="DX14" s="12">
         <f t="shared" si="24"/>
-        <v>7540.3729494026802</v>
-      </c>
-      <c r="BM14" s="12">
+        <v>3609.5086710917872</v>
+      </c>
+      <c r="DY14" s="12">
         <f t="shared" si="24"/>
-        <v>7464.969219908653</v>
-      </c>
-      <c r="BN14" s="12">
+        <v>3573.4135843808695</v>
+      </c>
+      <c r="DZ14" s="12">
         <f t="shared" si="24"/>
-        <v>7390.3195277095665</v>
-      </c>
-      <c r="BO14" s="12">
+        <v>3537.6794485370606</v>
+      </c>
+      <c r="EA14" s="12">
         <f t="shared" si="24"/>
-        <v>7316.4163324324709</v>
-      </c>
-      <c r="BP14" s="12">
+        <v>3502.3026540516898</v>
+      </c>
+      <c r="EB14" s="12">
         <f t="shared" si="24"/>
-        <v>7243.2521691081465</v>
-      </c>
-      <c r="BQ14" s="12">
+        <v>3467.2796275111727</v>
+      </c>
+      <c r="EC14" s="12">
         <f t="shared" si="24"/>
-        <v>7170.8196474170654</v>
-      </c>
-      <c r="BR14" s="12">
+        <v>3432.6068312360608</v>
+      </c>
+      <c r="ED14" s="12">
         <f t="shared" si="24"/>
-        <v>7099.1114509428944</v>
-      </c>
-      <c r="BS14" s="12">
+        <v>3398.2807629237</v>
+      </c>
+      <c r="EE14" s="12">
         <f t="shared" si="24"/>
-        <v>7028.1203364334651</v>
-      </c>
-      <c r="BT14" s="12">
+        <v>3364.297955294463</v>
+      </c>
+      <c r="EF14" s="12">
         <f t="shared" si="24"/>
-        <v>6957.8391330691302</v>
-      </c>
-      <c r="BU14" s="12">
+        <v>3330.6549757415182</v>
+      </c>
+      <c r="EG14" s="12">
         <f t="shared" si="24"/>
-        <v>6888.2607417384388</v>
-      </c>
-      <c r="BV14" s="12">
+        <v>3297.348425984103</v>
+      </c>
+      <c r="EH14" s="12">
         <f t="shared" si="24"/>
-        <v>6819.3781343210539</v>
-      </c>
-      <c r="BW14" s="12">
+        <v>3264.374941724262</v>
+      </c>
+      <c r="EI14" s="12">
         <f t="shared" si="24"/>
-        <v>6751.1843529778434</v>
-      </c>
-      <c r="BX14" s="12">
+        <v>3231.7311923070192</v>
+      </c>
+      <c r="EJ14" s="12">
         <f t="shared" si="24"/>
-        <v>6683.6725094480653</v>
-      </c>
-      <c r="BY14" s="12">
+        <v>3199.4138803839492</v>
+      </c>
+      <c r="EK14" s="12">
         <f t="shared" si="24"/>
-        <v>6616.8357843535841</v>
-      </c>
-      <c r="BZ14" s="12">
+        <v>3167.4197415801095</v>
+      </c>
+      <c r="EL14" s="12">
         <f t="shared" si="24"/>
-        <v>6550.6674265100482</v>
-      </c>
-      <c r="CA14" s="12">
+        <v>3135.7455441643083</v>
+      </c>
+      <c r="EM14" s="12">
         <f t="shared" si="24"/>
-        <v>6485.1607522449476</v>
-      </c>
-      <c r="CB14" s="12">
+        <v>3104.3880887226651</v>
+      </c>
+      <c r="EN14" s="12">
         <f t="shared" si="24"/>
-        <v>6420.3091447224979</v>
-      </c>
-      <c r="CC14" s="12">
+        <v>3073.3442078354383</v>
+      </c>
+      <c r="EO14" s="12">
         <f t="shared" si="24"/>
-        <v>6356.1060532752726</v>
-      </c>
-      <c r="CD14" s="12">
+        <v>3042.6107657570838</v>
+      </c>
+      <c r="EP14" s="12">
         <f t="shared" si="24"/>
-        <v>6292.5449927425198</v>
-      </c>
-      <c r="CE14" s="12">
+        <v>3012.1846580995129</v>
+      </c>
+      <c r="EQ14" s="12">
         <f t="shared" si="24"/>
-        <v>6229.6195428150941</v>
-      </c>
-      <c r="CF14" s="12">
+        <v>2982.0628115185177</v>
+      </c>
+      <c r="ER14" s="12">
         <f t="shared" si="24"/>
-        <v>6167.3233473869432</v>
-      </c>
-      <c r="CG14" s="12">
+        <v>2952.2421834033325</v>
+      </c>
+      <c r="ES14" s="12">
         <f t="shared" si="24"/>
-        <v>6105.6501139130733</v>
-      </c>
-      <c r="CH14" s="12">
+        <v>2922.7197615692994</v>
+      </c>
+      <c r="ET14" s="12">
         <f t="shared" si="24"/>
-        <v>6044.5936127739424</v>
-      </c>
-      <c r="CI14" s="12">
+        <v>2893.4925639536063</v>
+      </c>
+      <c r="EU14" s="12">
         <f t="shared" si="24"/>
-        <v>5984.1476766462029</v>
-      </c>
-      <c r="CJ14" s="12">
+        <v>2864.5576383140701</v>
+      </c>
+      <c r="EV14" s="12">
         <f t="shared" si="24"/>
-        <v>5924.3061998797411</v>
-      </c>
-      <c r="CK14" s="12">
+        <v>2835.9120619309292</v>
+      </c>
+      <c r="EW14" s="12">
         <f t="shared" si="24"/>
-        <v>5865.0631378809439</v>
-      </c>
-      <c r="CL14" s="12">
+        <v>2807.5529413116201</v>
+      </c>
+      <c r="EX14" s="12">
         <f t="shared" si="24"/>
-        <v>5806.4125065021344</v>
-      </c>
-      <c r="CM14" s="12">
+        <v>2779.4774118985038</v>
+      </c>
+      <c r="EY14" s="12">
         <f t="shared" si="24"/>
-        <v>5748.3483814371129</v>
-      </c>
-      <c r="CN14" s="12">
+        <v>2751.6826377795187</v>
+      </c>
+      <c r="EZ14" s="12">
         <f t="shared" si="24"/>
-        <v>5690.8648976227414</v>
-      </c>
-      <c r="CO14" s="12">
+        <v>2724.1658114017237</v>
+      </c>
+      <c r="FA14" s="12">
         <f t="shared" si="24"/>
-        <v>5633.9562486465138</v>
-      </c>
-      <c r="CP14" s="12">
+        <v>2696.9241532877063</v>
+      </c>
+      <c r="FB14" s="12">
         <f t="shared" si="24"/>
-        <v>5577.6166861600486</v>
-      </c>
-      <c r="CQ14" s="12">
+        <v>2669.954911754829</v>
+      </c>
+      <c r="FC14" s="12">
         <f t="shared" si="24"/>
-        <v>5521.8405192984483</v>
-      </c>
-      <c r="CR14" s="12">
+        <v>2643.2553626372805</v>
+      </c>
+      <c r="FD14" s="12">
         <f t="shared" si="24"/>
-        <v>5466.6221141054639</v>
-      </c>
-      <c r="CS14" s="12">
+        <v>2616.8228090109078</v>
+      </c>
+      <c r="FE14" s="12">
         <f t="shared" si="24"/>
-        <v>5411.955892964409</v>
-      </c>
-      <c r="CT14" s="12">
+        <v>2590.6545809207987</v>
+      </c>
+      <c r="FF14" s="12">
         <f t="shared" si="24"/>
-        <v>5357.8363340347651</v>
-      </c>
-      <c r="CU14" s="12">
+        <v>2564.7480351115905</v>
+      </c>
+      <c r="FG14" s="12">
         <f t="shared" si="24"/>
-        <v>5304.2579706944171</v>
-      </c>
-      <c r="CV14" s="12">
+        <v>2539.1005547604746</v>
+      </c>
+      <c r="FH14" s="12">
         <f t="shared" si="24"/>
-        <v>5251.2153909874733</v>
-      </c>
-      <c r="CW14" s="12">
+        <v>2513.7095492128697</v>
+      </c>
+      <c r="FI14" s="12">
         <f t="shared" si="24"/>
-        <v>5198.7032370775987</v>
-      </c>
-      <c r="CX14" s="12">
+        <v>2488.5724537207411</v>
+      </c>
+      <c r="FJ14" s="12">
         <f t="shared" si="24"/>
-        <v>5146.7162047068223</v>
-      </c>
-      <c r="CY14" s="12">
+        <v>2463.6867291835338</v>
+      </c>
+      <c r="FK14" s="12">
         <f t="shared" si="24"/>
-        <v>5095.2490426597542</v>
-      </c>
-      <c r="CZ14" s="12">
+        <v>2439.0498618916986</v>
+      </c>
+      <c r="FL14" s="12">
         <f t="shared" si="24"/>
-        <v>5044.2965522331569</v>
-      </c>
-      <c r="DA14" s="12">
+        <v>2414.6593632727818</v>
+      </c>
+      <c r="FM14" s="12">
         <f t="shared" si="24"/>
-        <v>4993.8535867108258</v>
-      </c>
-      <c r="DB14" s="12">
+        <v>2390.5127696400541</v>
+      </c>
+      <c r="FN14" s="12">
         <f t="shared" si="24"/>
-        <v>4943.9150508437178</v>
-      </c>
-      <c r="DC14" s="12">
+        <v>2366.6076419436536</v>
+      </c>
+      <c r="FO14" s="12">
         <f t="shared" si="24"/>
-        <v>4894.475900335281</v>
-      </c>
-      <c r="DD14" s="12">
-        <f t="shared" ref="DD14:FO14" si="25">DC14*(1+$AS$18)</f>
-        <v>4845.5311413319278</v>
-      </c>
-      <c r="DE14" s="12">
+        <v>2342.9415655242169</v>
+      </c>
+      <c r="FP14" s="12">
+        <f t="shared" ref="FP14:HY14" si="25">FO14*(1+$AS$18)</f>
+        <v>2319.5121498689746</v>
+      </c>
+      <c r="FQ14" s="12">
         <f t="shared" si="25"/>
-        <v>4797.0758299186082</v>
-      </c>
-      <c r="DF14" s="12">
+        <v>2296.3170283702848</v>
+      </c>
+      <c r="FR14" s="12">
         <f t="shared" si="25"/>
-        <v>4749.1050716194222</v>
-      </c>
-      <c r="DG14" s="12">
+        <v>2273.353858086582</v>
+      </c>
+      <c r="FS14" s="12">
         <f t="shared" si="25"/>
-        <v>4701.6140209032283</v>
-      </c>
-      <c r="DH14" s="12">
+        <v>2250.620319505716</v>
+      </c>
+      <c r="FT14" s="12">
         <f t="shared" si="25"/>
-        <v>4654.5978806941957</v>
-      </c>
-      <c r="DI14" s="12">
+        <v>2228.114116310659</v>
+      </c>
+      <c r="FU14" s="12">
         <f t="shared" si="25"/>
-        <v>4608.0519018872537</v>
-      </c>
-      <c r="DJ14" s="12">
+        <v>2205.8329751475526</v>
+      </c>
+      <c r="FV14" s="12">
         <f t="shared" si="25"/>
-        <v>4561.9713828683807</v>
-      </c>
-      <c r="DK14" s="12">
+        <v>2183.7746453960772</v>
+      </c>
+      <c r="FW14" s="12">
         <f t="shared" si="25"/>
-        <v>4516.3516690396973</v>
-      </c>
-      <c r="DL14" s="12">
+        <v>2161.9368989421164</v>
+      </c>
+      <c r="FX14" s="12">
         <f t="shared" si="25"/>
-        <v>4471.1881523493003</v>
-      </c>
-      <c r="DM14" s="12">
+        <v>2140.3175299526952</v>
+      </c>
+      <c r="FY14" s="12">
         <f t="shared" si="25"/>
-        <v>4426.4762708258077</v>
-      </c>
-      <c r="DN14" s="12">
+        <v>2118.9143546531682</v>
+      </c>
+      <c r="FZ14" s="12">
         <f t="shared" si="25"/>
-        <v>4382.2115081175498</v>
-      </c>
-      <c r="DO14" s="12">
+        <v>2097.7252111066364</v>
+      </c>
+      <c r="GA14" s="12">
         <f t="shared" si="25"/>
-        <v>4338.3893930363738</v>
-      </c>
-      <c r="DP14" s="12">
+        <v>2076.7479589955701</v>
+      </c>
+      <c r="GB14" s="12">
         <f t="shared" si="25"/>
-        <v>4295.0054991060097</v>
-      </c>
-      <c r="DQ14" s="12">
+        <v>2055.9804794056145</v>
+      </c>
+      <c r="GC14" s="12">
         <f t="shared" si="25"/>
-        <v>4252.0554441149498</v>
-      </c>
-      <c r="DR14" s="12">
+        <v>2035.4206746115583</v>
+      </c>
+      <c r="GD14" s="12">
         <f t="shared" si="25"/>
-        <v>4209.5348896738005</v>
-      </c>
-      <c r="DS14" s="12">
+        <v>2015.0664678654427</v>
+      </c>
+      <c r="GE14" s="12">
         <f t="shared" si="25"/>
-        <v>4167.4395407770626</v>
-      </c>
-      <c r="DT14" s="12">
+        <v>1994.9158031867883</v>
+      </c>
+      <c r="GF14" s="12">
         <f t="shared" si="25"/>
-        <v>4125.7651453692915</v>
-      </c>
-      <c r="DU14" s="12">
+        <v>1974.9666451549203</v>
+      </c>
+      <c r="GG14" s="12">
         <f t="shared" si="25"/>
-        <v>4084.5074939155984</v>
-      </c>
-      <c r="DV14" s="12">
+        <v>1955.2169787033711</v>
+      </c>
+      <c r="GH14" s="12">
         <f t="shared" si="25"/>
-        <v>4043.6624189764425</v>
-      </c>
-      <c r="DW14" s="12">
+        <v>1935.6648089163373</v>
+      </c>
+      <c r="GI14" s="12">
         <f t="shared" si="25"/>
-        <v>4003.2257947866779</v>
-      </c>
-      <c r="DX14" s="12">
+        <v>1916.3081608271739</v>
+      </c>
+      <c r="GJ14" s="12">
         <f t="shared" si="25"/>
-        <v>3963.1935368388108</v>
-      </c>
-      <c r="DY14" s="12">
+        <v>1897.1450792189021</v>
+      </c>
+      <c r="GK14" s="12">
         <f t="shared" si="25"/>
-        <v>3923.5616014704228</v>
-      </c>
-      <c r="DZ14" s="12">
+        <v>1878.1736284267131</v>
+      </c>
+      <c r="GL14" s="12">
         <f t="shared" si="25"/>
-        <v>3884.3259854557186</v>
-      </c>
-      <c r="EA14" s="12">
+        <v>1859.3918921424458</v>
+      </c>
+      <c r="GM14" s="12">
         <f t="shared" si="25"/>
-        <v>3845.4827256011613</v>
-      </c>
-      <c r="EB14" s="12">
+        <v>1840.7979732210213</v>
+      </c>
+      <c r="GN14" s="12">
         <f t="shared" si="25"/>
-        <v>3807.0278983451494</v>
-      </c>
-      <c r="EC14" s="12">
+        <v>1822.3899934888111</v>
+      </c>
+      <c r="GO14" s="12">
         <f t="shared" si="25"/>
-        <v>3768.9576193616981</v>
-      </c>
-      <c r="ED14" s="12">
+        <v>1804.166093553923</v>
+      </c>
+      <c r="GP14" s="12">
         <f t="shared" si="25"/>
-        <v>3731.268043168081</v>
-      </c>
-      <c r="EE14" s="12">
+        <v>1786.1244326183837</v>
+      </c>
+      <c r="GQ14" s="12">
         <f t="shared" si="25"/>
-        <v>3693.9553627364003</v>
-      </c>
-      <c r="EF14" s="12">
+        <v>1768.2631882921999</v>
+      </c>
+      <c r="GR14" s="12">
         <f t="shared" si="25"/>
-        <v>3657.0158091090361</v>
-      </c>
-      <c r="EG14" s="12">
+        <v>1750.5805564092777</v>
+      </c>
+      <c r="GS14" s="12">
         <f t="shared" si="25"/>
-        <v>3620.4456510179457</v>
-      </c>
-      <c r="EH14" s="12">
+        <v>1733.074750845185</v>
+      </c>
+      <c r="GT14" s="12">
         <f t="shared" si="25"/>
-        <v>3584.2411945077661</v>
-      </c>
-      <c r="EI14" s="12">
+        <v>1715.7440033367332</v>
+      </c>
+      <c r="GU14" s="12">
         <f t="shared" si="25"/>
-        <v>3548.3987825626882</v>
-      </c>
-      <c r="EJ14" s="12">
+        <v>1698.5865633033659</v>
+      </c>
+      <c r="GV14" s="12">
         <f t="shared" si="25"/>
-        <v>3512.9147947370611</v>
-      </c>
-      <c r="EK14" s="12">
+        <v>1681.6006976703322</v>
+      </c>
+      <c r="GW14" s="12">
         <f t="shared" si="25"/>
-        <v>3477.7856467896904</v>
-      </c>
-      <c r="EL14" s="12">
+        <v>1664.7846906936288</v>
+      </c>
+      <c r="GX14" s="12">
         <f t="shared" si="25"/>
-        <v>3443.0077903217934</v>
-      </c>
-      <c r="EM14" s="12">
+        <v>1648.1368437866925</v>
+      </c>
+      <c r="GY14" s="12">
         <f t="shared" si="25"/>
-        <v>3408.5777124185756</v>
-      </c>
-      <c r="EN14" s="12">
+        <v>1631.6554753488256</v>
+      </c>
+      <c r="GZ14" s="12">
         <f t="shared" si="25"/>
-        <v>3374.4919352943898</v>
-      </c>
-      <c r="EO14" s="12">
+        <v>1615.3389205953374</v>
+      </c>
+      <c r="HA14" s="12">
         <f t="shared" si="25"/>
-        <v>3340.7470159414461</v>
-      </c>
-      <c r="EP14" s="12">
+        <v>1599.1855313893841</v>
+      </c>
+      <c r="HB14" s="12">
         <f t="shared" si="25"/>
-        <v>3307.3395457820316</v>
-      </c>
-      <c r="EQ14" s="12">
+        <v>1583.1936760754902</v>
+      </c>
+      <c r="HC14" s="12">
         <f t="shared" si="25"/>
-        <v>3274.2661503242111</v>
-      </c>
-      <c r="ER14" s="12">
+        <v>1567.3617393147354</v>
+      </c>
+      <c r="HD14" s="12">
         <f t="shared" si="25"/>
-        <v>3241.5234888209689</v>
-      </c>
-      <c r="ES14" s="12">
+        <v>1551.6881219215879</v>
+      </c>
+      <c r="HE14" s="12">
         <f t="shared" si="25"/>
-        <v>3209.108253932759</v>
-      </c>
-      <c r="ET14" s="12">
+        <v>1536.171240702372</v>
+      </c>
+      <c r="HF14" s="12">
         <f t="shared" si="25"/>
-        <v>3177.0171713934315</v>
-      </c>
-      <c r="EU14" s="12">
+        <v>1520.8095282953482</v>
+      </c>
+      <c r="HG14" s="12">
         <f t="shared" si="25"/>
-        <v>3145.2469996794971</v>
-      </c>
-      <c r="EV14" s="12">
+        <v>1505.6014330123946</v>
+      </c>
+      <c r="HH14" s="12">
         <f t="shared" si="25"/>
-        <v>3113.794529682702</v>
-      </c>
-      <c r="EW14" s="12">
+        <v>1490.5454186822706</v>
+      </c>
+      <c r="HI14" s="12">
         <f t="shared" si="25"/>
-        <v>3082.6565843858748</v>
-      </c>
-      <c r="EX14" s="12">
+        <v>1475.6399644954479</v>
+      </c>
+      <c r="HJ14" s="12">
         <f t="shared" si="25"/>
-        <v>3051.8300185420162</v>
-      </c>
-      <c r="EY14" s="12">
+        <v>1460.8835648504935</v>
+      </c>
+      <c r="HK14" s="12">
         <f t="shared" si="25"/>
-        <v>3021.311718356596</v>
-      </c>
-      <c r="EZ14" s="12">
+        <v>1446.2747292019885</v>
+      </c>
+      <c r="HL14" s="12">
         <f t="shared" si="25"/>
-        <v>2991.0986011730301</v>
-      </c>
-      <c r="FA14" s="12">
+        <v>1431.8119819099686</v>
+      </c>
+      <c r="HM14" s="12">
         <f t="shared" si="25"/>
-        <v>2961.1876151612996</v>
-      </c>
-      <c r="FB14" s="12">
+        <v>1417.493862090869</v>
+      </c>
+      <c r="HN14" s="12">
         <f t="shared" si="25"/>
-        <v>2931.5757390096865</v>
-      </c>
-      <c r="FC14" s="12">
+        <v>1403.3189234699603</v>
+      </c>
+      <c r="HO14" s="12">
         <f t="shared" si="25"/>
-        <v>2902.2599816195898</v>
-      </c>
-      <c r="FD14" s="12">
+        <v>1389.2857342352606</v>
+      </c>
+      <c r="HP14" s="12">
         <f t="shared" si="25"/>
-        <v>2873.2373818033939</v>
-      </c>
-      <c r="FE14" s="12">
+        <v>1375.3928768929079</v>
+      </c>
+      <c r="HQ14" s="12">
         <f t="shared" si="25"/>
-        <v>2844.50500798536</v>
-      </c>
-      <c r="FF14" s="12">
+        <v>1361.6389481239787</v>
+      </c>
+      <c r="HR14" s="12">
         <f t="shared" si="25"/>
-        <v>2816.0599579055065</v>
-      </c>
-      <c r="FG14" s="12">
+        <v>1348.0225586427389</v>
+      </c>
+      <c r="HS14" s="12">
         <f t="shared" si="25"/>
-        <v>2787.8993583264514</v>
-      </c>
-      <c r="FH14" s="12">
+        <v>1334.5423330563115</v>
+      </c>
+      <c r="HT14" s="12">
         <f t="shared" si="25"/>
-        <v>2760.0203647431867</v>
-      </c>
-      <c r="FI14" s="12">
+        <v>1321.1969097257484</v>
+      </c>
+      <c r="HU14" s="12">
         <f t="shared" si="25"/>
-        <v>2732.4201610957548</v>
-      </c>
-      <c r="FJ14" s="12">
+        <v>1307.9849406284909</v>
+      </c>
+      <c r="HV14" s="12">
         <f t="shared" si="25"/>
-        <v>2705.0959594847973</v>
-      </c>
-      <c r="FK14" s="12">
+        <v>1294.905091222206</v>
+      </c>
+      <c r="HW14" s="12">
         <f t="shared" si="25"/>
-        <v>2678.0449998899494</v>
-      </c>
-      <c r="FL14" s="12">
+        <v>1281.956040309984</v>
+      </c>
+      <c r="HX14" s="12">
         <f t="shared" si="25"/>
-        <v>2651.2645498910497</v>
-      </c>
-      <c r="FM14" s="12">
+        <v>1269.1364799068842</v>
+      </c>
+      <c r="HY14" s="12">
         <f t="shared" si="25"/>
-        <v>2624.7519043921393</v>
-      </c>
-      <c r="FN14" s="12">
-        <f t="shared" si="25"/>
-        <v>2598.504385348218</v>
-      </c>
-      <c r="FO14" s="12">
-        <f t="shared" si="25"/>
-        <v>2572.5193414947357</v>
-      </c>
-      <c r="FP14" s="12">
-        <f t="shared" ref="FP14:HY14" si="26">FO14*(1+$AS$18)</f>
-        <v>2546.7941480797886</v>
-      </c>
-      <c r="FQ14" s="12">
-        <f t="shared" si="26"/>
-        <v>2521.3262065989907</v>
-      </c>
-      <c r="FR14" s="12">
-        <f t="shared" si="26"/>
-        <v>2496.1129445330007</v>
-      </c>
-      <c r="FS14" s="12">
-        <f t="shared" si="26"/>
-        <v>2471.1518150876705</v>
-      </c>
-      <c r="FT14" s="12">
-        <f t="shared" si="26"/>
-        <v>2446.4402969367939</v>
-      </c>
-      <c r="FU14" s="12">
-        <f t="shared" si="26"/>
-        <v>2421.9758939674257</v>
-      </c>
-      <c r="FV14" s="12">
-        <f t="shared" si="26"/>
-        <v>2397.7561350277515</v>
-      </c>
-      <c r="FW14" s="12">
-        <f t="shared" si="26"/>
-        <v>2373.778573677474</v>
-      </c>
-      <c r="FX14" s="12">
-        <f t="shared" si="26"/>
-        <v>2350.0407879406994</v>
-      </c>
-      <c r="FY14" s="12">
-        <f t="shared" si="26"/>
-        <v>2326.5403800612926</v>
-      </c>
-      <c r="FZ14" s="12">
-        <f t="shared" si="26"/>
-        <v>2303.2749762606795</v>
-      </c>
-      <c r="GA14" s="12">
-        <f t="shared" si="26"/>
-        <v>2280.2422264980728</v>
-      </c>
-      <c r="GB14" s="12">
-        <f t="shared" si="26"/>
-        <v>2257.4398042330922</v>
-      </c>
-      <c r="GC14" s="12">
-        <f t="shared" si="26"/>
-        <v>2234.8654061907614</v>
-      </c>
-      <c r="GD14" s="12">
-        <f t="shared" si="26"/>
-        <v>2212.5167521288536</v>
-      </c>
-      <c r="GE14" s="12">
-        <f t="shared" si="26"/>
-        <v>2190.3915846075652</v>
-      </c>
-      <c r="GF14" s="12">
-        <f t="shared" si="26"/>
-        <v>2168.4876687614897</v>
-      </c>
-      <c r="GG14" s="12">
-        <f t="shared" si="26"/>
-        <v>2146.8027920738746</v>
-      </c>
-      <c r="GH14" s="12">
-        <f t="shared" si="26"/>
-        <v>2125.3347641531359</v>
-      </c>
-      <c r="GI14" s="12">
-        <f t="shared" si="26"/>
-        <v>2104.0814165116044</v>
-      </c>
-      <c r="GJ14" s="12">
-        <f t="shared" si="26"/>
-        <v>2083.0406023464884</v>
-      </c>
-      <c r="GK14" s="12">
-        <f t="shared" si="26"/>
-        <v>2062.2101963230234</v>
-      </c>
-      <c r="GL14" s="12">
-        <f t="shared" si="26"/>
-        <v>2041.5880943597931</v>
-      </c>
-      <c r="GM14" s="12">
-        <f t="shared" si="26"/>
-        <v>2021.1722134161951</v>
-      </c>
-      <c r="GN14" s="12">
-        <f t="shared" si="26"/>
-        <v>2000.960491282033</v>
-      </c>
-      <c r="GO14" s="12">
-        <f t="shared" si="26"/>
-        <v>1980.9508863692126</v>
-      </c>
-      <c r="GP14" s="12">
-        <f t="shared" si="26"/>
-        <v>1961.1413775055205</v>
-      </c>
-      <c r="GQ14" s="12">
-        <f t="shared" si="26"/>
-        <v>1941.5299637304652</v>
-      </c>
-      <c r="GR14" s="12">
-        <f t="shared" si="26"/>
-        <v>1922.1146640931604</v>
-      </c>
-      <c r="GS14" s="12">
-        <f t="shared" si="26"/>
-        <v>1902.8935174522287</v>
-      </c>
-      <c r="GT14" s="12">
-        <f t="shared" si="26"/>
-        <v>1883.8645822777064</v>
-      </c>
-      <c r="GU14" s="12">
-        <f t="shared" si="26"/>
-        <v>1865.0259364549293</v>
-      </c>
-      <c r="GV14" s="12">
-        <f t="shared" si="26"/>
-        <v>1846.3756770903799</v>
-      </c>
-      <c r="GW14" s="12">
-        <f t="shared" si="26"/>
-        <v>1827.9119203194762</v>
-      </c>
-      <c r="GX14" s="12">
-        <f t="shared" si="26"/>
-        <v>1809.6328011162814</v>
-      </c>
-      <c r="GY14" s="12">
-        <f t="shared" si="26"/>
-        <v>1791.5364731051186</v>
-      </c>
-      <c r="GZ14" s="12">
-        <f t="shared" si="26"/>
-        <v>1773.6211083740675</v>
-      </c>
-      <c r="HA14" s="12">
-        <f t="shared" si="26"/>
-        <v>1755.8848972903268</v>
-      </c>
-      <c r="HB14" s="12">
-        <f t="shared" si="26"/>
-        <v>1738.3260483174236</v>
-      </c>
-      <c r="HC14" s="12">
-        <f t="shared" si="26"/>
-        <v>1720.9427878342492</v>
-      </c>
-      <c r="HD14" s="12">
-        <f t="shared" si="26"/>
-        <v>1703.7333599559067</v>
-      </c>
-      <c r="HE14" s="12">
-        <f t="shared" si="26"/>
-        <v>1686.6960263563476</v>
-      </c>
-      <c r="HF14" s="12">
-        <f t="shared" si="26"/>
-        <v>1669.8290660927842</v>
-      </c>
-      <c r="HG14" s="12">
-        <f t="shared" si="26"/>
-        <v>1653.1307754318564</v>
-      </c>
-      <c r="HH14" s="12">
-        <f t="shared" si="26"/>
-        <v>1636.5994676775379</v>
-      </c>
-      <c r="HI14" s="12">
-        <f t="shared" si="26"/>
-        <v>1620.2334730007624</v>
-      </c>
-      <c r="HJ14" s="12">
-        <f t="shared" si="26"/>
-        <v>1604.0311382707548</v>
-      </c>
-      <c r="HK14" s="12">
-        <f t="shared" si="26"/>
-        <v>1587.9908268880472</v>
-      </c>
-      <c r="HL14" s="12">
-        <f t="shared" si="26"/>
-        <v>1572.1109186191668</v>
-      </c>
-      <c r="HM14" s="12">
-        <f t="shared" si="26"/>
-        <v>1556.3898094329752</v>
-      </c>
-      <c r="HN14" s="12">
-        <f t="shared" si="26"/>
-        <v>1540.8259113386455</v>
-      </c>
-      <c r="HO14" s="12">
-        <f t="shared" si="26"/>
-        <v>1525.417652225259</v>
-      </c>
-      <c r="HP14" s="12">
-        <f t="shared" si="26"/>
-        <v>1510.1634757030063</v>
-      </c>
-      <c r="HQ14" s="12">
-        <f t="shared" si="26"/>
-        <v>1495.0618409459762</v>
-      </c>
-      <c r="HR14" s="12">
-        <f t="shared" si="26"/>
-        <v>1480.1112225365164</v>
-      </c>
-      <c r="HS14" s="12">
-        <f t="shared" si="26"/>
-        <v>1465.3101103111512</v>
-      </c>
-      <c r="HT14" s="12">
-        <f t="shared" si="26"/>
-        <v>1450.6570092080397</v>
-      </c>
-      <c r="HU14" s="12">
-        <f t="shared" si="26"/>
-        <v>1436.1504391159592</v>
-      </c>
-      <c r="HV14" s="12">
-        <f t="shared" si="26"/>
-        <v>1421.7889347247997</v>
-      </c>
-      <c r="HW14" s="12">
-        <f t="shared" si="26"/>
-        <v>1407.5710453775516</v>
-      </c>
-      <c r="HX14" s="12">
-        <f t="shared" si="26"/>
-        <v>1393.495334923776</v>
-      </c>
-      <c r="HY14" s="12">
-        <f t="shared" si="26"/>
-        <v>1379.5603815745383</v>
+        <v>1256.4451151078154</v>
       </c>
     </row>
     <row r="15" spans="1:233" x14ac:dyDescent="0.25">
@@ -4420,10 +4405,9 @@
       <c r="R15" s="5">
         <v>79</v>
       </c>
-      <c r="S15" s="67">
+      <c r="S15" s="26">
         <v>79</v>
       </c>
-      <c r="T15" s="68"/>
       <c r="V15" s="26">
         <v>119</v>
       </c>
@@ -4493,39 +4477,39 @@
         <v>65</v>
       </c>
       <c r="D16" s="26">
-        <f t="shared" ref="D16:L16" si="27">D14/D15</f>
+        <f t="shared" ref="D16:L16" si="26">D14/D15</f>
         <v>10.688172043010752</v>
       </c>
       <c r="E16" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>10.043010752688172</v>
       </c>
       <c r="F16" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>7.881720430107527</v>
       </c>
       <c r="G16" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>25.43010752688172</v>
       </c>
       <c r="H16" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>10.447058823529412</v>
       </c>
       <c r="I16" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>9.1411764705882348</v>
       </c>
       <c r="J16" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>6.3882352941176475</v>
       </c>
       <c r="K16" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>29.752941176470589</v>
       </c>
       <c r="L16" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>11.913580246913581</v>
       </c>
       <c r="M16" s="26">
@@ -4533,60 +4517,59 @@
         <v>9.8395061728395063</v>
       </c>
       <c r="N16" s="26">
-        <f t="shared" ref="N16:S16" si="28">N14/N15</f>
+        <f t="shared" ref="N16:R16" si="27">N14/N15</f>
         <v>7.3456790123456788</v>
       </c>
       <c r="O16" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>35.419753086419753</v>
       </c>
       <c r="P16" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>13.936708860759493</v>
       </c>
       <c r="Q16" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>10.151898734177216</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.1772151898734178</v>
       </c>
-      <c r="S16" s="67">
-        <f t="shared" ref="S16" si="29">S14/S15</f>
+      <c r="S16" s="26">
+        <f t="shared" ref="S16" si="28">S14/S15</f>
         <v>39.240506329113927</v>
       </c>
-      <c r="T16" s="68"/>
       <c r="V16" s="27">
-        <f t="shared" ref="V16:AC16" si="30">V14/V15</f>
+        <f t="shared" ref="V16:AC16" si="29">V14/V15</f>
         <v>30.873949579831933</v>
       </c>
       <c r="W16" s="27">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>52.850877192982459</v>
       </c>
       <c r="X16" s="27">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>51.963963963963963</v>
       </c>
       <c r="Y16" s="27">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>47.149532710280376</v>
       </c>
       <c r="Z16" s="27">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>30.340206185567009</v>
       </c>
       <c r="AA16" s="27">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>19.969072164948454</v>
       </c>
       <c r="AB16" s="27">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>42.020202020202021</v>
       </c>
       <c r="AC16" s="27">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>54.075268817204304</v>
       </c>
       <c r="AD16" s="27">
@@ -4598,48 +4581,48 @@
         <v>64.518518518518519</v>
       </c>
       <c r="AF16" s="21">
-        <f t="shared" ref="AF16:AP16" si="31">AF14/AF15</f>
-        <v>66.657050632911407</v>
+        <f t="shared" ref="AF16:AP16" si="30">AF14/AF15</f>
+        <v>65.575945822784803</v>
       </c>
       <c r="AG16" s="27">
-        <f t="shared" si="31"/>
-        <v>68.610524810126591</v>
+        <f t="shared" si="30"/>
+        <v>61.07927787341773</v>
       </c>
       <c r="AH16" s="27">
-        <f t="shared" si="31"/>
-        <v>72.482003122784818</v>
+        <f t="shared" si="30"/>
+        <v>65.55237889139238</v>
       </c>
       <c r="AI16" s="27">
-        <f t="shared" si="31"/>
-        <v>77.210037165303817</v>
+        <f t="shared" si="30"/>
+        <v>69.898919987506304</v>
       </c>
       <c r="AJ16" s="27">
-        <f t="shared" si="31"/>
-        <v>82.217213759240948</v>
+        <f t="shared" si="30"/>
+        <v>74.503953459650532</v>
       </c>
       <c r="AK16" s="27">
-        <f t="shared" si="31"/>
-        <v>87.519274646873313</v>
+        <f t="shared" si="30"/>
+        <v>79.38211764256971</v>
       </c>
       <c r="AL16" s="27">
-        <f t="shared" si="31"/>
-        <v>93.13282619078349</v>
+        <f t="shared" si="30"/>
+        <v>84.548857130493019</v>
       </c>
       <c r="AM16" s="27">
-        <f t="shared" si="31"/>
-        <v>99.075386038378895</v>
+        <f t="shared" si="30"/>
+        <v>90.020466380042464</v>
       </c>
       <c r="AN16" s="27">
-        <f t="shared" si="31"/>
-        <v>105.36543227303527</v>
+        <f t="shared" si="30"/>
+        <v>95.814135640224251</v>
       </c>
       <c r="AO16" s="27">
-        <f t="shared" si="31"/>
-        <v>112.02245518307565</v>
+        <f t="shared" si="30"/>
+        <v>101.94799933244609</v>
       </c>
       <c r="AP16" s="27">
-        <f t="shared" si="31"/>
-        <v>119.06701178666708</v>
+        <f t="shared" si="30"/>
+        <v>108.44118700995014</v>
       </c>
     </row>
     <row r="17" spans="3:45" x14ac:dyDescent="0.25">
@@ -4659,7 +4642,6 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="15"/>
       <c r="S17" s="14"/>
-      <c r="T17" s="68"/>
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
@@ -4697,39 +4679,39 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25">
-        <f t="shared" ref="H18:P18" si="32">(H4-D4)/D4</f>
+        <f t="shared" ref="H18:P18" si="31">(H4-D4)/D4</f>
         <v>2.8300228511161891E-2</v>
       </c>
       <c r="I18" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>4.2263483642793989E-2</v>
       </c>
       <c r="J18" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>5.8711761352840584E-2</v>
       </c>
       <c r="K18" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>9.7808441558441553E-2</v>
       </c>
       <c r="L18" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.1682051282051282</v>
       </c>
       <c r="M18" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.1487953851374279</v>
       </c>
       <c r="N18" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>9.5297918162239773E-2</v>
       </c>
       <c r="O18" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.10656192236598891</v>
       </c>
       <c r="P18" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>7.5065847234416158E-2</v>
       </c>
       <c r="Q18" s="25">
@@ -4737,44 +4719,44 @@
         <v>4.4897356372766206E-2</v>
       </c>
       <c r="R18" s="29">
-        <f t="shared" ref="R18:S18" si="33">(R4-N4)/N4</f>
+        <f t="shared" ref="R18:S18" si="32">(R4-N4)/N4</f>
         <v>2.7199737833852204E-2</v>
       </c>
       <c r="S18" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>-6.0970516996575628E-3</v>
       </c>
       <c r="V18" s="14"/>
       <c r="W18" s="25">
-        <f t="shared" ref="W18:AD18" si="34">(W4-V4)/V4</f>
+        <f t="shared" ref="W18:AD18" si="33">(W4-V4)/V4</f>
         <v>0.21174643006512517</v>
       </c>
       <c r="X18" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.12326808342783886</v>
       </c>
       <c r="Y18" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>1.0974057328475484E-3</v>
       </c>
       <c r="Z18" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>-4.112952731737262E-2</v>
       </c>
       <c r="AA18" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>-0.13073897933052864</v>
       </c>
       <c r="AB18" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.23068020411384083</v>
       </c>
       <c r="AC18" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.13118748397024879</v>
       </c>
       <c r="AD18" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>6.3220345387900084E-2</v>
       </c>
       <c r="AE18" s="25">
@@ -4782,48 +4764,48 @@
         <v>0.12595962468012512</v>
       </c>
       <c r="AF18" s="29">
-        <f t="shared" ref="AF18:AP18" si="35">(AF4-AE4)/AE4</f>
+        <f t="shared" ref="AF18:AP18" si="34">(AF4-AE4)/AE4</f>
         <v>2.8756313131313133E-2</v>
       </c>
       <c r="AG18" s="25">
-        <f t="shared" si="35"/>
-        <v>5.0000000000000086E-2</v>
+        <f t="shared" si="34"/>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="AH18" s="25">
-        <f t="shared" si="35"/>
-        <v>5.0000000000000107E-2</v>
+        <f t="shared" si="34"/>
+        <v>3.4999999999999892E-2</v>
       </c>
       <c r="AI18" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>4.9999999999999968E-2</v>
       </c>
       <c r="AJ18" s="25">
-        <f t="shared" si="35"/>
-        <v>5.0000000000000135E-2</v>
+        <f t="shared" si="34"/>
+        <v>5.0000000000000121E-2</v>
       </c>
       <c r="AK18" s="25">
-        <f t="shared" si="35"/>
-        <v>4.9999999999999954E-2</v>
+        <f t="shared" si="34"/>
+        <v>5.0000000000000058E-2</v>
       </c>
       <c r="AL18" s="25">
-        <f t="shared" si="35"/>
-        <v>4.9999999999999975E-2</v>
+        <f t="shared" si="34"/>
+        <v>5.00000000000001E-2</v>
       </c>
       <c r="AM18" s="25">
-        <f t="shared" si="35"/>
-        <v>5.0000000000000024E-2</v>
+        <f t="shared" si="34"/>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="AN18" s="25">
-        <f t="shared" si="35"/>
-        <v>5.0000000000000024E-2</v>
+        <f t="shared" si="34"/>
+        <v>5.0000000000000072E-2</v>
       </c>
       <c r="AO18" s="25">
-        <f t="shared" si="35"/>
-        <v>4.9999999999999968E-2</v>
+        <f t="shared" si="34"/>
+        <v>5.000000000000001E-2</v>
       </c>
       <c r="AP18" s="25">
-        <f t="shared" si="35"/>
-        <v>5.0000000000000093E-2</v>
+        <f t="shared" si="34"/>
+        <v>0.05</v>
       </c>
       <c r="AR18" s="2" t="s">
         <v>125</v>
@@ -4928,7 +4910,7 @@
       </c>
       <c r="AS19" s="32">
         <f>NPV(AS17,AG14:HY14)</f>
-        <v>94660.525794073037</v>
+        <v>85979.984253271963</v>
       </c>
     </row>
     <row r="20" spans="3:45" x14ac:dyDescent="0.25">
@@ -5038,159 +5020,159 @@
         <v>45</v>
       </c>
       <c r="D21" s="19">
-        <f t="shared" ref="D21:S21" si="36">D6/D4</f>
+        <f t="shared" ref="D21:S21" si="35">D6/D4</f>
         <v>0.7600632800140622</v>
       </c>
       <c r="E21" s="19">
+        <f t="shared" si="35"/>
+        <v>0.76357206012378431</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="35"/>
+        <v>0.76686300589017675</v>
+      </c>
+      <c r="G21" s="19">
+        <f t="shared" si="35"/>
+        <v>0.76207386363636365</v>
+      </c>
+      <c r="H21" s="19">
+        <f t="shared" si="35"/>
+        <v>0.77521367521367524</v>
+      </c>
+      <c r="I21" s="19">
+        <f t="shared" si="35"/>
+        <v>0.78130302002035967</v>
+      </c>
+      <c r="J21" s="19">
+        <f t="shared" si="35"/>
+        <v>0.79038047379755927</v>
+      </c>
+      <c r="K21" s="19">
+        <f t="shared" si="35"/>
+        <v>0.79288354898336411</v>
+      </c>
+      <c r="L21" s="19">
+        <f t="shared" si="35"/>
+        <v>0.79367866549604915</v>
+      </c>
+      <c r="M21" s="19">
+        <f t="shared" si="35"/>
+        <v>0.80180180180180183</v>
+      </c>
+      <c r="N21" s="19">
+        <f t="shared" si="35"/>
+        <v>0.80058987383254132</v>
+      </c>
+      <c r="O21" s="19">
+        <f t="shared" si="35"/>
+        <v>0.79771151758122438</v>
+      </c>
+      <c r="P21" s="19">
+        <f t="shared" si="35"/>
+        <v>0.80454607322716754</v>
+      </c>
+      <c r="Q21" s="19">
+        <f t="shared" si="35"/>
+        <v>0.79250883392226146</v>
+      </c>
+      <c r="R21" s="20">
+        <f t="shared" si="35"/>
+        <v>0.79263040357313763</v>
+      </c>
+      <c r="S21" s="19">
+        <f t="shared" si="35"/>
+        <v>0.77310924369747902</v>
+      </c>
+      <c r="V21" s="19">
+        <f t="shared" ref="V21:AP21" si="36">V6/V4</f>
+        <v>0.72850570592101327</v>
+      </c>
+      <c r="W21" s="19">
         <f t="shared" si="36"/>
-        <v>0.76357206012378431</v>
-      </c>
-      <c r="F21" s="19">
+        <v>0.75060401360879636</v>
+      </c>
+      <c r="X21" s="19">
         <f t="shared" si="36"/>
-        <v>0.76686300589017675</v>
-      </c>
-      <c r="G21" s="19">
+        <v>0.74474342653966019</v>
+      </c>
+      <c r="Y21" s="19">
         <f t="shared" si="36"/>
-        <v>0.76207386363636365</v>
-      </c>
-      <c r="H21" s="19">
+        <v>0.74287468210120144</v>
+      </c>
+      <c r="Z21" s="19">
         <f t="shared" si="36"/>
-        <v>0.77521367521367524</v>
-      </c>
-      <c r="I21" s="19">
+        <v>0.72718126943479056</v>
+      </c>
+      <c r="AA21" s="19">
         <f t="shared" si="36"/>
-        <v>0.78130302002035967</v>
-      </c>
-      <c r="J21" s="19">
+        <v>0.75622073754537322</v>
+      </c>
+      <c r="AB21" s="19">
         <f t="shared" si="36"/>
-        <v>0.79038047379755927</v>
-      </c>
-      <c r="K21" s="19">
+        <v>0.76104984183978797</v>
+      </c>
+      <c r="AC21" s="19">
         <f t="shared" si="36"/>
-        <v>0.79288354898336411</v>
-      </c>
-      <c r="L21" s="19">
+        <v>0.7629520462532593</v>
+      </c>
+      <c r="AD21" s="19">
         <f t="shared" si="36"/>
-        <v>0.79367866549604915</v>
-      </c>
-      <c r="M21" s="19">
+        <v>0.78632357122547625</v>
+      </c>
+      <c r="AE21" s="19">
         <f t="shared" si="36"/>
-        <v>0.80180180180180183</v>
-      </c>
-      <c r="N21" s="19">
+        <v>0.79826388888888888</v>
+      </c>
+      <c r="AF21" s="20">
         <f t="shared" si="36"/>
-        <v>0.80058987383254132</v>
-      </c>
-      <c r="O21" s="19">
+        <v>0.78699999999999992</v>
+      </c>
+      <c r="AG21" s="19">
         <f t="shared" si="36"/>
-        <v>0.79771151758122438</v>
-      </c>
-      <c r="P21" s="19">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="AH21" s="19">
         <f t="shared" si="36"/>
-        <v>0.80454607322716754</v>
-      </c>
-      <c r="Q21" s="19">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="AI21" s="19">
         <f t="shared" si="36"/>
-        <v>0.79250883392226146</v>
-      </c>
-      <c r="R21" s="20">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="AJ21" s="19">
         <f t="shared" si="36"/>
-        <v>0.79263040357313763</v>
-      </c>
-      <c r="S21" s="19">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="AK21" s="19">
         <f t="shared" si="36"/>
-        <v>0.77310924369747902</v>
-      </c>
-      <c r="V21" s="19">
-        <f t="shared" ref="V21:AP21" si="37">V6/V4</f>
-        <v>0.72850570592101327</v>
-      </c>
-      <c r="W21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.75060401360879636</v>
-      </c>
-      <c r="X21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.74474342653966019</v>
-      </c>
-      <c r="Y21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.74287468210120144</v>
-      </c>
-      <c r="Z21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.72718126943479056</v>
-      </c>
-      <c r="AA21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.75622073754537322</v>
-      </c>
-      <c r="AB21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.76104984183978797</v>
-      </c>
-      <c r="AC21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.7629520462532593</v>
-      </c>
-      <c r="AD21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.78632357122547625</v>
-      </c>
-      <c r="AE21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.79826388888888888</v>
-      </c>
-      <c r="AF21" s="20">
-        <f t="shared" si="37"/>
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="AG21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.79</v>
-      </c>
-      <c r="AH21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.79499999999999993</v>
-      </c>
-      <c r="AI21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="AJ21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.79499999999999993</v>
-      </c>
-      <c r="AK21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.79500000000000004</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="AL21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.79500000000000004</v>
+        <f t="shared" si="36"/>
+        <v>0.78500000000000003</v>
       </c>
       <c r="AM21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.79500000000000004</v>
+        <f t="shared" si="36"/>
+        <v>0.78499999999999992</v>
       </c>
       <c r="AN21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.79500000000000004</v>
+        <f t="shared" si="36"/>
+        <v>0.78500000000000003</v>
       </c>
       <c r="AO21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.79500000000000004</v>
+        <f t="shared" si="36"/>
+        <v>0.78499999999999992</v>
       </c>
       <c r="AP21" s="19">
-        <f t="shared" si="37"/>
-        <v>0.79500000000000004</v>
+        <f t="shared" si="36"/>
+        <v>0.78500000000000003</v>
       </c>
       <c r="AR21" s="2" t="s">
         <v>127</v>
       </c>
       <c r="AS21" s="33">
         <f>AS19/AS20</f>
-        <v>1198.2345037224436</v>
+        <v>1088.3542310540754</v>
       </c>
     </row>
     <row r="22" spans="3:45" x14ac:dyDescent="0.25">
@@ -5198,159 +5180,159 @@
         <v>39</v>
       </c>
       <c r="D22" s="19">
-        <f t="shared" ref="D22:S22" si="38">D9/D4</f>
+        <f t="shared" ref="D22:S22" si="37">D9/D4</f>
         <v>0.23026894005976445</v>
       </c>
       <c r="E22" s="19">
+        <f t="shared" si="37"/>
+        <v>0.22086648983200707</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="37"/>
+        <v>0.18563556906707201</v>
+      </c>
+      <c r="G22" s="19">
+        <f t="shared" si="37"/>
+        <v>0.32518262987012986</v>
+      </c>
+      <c r="H22" s="19">
+        <f t="shared" si="37"/>
+        <v>0.21452991452991452</v>
+      </c>
+      <c r="I22" s="19">
+        <f t="shared" si="37"/>
+        <v>0.2015609093993892</v>
+      </c>
+      <c r="J22" s="19">
+        <f t="shared" si="37"/>
+        <v>0.16511127063890882</v>
+      </c>
+      <c r="K22" s="19">
+        <f t="shared" si="37"/>
+        <v>0.33955637707948244</v>
+      </c>
+      <c r="L22" s="19">
+        <f t="shared" si="37"/>
+        <v>0.22051507170032192</v>
+      </c>
+      <c r="M22" s="19">
+        <f t="shared" si="37"/>
+        <v>0.19745975483680403</v>
+      </c>
+      <c r="N22" s="19">
+        <f t="shared" si="37"/>
+        <v>0.16074061936752418</v>
+      </c>
+      <c r="O22" s="19">
+        <f t="shared" si="37"/>
+        <v>0.34652969180656479</v>
+      </c>
+      <c r="P22" s="19">
+        <f t="shared" si="37"/>
+        <v>0.22335647202939976</v>
+      </c>
+      <c r="Q22" s="19">
+        <f t="shared" si="37"/>
+        <v>0.18190812720848057</v>
+      </c>
+      <c r="R22" s="20">
+        <f t="shared" si="37"/>
+        <v>0.14021375019939383</v>
+      </c>
+      <c r="S22" s="19">
+        <f t="shared" si="37"/>
+        <v>0.33613445378151263</v>
+      </c>
+      <c r="V22" s="19">
+        <f t="shared" ref="V22:AP22" si="38">V9/V4</f>
+        <v>0.34737408137659076</v>
+      </c>
+      <c r="W22" s="19">
         <f t="shared" si="38"/>
-        <v>0.22086648983200707</v>
-      </c>
-      <c r="F22" s="19">
+        <v>0.36507075587988758</v>
+      </c>
+      <c r="X22" s="19">
         <f t="shared" si="38"/>
-        <v>0.18563556906707201</v>
-      </c>
-      <c r="G22" s="19">
+        <v>0.34168824897941269</v>
+      </c>
+      <c r="Y22" s="19">
         <f t="shared" si="38"/>
-        <v>0.32518262987012986</v>
-      </c>
-      <c r="H22" s="19">
+        <v>0.28198719635183722</v>
+      </c>
+      <c r="Z22" s="19">
         <f t="shared" si="38"/>
-        <v>0.21452991452991452</v>
-      </c>
-      <c r="I22" s="19">
+        <v>0.17500457289189683</v>
+      </c>
+      <c r="AA22" s="19">
         <f t="shared" si="38"/>
-        <v>0.2015609093993892</v>
-      </c>
-      <c r="J22" s="19">
+        <v>0.14119627544847177</v>
+      </c>
+      <c r="AB22" s="19">
         <f t="shared" si="38"/>
-        <v>0.16511127063890882</v>
-      </c>
-      <c r="K22" s="19">
+        <v>0.24959391296913738</v>
+      </c>
+      <c r="AC22" s="19">
         <f t="shared" si="38"/>
-        <v>0.33955637707948244</v>
-      </c>
-      <c r="L22" s="19">
+        <v>0.25480860068775268</v>
+      </c>
+      <c r="AD22" s="19">
         <f t="shared" si="38"/>
-        <v>0.22051507170032192</v>
-      </c>
-      <c r="M22" s="19">
+        <v>0.25014216661927779</v>
+      </c>
+      <c r="AE22" s="19">
         <f t="shared" si="38"/>
-        <v>0.19745975483680403</v>
-      </c>
-      <c r="N22" s="19">
+        <v>0.25170454545454546</v>
+      </c>
+      <c r="AF22" s="20">
         <f t="shared" si="38"/>
-        <v>0.16074061936752418</v>
-      </c>
-      <c r="O22" s="19">
+        <v>0.23750259274032706</v>
+      </c>
+      <c r="AG22" s="19">
         <f t="shared" si="38"/>
-        <v>0.34652969180656479</v>
-      </c>
-      <c r="P22" s="19">
+        <v>0.21934090429151321</v>
+      </c>
+      <c r="AH22" s="19">
         <f t="shared" si="38"/>
-        <v>0.22335647202939976</v>
-      </c>
-      <c r="Q22" s="19">
+        <v>0.22598543445742125</v>
+      </c>
+      <c r="AI22" s="19">
         <f t="shared" si="38"/>
-        <v>0.18190812720848057</v>
-      </c>
-      <c r="R22" s="20">
+        <v>0.22826275028080809</v>
+      </c>
+      <c r="AJ22" s="19">
         <f t="shared" si="38"/>
-        <v>0.14021375019939383</v>
-      </c>
-      <c r="S22" s="19">
+        <v>0.23052922174313126</v>
+      </c>
+      <c r="AK22" s="19">
         <f t="shared" si="38"/>
-        <v>0.33613445378151263</v>
-      </c>
-      <c r="V22" s="19">
-        <f t="shared" ref="V22:AP22" si="39">V9/V4</f>
-        <v>0.34737408137659076</v>
-      </c>
-      <c r="W22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.36507075587988758</v>
-      </c>
-      <c r="X22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.34168824897941269</v>
-      </c>
-      <c r="Y22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.28198719635183722</v>
-      </c>
-      <c r="Z22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.17500457289189683</v>
-      </c>
-      <c r="AA22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.14119627544847177</v>
-      </c>
-      <c r="AB22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.24959391296913738</v>
-      </c>
-      <c r="AC22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.25480860068775268</v>
-      </c>
-      <c r="AD22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.25014216661927779</v>
-      </c>
-      <c r="AE22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.25170454545454546</v>
-      </c>
-      <c r="AF22" s="20">
-        <f t="shared" si="39"/>
-        <v>0.24095072259212669</v>
-      </c>
-      <c r="AG22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.23595072259212668</v>
-      </c>
-      <c r="AH22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.23643946838960803</v>
-      </c>
-      <c r="AI22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.23871657765373647</v>
-      </c>
-      <c r="AJ22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.24098284354041677</v>
-      </c>
-      <c r="AK22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.24323831768477955</v>
+        <v>0.23278490048420528</v>
       </c>
       <c r="AL22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.24548305147607397</v>
+        <f t="shared" si="38"/>
+        <v>0.2350298378979408</v>
       </c>
       <c r="AM22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.24771709605883829</v>
+        <f t="shared" si="38"/>
+        <v>0.23726408513351557</v>
       </c>
       <c r="AN22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.2499405023340657</v>
+        <f t="shared" si="38"/>
+        <v>0.23948769309654025</v>
       </c>
       <c r="AO22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.25215332096036353</v>
+        <f t="shared" si="38"/>
+        <v>0.24170071245021693</v>
       </c>
       <c r="AP22" s="19">
-        <f t="shared" si="39"/>
-        <v>0.25435560235510746</v>
+        <f t="shared" si="38"/>
+        <v>0.24390319361649529</v>
       </c>
       <c r="AR22" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AS22" s="25">
         <f>(AS21-B4)/B4</f>
-        <v>1.0364284563603734</v>
+        <v>0.98967866737490928</v>
       </c>
     </row>
     <row r="23" spans="3:45" x14ac:dyDescent="0.25">
@@ -6235,55 +6217,55 @@
         <v>80</v>
       </c>
       <c r="D41" s="12">
-        <f t="shared" ref="D41:P41" si="40">SUM(D26:D40)</f>
+        <f t="shared" ref="D41:P41" si="39">SUM(D26:D40)</f>
         <v>19417</v>
       </c>
       <c r="E41" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>20502</v>
       </c>
       <c r="F41" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>21774</v>
       </c>
       <c r="G41" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>22013</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>21520</v>
       </c>
       <c r="I41" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>22110</v>
       </c>
       <c r="J41" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>23125</v>
       </c>
       <c r="K41" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>23799</v>
       </c>
       <c r="L41" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>23992</v>
       </c>
       <c r="M41" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>24798</v>
       </c>
       <c r="N41" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>25530</v>
       </c>
       <c r="O41" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>27757</v>
       </c>
       <c r="P41" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>26445</v>
       </c>
       <c r="Q41" s="12">
@@ -6291,11 +6273,11 @@
         <v>27006</v>
       </c>
       <c r="R41" s="13">
-        <f t="shared" ref="R41:S41" si="41">SUM(R26:R40)</f>
+        <f t="shared" ref="R41:S41" si="40">SUM(R26:R40)</f>
         <v>28435</v>
       </c>
       <c r="S41" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -6559,11 +6541,11 @@
         <v>93</v>
       </c>
       <c r="D47" s="16">
-        <f t="shared" ref="D47:P47" si="42">SUM(D42:D46)</f>
+        <f t="shared" ref="D47:P47" si="41">SUM(D42:D46)</f>
         <v>5526</v>
       </c>
       <c r="E47" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>5618</v>
       </c>
       <c r="F47" s="16">
@@ -6571,43 +6553,43 @@
         <v>5680</v>
       </c>
       <c r="G47" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>7168</v>
       </c>
       <c r="H47" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>5255</v>
       </c>
       <c r="I47" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>4245</v>
       </c>
       <c r="J47" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>3521</v>
       </c>
       <c r="K47" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>5356</v>
       </c>
       <c r="L47" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>3962</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>4076</v>
       </c>
       <c r="N47" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>3514</v>
       </c>
       <c r="O47" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>5507</v>
       </c>
       <c r="P47" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>3833</v>
       </c>
       <c r="Q47" s="16">
@@ -6615,11 +6597,11 @@
         <v>3549</v>
       </c>
       <c r="R47" s="40">
-        <f t="shared" ref="R47:S47" si="43">SUM(R42:R46)</f>
+        <f t="shared" ref="R47:S47" si="42">SUM(R42:R46)</f>
         <v>2921</v>
       </c>
       <c r="S47" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -7258,15 +7240,15 @@
         <v>13893</v>
       </c>
       <c r="E60" s="16">
-        <f t="shared" ref="E60:O60" si="44">SUM(E48:E59)</f>
+        <f t="shared" ref="E60:O60" si="43">SUM(E48:E59)</f>
         <v>14885</v>
       </c>
       <c r="F60" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>16097</v>
       </c>
       <c r="G60" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>14847</v>
       </c>
       <c r="H60" s="16">
@@ -7278,27 +7260,27 @@
         <v>17867</v>
       </c>
       <c r="J60" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>19606</v>
       </c>
       <c r="K60" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>18443</v>
       </c>
       <c r="L60" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>20033</v>
       </c>
       <c r="M60" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>20719</v>
       </c>
       <c r="N60" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>22013</v>
       </c>
       <c r="O60" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>22249</v>
       </c>
       <c r="P60" s="16">
@@ -7310,11 +7292,11 @@
         <v>23457</v>
       </c>
       <c r="R60" s="40">
-        <f t="shared" ref="R60:S60" si="45">SUM(R48:R59)</f>
+        <f t="shared" ref="R60:S60" si="44">SUM(R48:R59)</f>
         <v>25516</v>
       </c>
       <c r="S60" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="T60" s="16"/>
@@ -7324,55 +7306,55 @@
         <v>92</v>
       </c>
       <c r="D61" s="12">
-        <f t="shared" ref="D61:P61" si="46">D47+D60</f>
+        <f t="shared" ref="D61:P61" si="45">D47+D60</f>
         <v>19419</v>
       </c>
       <c r="E61" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>20503</v>
       </c>
       <c r="F61" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>21777</v>
       </c>
       <c r="G61" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>22015</v>
       </c>
       <c r="H61" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>21520</v>
       </c>
       <c r="I61" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>22112</v>
       </c>
       <c r="J61" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>23127</v>
       </c>
       <c r="K61" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>23799</v>
       </c>
       <c r="L61" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>23995</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>24795</v>
       </c>
       <c r="N61" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>25527</v>
       </c>
       <c r="O61" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>27756</v>
       </c>
       <c r="P61" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>26449</v>
       </c>
       <c r="Q61" s="12">
@@ -7380,11 +7362,11 @@
         <v>27006</v>
       </c>
       <c r="R61" s="13">
-        <f t="shared" ref="R61:S61" si="47">R47+R60</f>
+        <f t="shared" ref="R61:S61" si="46">R47+R60</f>
         <v>28437</v>
       </c>
       <c r="S61" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="T61" s="12"/>
@@ -7456,81 +7438,81 @@
         <v>96</v>
       </c>
       <c r="D64" s="14">
-        <f t="shared" ref="D64:S64" si="48">D9</f>
+        <f t="shared" ref="D64:S64" si="47">D9</f>
         <v>1310</v>
       </c>
       <c r="E64" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1249</v>
       </c>
       <c r="F64" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>977</v>
       </c>
       <c r="G64" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>3205</v>
       </c>
       <c r="H64" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1255</v>
       </c>
       <c r="I64" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1188</v>
       </c>
       <c r="J64" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>920</v>
       </c>
       <c r="K64" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>3674</v>
       </c>
       <c r="L64" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1507</v>
       </c>
       <c r="M64" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1337</v>
       </c>
       <c r="N64" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>981</v>
       </c>
       <c r="O64" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>4149</v>
       </c>
       <c r="P64" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1641</v>
       </c>
       <c r="Q64" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1287</v>
       </c>
       <c r="R64" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>879</v>
       </c>
       <c r="S64" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>4000</v>
       </c>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="14">
-        <f t="shared" ref="V64:X64" si="49">V12</f>
+        <f t="shared" ref="V64:X64" si="48">V12</f>
         <v>5345</v>
       </c>
       <c r="W64" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>7650</v>
       </c>
       <c r="X64" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>7667</v>
       </c>
       <c r="Y64" s="14">
@@ -7542,23 +7524,23 @@
         <v>3827</v>
       </c>
       <c r="AA64" s="14">
-        <f t="shared" ref="AA64:AE64" si="50">AA9</f>
+        <f t="shared" ref="AA64:AE64" si="49">AA9</f>
         <v>2684</v>
       </c>
       <c r="AB64" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>5839</v>
       </c>
       <c r="AC64" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>6743</v>
       </c>
       <c r="AD64" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>7038</v>
       </c>
       <c r="AE64" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>7974</v>
       </c>
     </row>
@@ -8302,55 +8284,55 @@
         <v>107</v>
       </c>
       <c r="D75" s="12">
-        <f t="shared" ref="D75:P75" si="51">SUM(D65:D74)</f>
+        <f t="shared" ref="D75:P75" si="50">SUM(D65:D74)</f>
         <v>-1111</v>
       </c>
       <c r="E75" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>927</v>
       </c>
       <c r="F75" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>542</v>
       </c>
       <c r="G75" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>4075</v>
       </c>
       <c r="H75" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>-143</v>
       </c>
       <c r="I75" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1628</v>
       </c>
       <c r="J75" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1077</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>4821</v>
       </c>
       <c r="L75" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>188</v>
       </c>
       <c r="M75" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1629</v>
       </c>
       <c r="N75" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1181</v>
       </c>
       <c r="O75" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>5725</v>
       </c>
       <c r="P75" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>-289</v>
       </c>
       <c r="Q75" s="12">
@@ -8358,51 +8340,51 @@
         <v>1387</v>
       </c>
       <c r="R75" s="13">
-        <f t="shared" ref="R75:S75" si="52">SUM(R65:R74)</f>
+        <f t="shared" ref="R75:S75" si="51">SUM(R65:R74)</f>
         <v>960</v>
       </c>
       <c r="S75" s="12">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="12">
+        <f t="shared" ref="V75:AE75" si="52">SUM(V65:V74)</f>
+        <v>0</v>
+      </c>
+      <c r="W75" s="12">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="V75" s="12">
-        <f t="shared" ref="V75:AE75" si="53">SUM(V65:V74)</f>
+      <c r="X75" s="12">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="W75" s="12">
-        <f t="shared" si="53"/>
+      <c r="Y75" s="12">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="X75" s="12">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="Y75" s="12">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
       <c r="Z75" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>6777</v>
       </c>
       <c r="AA75" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>5975</v>
       </c>
       <c r="AB75" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>6228</v>
       </c>
       <c r="AC75" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>4434</v>
       </c>
       <c r="AD75" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>7384</v>
       </c>
       <c r="AE75" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>8720</v>
       </c>
     </row>
@@ -8677,55 +8659,55 @@
         <v>111</v>
       </c>
       <c r="D80" s="12">
-        <f t="shared" ref="D80:P80" si="54">SUM(D77:D79)</f>
+        <f t="shared" ref="D80:P80" si="53">SUM(D77:D79)</f>
         <v>-446</v>
       </c>
       <c r="E80" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-277</v>
       </c>
       <c r="F80" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-600</v>
       </c>
       <c r="G80" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-461</v>
       </c>
       <c r="H80" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-377</v>
       </c>
       <c r="I80" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-372</v>
       </c>
       <c r="J80" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-554</v>
       </c>
       <c r="K80" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-498</v>
       </c>
       <c r="L80" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-405</v>
       </c>
       <c r="M80" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-473</v>
       </c>
       <c r="N80" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-488</v>
       </c>
       <c r="O80" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-531</v>
       </c>
       <c r="P80" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-545</v>
       </c>
       <c r="Q80" s="12">
@@ -8733,51 +8715,51 @@
         <v>-698</v>
       </c>
       <c r="R80" s="13">
-        <f t="shared" ref="R80:S80" si="55">SUM(R77:R79)</f>
+        <f t="shared" ref="R80:S80" si="54">SUM(R77:R79)</f>
         <v>-524</v>
       </c>
       <c r="S80" s="12">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V80" s="12">
+        <f t="shared" ref="V80:AE80" si="55">SUM(V77:V79)</f>
+        <v>0</v>
+      </c>
+      <c r="W80" s="12">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="V80" s="12">
-        <f t="shared" ref="V80:AE80" si="56">SUM(V77:V79)</f>
+      <c r="X80" s="12">
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="W80" s="12">
-        <f t="shared" si="56"/>
+      <c r="Y80" s="12">
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="X80" s="12">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="Y80" s="12">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
       <c r="Z80" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>-876</v>
       </c>
       <c r="AA80" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>-484</v>
       </c>
       <c r="AB80" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>-632</v>
       </c>
       <c r="AC80" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>-1784</v>
       </c>
       <c r="AD80" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>-1800</v>
       </c>
       <c r="AE80" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>-1888</v>
       </c>
     </row>
@@ -9259,55 +9241,55 @@
         <v>118</v>
       </c>
       <c r="D88" s="12">
-        <f t="shared" ref="D88:P88" si="57">SUM(D82:D87)</f>
+        <f t="shared" ref="D88:P88" si="56">SUM(D82:D87)</f>
         <v>1203</v>
       </c>
       <c r="E88" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>-370</v>
       </c>
       <c r="F88" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>-694</v>
       </c>
       <c r="G88" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>-3240</v>
       </c>
       <c r="H88" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>219</v>
       </c>
       <c r="I88" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>-778</v>
       </c>
       <c r="J88" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>-558</v>
       </c>
       <c r="K88" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>-3818</v>
       </c>
       <c r="L88" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>-415</v>
       </c>
       <c r="M88" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>-891</v>
       </c>
       <c r="N88" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>-935</v>
       </c>
       <c r="O88" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>-3461</v>
       </c>
       <c r="P88" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>-1014</v>
       </c>
       <c r="Q88" s="12">
@@ -9315,47 +9297,47 @@
         <v>-456</v>
       </c>
       <c r="R88" s="13">
-        <f t="shared" ref="R88:S88" si="58">SUM(R82:R87)</f>
+        <f t="shared" ref="R88:S88" si="57">SUM(R82:R87)</f>
         <v>-632</v>
       </c>
       <c r="S88" s="12">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="V88" s="12">
+        <f t="shared" ref="V88:AD88" si="58">SUM(V82:V87)</f>
+        <v>0</v>
+      </c>
+      <c r="W88" s="12">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="V88" s="12">
-        <f t="shared" ref="V88:AD88" si="59">SUM(V82:V87)</f>
+      <c r="X88" s="12">
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="W88" s="12">
-        <f t="shared" si="59"/>
+      <c r="Y88" s="12">
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="X88" s="12">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="Y88" s="12">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
       <c r="Z88" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>-6250</v>
       </c>
       <c r="AA88" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>-3571</v>
       </c>
       <c r="AB88" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>-7484</v>
       </c>
       <c r="AC88" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>-3100</v>
       </c>
       <c r="AD88" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>-4935</v>
       </c>
       <c r="AE88" s="12">
@@ -9497,55 +9479,55 @@
         <v>120</v>
       </c>
       <c r="D92" s="14">
-        <f t="shared" ref="D92" si="60">D75+D80+D88+D90</f>
+        <f t="shared" ref="D92" si="59">D75+D80+D88+D90</f>
         <v>-326</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" ref="E92:P92" si="61">E75+E80+E88+E90</f>
+        <f t="shared" ref="E92:P92" si="60">E75+E80+E88+E90</f>
         <v>288</v>
       </c>
       <c r="F92" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>-745</v>
       </c>
       <c r="G92" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>335</v>
       </c>
       <c r="H92" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>-308</v>
       </c>
       <c r="I92" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>461</v>
       </c>
       <c r="J92" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>-39</v>
       </c>
       <c r="K92" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>470</v>
       </c>
       <c r="L92" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>-636</v>
       </c>
       <c r="M92" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>261</v>
       </c>
       <c r="N92" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>-255</v>
       </c>
       <c r="O92" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>1744</v>
       </c>
       <c r="P92" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>-1864</v>
       </c>
       <c r="Q92" s="14">
@@ -9553,51 +9535,51 @@
         <v>196</v>
       </c>
       <c r="R92" s="15">
-        <f t="shared" ref="R92:S92" si="62">R75+R80+R88+R90</f>
+        <f t="shared" ref="R92:S92" si="61">R75+R80+R88+R90</f>
         <v>-204</v>
       </c>
       <c r="S92" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="14">
+        <f t="shared" ref="V92:AE92" si="62">V75+V80+V88+V90</f>
+        <v>0</v>
+      </c>
+      <c r="W92" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="V92" s="14">
-        <f t="shared" ref="V92:AE92" si="63">V75+V80+V88+V90</f>
+      <c r="X92" s="14">
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="W92" s="14">
-        <f t="shared" si="63"/>
+      <c r="Y92" s="14">
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="X92" s="14">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="Y92" s="14">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
       <c r="Z92" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>-330</v>
       </c>
       <c r="AA92" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>1858</v>
       </c>
       <c r="AB92" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>-1870</v>
       </c>
       <c r="AC92" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>-446</v>
       </c>
       <c r="AD92" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>588</v>
       </c>
       <c r="AE92" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>1120</v>
       </c>
     </row>
@@ -9634,55 +9616,55 @@
         <v>121</v>
       </c>
       <c r="D94" s="14">
-        <f t="shared" ref="D94" si="64">D75+D77</f>
+        <f t="shared" ref="D94" si="63">D75+D77</f>
         <v>-1566</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" ref="E94:P94" si="65">E75+E77</f>
+        <f t="shared" ref="E94:P94" si="64">E75+E77</f>
         <v>652</v>
       </c>
       <c r="F94" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-39</v>
       </c>
       <c r="G94" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>3633</v>
       </c>
       <c r="H94" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-528</v>
       </c>
       <c r="I94" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>1235</v>
       </c>
       <c r="J94" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>528</v>
       </c>
       <c r="K94" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>4310</v>
       </c>
       <c r="L94" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-222</v>
       </c>
       <c r="M94" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>1157</v>
       </c>
       <c r="N94" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>705</v>
       </c>
       <c r="O94" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>5209</v>
       </c>
       <c r="P94" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-838</v>
       </c>
       <c r="Q94" s="14">
@@ -9690,51 +9672,51 @@
         <v>690</v>
       </c>
       <c r="R94" s="15">
-        <f t="shared" ref="R94:S94" si="66">R75+R77</f>
+        <f t="shared" ref="R94:S94" si="65">R75+R77</f>
         <v>440</v>
       </c>
       <c r="S94" s="14">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="V94" s="14">
+        <f t="shared" ref="V94:AE94" si="66">V75+V77</f>
+        <v>0</v>
+      </c>
+      <c r="W94" s="14">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="V94" s="14">
-        <f t="shared" ref="V94:AE94" si="67">V75+V77</f>
+      <c r="X94" s="14">
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="W94" s="14">
-        <f t="shared" si="67"/>
+      <c r="Y94" s="14">
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X94" s="14">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="Y94" s="14">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
       <c r="Z94" s="14">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>5817</v>
       </c>
       <c r="AA94" s="14">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>5459</v>
       </c>
       <c r="AB94" s="14">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>5577</v>
       </c>
       <c r="AC94" s="14">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>2681</v>
       </c>
       <c r="AD94" s="14">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>5547</v>
       </c>
       <c r="AE94" s="14">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>6847</v>
       </c>
     </row>
@@ -14195,10 +14177,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC8E745-DC06-8448-81B5-DC40131426CF}">
-  <dimension ref="C4:F6"/>
+  <dimension ref="C4:G6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14206,9 +14188,10 @@
     <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" ht="62" x14ac:dyDescent="0.7">
+    <row r="4" spans="3:7" ht="62" x14ac:dyDescent="0.7">
       <c r="C4" s="28"/>
       <c r="D4" s="28">
         <v>2025</v>
@@ -14219,39 +14202,50 @@
       <c r="F4" s="28">
         <v>2027</v>
       </c>
-    </row>
-    <row r="5" spans="3:6" ht="62" x14ac:dyDescent="0.7">
+      <c r="G4" s="65">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="62" x14ac:dyDescent="0.7">
       <c r="C5" s="28" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="35">
         <f>Modell!$B$9/Modell!AF9</f>
-        <v>8.1037843069213942</v>
+        <v>7.7989036033707109</v>
       </c>
       <c r="E5" s="35">
         <f>Modell!$B$9/Modell!AG9</f>
-        <v>7.8814385802670373</v>
+        <v>8.2790805120179343</v>
       </c>
       <c r="F5" s="35">
         <f>Modell!$B$9/Modell!AH9</f>
-        <v>7.4906159995216557</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" ht="62" x14ac:dyDescent="0.7">
+        <v>7.7639179594057124</v>
+      </c>
+      <c r="G5" s="35">
+        <f>Modell!$B$9/Modell!AI9</f>
+        <v>7.3204375679620899</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="62" x14ac:dyDescent="0.7">
       <c r="C6" s="28" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="35">
         <f>Modell!$B$4/Modell!AF16</f>
-        <v>8.8272732503631364</v>
+        <v>8.3414732816547676</v>
       </c>
       <c r="E6" s="35">
         <f>Modell!$B$4/Modell!AG16</f>
-        <v>8.5759437291631802</v>
+        <v>8.9555741168652467</v>
       </c>
       <c r="F6" s="35">
         <f>Modell!$B$4/Modell!AH16</f>
-        <v>8.1178771922631316</v>
+        <v>8.3444721496114322</v>
+      </c>
+      <c r="G6" s="35">
+        <f>Modell!$B$4/Modell!AI16</f>
+        <v>7.8255858616666822</v>
       </c>
     </row>
   </sheetData>
@@ -14264,10 +14258,10 @@
   <dimension ref="A3:HG22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
+      <selection pane="bottomRight" activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -14517,7 +14511,7 @@
     <row r="6" spans="1:215" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <f>AA22</f>
-        <v>-5.2963959560494121E-2</v>
+        <v>1.8712991215000436E-2</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
@@ -16541,7 +16535,7 @@
       </c>
       <c r="AA22" s="39">
         <f>(AA21-Modell!B4)/Modell!B4</f>
-        <v>-5.2963959560494121E-2</v>
+        <v>1.8712991215000436E-2</v>
       </c>
     </row>
   </sheetData>
